--- a/Global Allocation/All_Assets_M.xlsx
+++ b/Global Allocation/All_Assets_M.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
-    <t>Barclays_US_bond</t>
+    <t>Barclays_US_CB</t>
   </si>
   <si>
     <t>BloomBerg_comodity</t>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t>SP500</t>
+  </si>
+  <si>
+    <t>Barclays_US_HY</t>
   </si>
 </sst>
 </file>
@@ -401,13 +404,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I1073"/>
+  <dimension ref="A1:J1074"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -432,13 +435,16 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="2">
         <v>10227</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:10">
       <c r="A3" s="2">
         <v>10258</v>
       </c>
@@ -446,7 +452,7 @@
         <v>-0.005096262740656887</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:10">
       <c r="A4" s="2">
         <v>10287</v>
       </c>
@@ -454,7 +460,7 @@
         <v>-0.01764371087080241</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:10">
       <c r="A5" s="2">
         <v>10318</v>
       </c>
@@ -462,7 +468,7 @@
         <v>0.1170336037079953</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:10">
       <c r="A6" s="2">
         <v>10348</v>
       </c>
@@ -470,7 +476,7 @@
         <v>0.02437759336099576</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:10">
       <c r="A7" s="2">
         <v>10379</v>
       </c>
@@ -478,7 +484,7 @@
         <v>0.01265822784810133</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:10">
       <c r="A8" s="2">
         <v>10409</v>
       </c>
@@ -486,7 +492,7 @@
         <v>-0.04299999999999993</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:10">
       <c r="A9" s="2">
         <v>10440</v>
       </c>
@@ -494,7 +500,7 @@
         <v>0.01515151515151514</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:10">
       <c r="A10" s="2">
         <v>10471</v>
       </c>
@@ -502,7 +508,7 @@
         <v>0.07411219763252719</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:10">
       <c r="A11" s="2">
         <v>10501</v>
       </c>
@@ -510,7 +516,7 @@
         <v>0.01293723047436512</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:10">
       <c r="A12" s="2">
         <v>10532</v>
       </c>
@@ -518,7 +524,7 @@
         <v>0.02554399243140959</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:10">
       <c r="A13" s="2">
         <v>10562</v>
       </c>
@@ -526,7 +532,7 @@
         <v>0.1199261992619927</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:10">
       <c r="A14" s="2">
         <v>10593</v>
       </c>
@@ -534,7 +540,7 @@
         <v>0.002883031301482708</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:10">
       <c r="A15" s="2">
         <v>10624</v>
       </c>
@@ -542,7 +548,7 @@
         <v>0.05708418891170419</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:10">
       <c r="A16" s="2">
         <v>10652</v>
       </c>
@@ -4989,6 +4995,9 @@
       <c r="A544" s="2">
         <v>26723</v>
       </c>
+      <c r="B544">
+        <v>0.003707414829659417</v>
+      </c>
       <c r="E544">
         <v>0.2924242424242425</v>
       </c>
@@ -5003,6 +5012,9 @@
       <c r="A545" s="2">
         <v>26754</v>
       </c>
+      <c r="B545">
+        <v>9.983028850957254e-05</v>
+      </c>
       <c r="E545">
         <v>0.0580304806565064</v>
       </c>
@@ -5017,6 +5029,9 @@
       <c r="A546" s="2">
         <v>26784</v>
       </c>
+      <c r="B546">
+        <v>0.009682571371531168</v>
+      </c>
       <c r="E546">
         <v>0.00498614958448762</v>
       </c>
@@ -5031,6 +5046,9 @@
       <c r="A547" s="2">
         <v>26815</v>
       </c>
+      <c r="B547">
+        <v>-0.003855659911023213</v>
+      </c>
       <c r="E547">
         <v>0.2624035281146637</v>
       </c>
@@ -5045,6 +5063,9 @@
       <c r="A548" s="2">
         <v>26845</v>
       </c>
+      <c r="B548">
+        <v>-0.01081778483525209</v>
+      </c>
       <c r="E548">
         <v>0.07860262008733621</v>
       </c>
@@ -5059,6 +5080,9 @@
       <c r="A549" s="2">
         <v>26876</v>
       </c>
+      <c r="B549">
+        <v>-0.03471455804153711</v>
+      </c>
       <c r="E549">
         <v>-0.06720647773279353</v>
       </c>
@@ -5073,6 +5097,9 @@
       <c r="A550" s="2">
         <v>26907</v>
       </c>
+      <c r="B550">
+        <v>0.03689845130443836</v>
+      </c>
       <c r="E550">
         <v>-0.09722222222222221</v>
       </c>
@@ -5087,6 +5114,9 @@
       <c r="A551" s="2">
         <v>26937</v>
       </c>
+      <c r="B551">
+        <v>0.03157578187650345</v>
+      </c>
       <c r="E551">
         <v>-0.03605769230769229</v>
       </c>
@@ -5101,6 +5131,9 @@
       <c r="A552" s="2">
         <v>26968</v>
       </c>
+      <c r="B552">
+        <v>-0.01098046837042066</v>
+      </c>
       <c r="E552">
         <v>-0.02992518703241898</v>
       </c>
@@ -5115,6 +5148,9 @@
       <c r="A553" s="2">
         <v>26998</v>
       </c>
+      <c r="B553">
+        <v>0.01070937315779141</v>
+      </c>
       <c r="E553">
         <v>0.03084832904884327</v>
       </c>
@@ -5129,6 +5165,9 @@
       <c r="A554" s="2">
         <v>27029</v>
       </c>
+      <c r="B554">
+        <v>-0.01322056965101581</v>
+      </c>
       <c r="E554">
         <v>0.1197007481296759</v>
       </c>
@@ -5143,6 +5182,9 @@
       <c r="A555" s="2">
         <v>27060</v>
       </c>
+      <c r="B555">
+        <v>0.0005910747709583219</v>
+      </c>
       <c r="E555">
         <v>0.1870824053452116</v>
       </c>
@@ -5157,6 +5199,9 @@
       <c r="A556" s="2">
         <v>27088</v>
       </c>
+      <c r="B556">
+        <v>0.002461356699812844</v>
+      </c>
       <c r="E556">
         <v>0.272045028142589</v>
       </c>
@@ -5171,6 +5216,9 @@
       <c r="A557" s="2">
         <v>27119</v>
       </c>
+      <c r="B557">
+        <v>-0.03034767236299341</v>
+      </c>
       <c r="E557">
         <v>0.02064896755162238</v>
       </c>
@@ -5185,6 +5233,9 @@
       <c r="A558" s="2">
         <v>27149</v>
       </c>
+      <c r="B558">
+        <v>-0.02977818292312362</v>
+      </c>
       <c r="E558">
         <v>-0.02601156069364163</v>
       </c>
@@ -5199,6 +5250,9 @@
       <c r="A559" s="2">
         <v>27180</v>
       </c>
+      <c r="B559">
+        <v>0.006994467063367704</v>
+      </c>
       <c r="E559">
         <v>-0.07121661721068251</v>
       </c>
@@ -5213,6 +5267,9 @@
       <c r="A560" s="2">
         <v>27210</v>
       </c>
+      <c r="B560">
+        <v>-0.04530375285092259</v>
+      </c>
       <c r="E560">
         <v>-0.06230031948881787</v>
       </c>
@@ -5227,6 +5284,9 @@
       <c r="A561" s="2">
         <v>27241</v>
       </c>
+      <c r="B561">
+        <v>-0.008578564447822901</v>
+      </c>
       <c r="E561">
         <v>0.04940374787052804</v>
       </c>
@@ -5241,6 +5301,9 @@
       <c r="A562" s="2">
         <v>27272</v>
       </c>
+      <c r="B562">
+        <v>-0.02442497261774379</v>
+      </c>
       <c r="E562">
         <v>0.008116883116883189</v>
       </c>
@@ -5255,6 +5318,9 @@
       <c r="A563" s="2">
         <v>27302</v>
       </c>
+      <c r="B563">
+        <v>0.01156393847535653</v>
+      </c>
       <c r="E563">
         <v>-0.0499194847020934</v>
       </c>
@@ -5269,6 +5335,9 @@
       <c r="A564" s="2">
         <v>27333</v>
       </c>
+      <c r="B564">
+        <v>0.07280799112097669</v>
+      </c>
       <c r="E564">
         <v>0.128135593220339</v>
       </c>
@@ -5283,6 +5352,9 @@
       <c r="A565" s="2">
         <v>27363</v>
       </c>
+      <c r="B565">
+        <v>-0.003207117732257458</v>
+      </c>
       <c r="E565">
         <v>0.09375</v>
       </c>
@@ -5297,6 +5369,9 @@
       <c r="A566" s="2">
         <v>27394</v>
       </c>
+      <c r="B566">
+        <v>-0.008199273482096481</v>
+      </c>
       <c r="E566">
         <v>0.03021978021978011</v>
       </c>
@@ -5311,6 +5386,9 @@
       <c r="A567" s="2">
         <v>27425</v>
       </c>
+      <c r="B567">
+        <v>0.06822938467978235</v>
+      </c>
       <c r="E567">
         <v>-0.06000000000000005</v>
       </c>
@@ -5325,6 +5403,9 @@
       <c r="A568" s="2">
         <v>27453</v>
       </c>
+      <c r="B568">
+        <v>0.01988636363636376</v>
+      </c>
       <c r="E568">
         <v>0.03120567375886529</v>
       </c>
@@ -5339,6 +5420,9 @@
       <c r="A569" s="2">
         <v>27484</v>
       </c>
+      <c r="B569">
+        <v>-0.03198540005763129</v>
+      </c>
       <c r="E569">
         <v>-0.02200825309491061</v>
       </c>
@@ -5353,6 +5437,9 @@
       <c r="A570" s="2">
         <v>27514</v>
       </c>
+      <c r="B570">
+        <v>-0.008533439174439383</v>
+      </c>
       <c r="E570">
         <v>-0.0582278481012658</v>
       </c>
@@ -5367,6 +5454,9 @@
       <c r="A571" s="2">
         <v>27545</v>
       </c>
+      <c r="B571">
+        <v>0.02612089671737383</v>
+      </c>
       <c r="E571">
         <v>0.002090800477897226</v>
       </c>
@@ -5381,6 +5471,9 @@
       <c r="A572" s="2">
         <v>27575</v>
       </c>
+      <c r="B572">
+        <v>0.02701648298059101</v>
+      </c>
       <c r="E572">
         <v>-0.01043219076005963</v>
       </c>
@@ -5395,6 +5488,9 @@
       <c r="A573" s="2">
         <v>27606</v>
       </c>
+      <c r="B573">
+        <v>-0.002184235517568855</v>
+      </c>
       <c r="E573">
         <v>0.002409638554216942</v>
       </c>
@@ -5409,6 +5505,9 @@
       <c r="A574" s="2">
         <v>27637</v>
       </c>
+      <c r="B574">
+        <v>-0.004949081564671109</v>
+      </c>
       <c r="E574">
         <v>-0.02944711538461542</v>
       </c>
@@ -5423,6 +5522,9 @@
       <c r="A575" s="2">
         <v>27667</v>
       </c>
+      <c r="B575">
+        <v>-0.01195600191296031</v>
+      </c>
       <c r="E575">
         <v>-0.1439628482972136</v>
       </c>
@@ -5437,6 +5539,9 @@
       <c r="A576" s="2">
         <v>27698</v>
       </c>
+      <c r="B576">
+        <v>0.04753146176185874</v>
+      </c>
       <c r="E576">
         <v>0.03725135623869802</v>
       </c>
@@ -5451,6 +5556,9 @@
       <c r="A577" s="2">
         <v>27728</v>
       </c>
+      <c r="B577">
+        <v>-0.004620645042047844</v>
+      </c>
       <c r="E577">
         <v>-0.03591352859135288</v>
       </c>
@@ -5465,6 +5573,9 @@
       <c r="A578" s="2">
         <v>27759</v>
       </c>
+      <c r="B578">
+        <v>0.03537276018939739</v>
+      </c>
       <c r="E578">
         <v>0.01446654611211584</v>
       </c>
@@ -5479,6 +5590,9 @@
       <c r="A579" s="2">
         <v>27790</v>
       </c>
+      <c r="B579">
+        <v>0.02914275466284066</v>
+      </c>
       <c r="E579">
         <v>-0.08734402852049916</v>
       </c>
@@ -5494,7 +5608,7 @@
         <v>27819</v>
       </c>
       <c r="B580">
-        <v>0.007552721922510885</v>
+        <v>0.009497255380325864</v>
       </c>
       <c r="E580">
         <v>0.03359375000000009</v>
@@ -5511,7 +5625,7 @@
         <v>27850</v>
       </c>
       <c r="B581">
-        <v>0.01197429906542058</v>
+        <v>0.01467288106335229</v>
       </c>
       <c r="E581">
         <v>-0.02116402116402127</v>
@@ -5528,7 +5642,7 @@
         <v>27880</v>
       </c>
       <c r="B582">
-        <v>0.005579605579605573</v>
+        <v>0.004083021435862477</v>
       </c>
       <c r="E582">
         <v>-0.01042471042471038</v>
@@ -5545,7 +5659,7 @@
         <v>27911</v>
       </c>
       <c r="B583">
-        <v>-0.009088300009566619</v>
+        <v>-0.009234157912571983</v>
       </c>
       <c r="E583">
         <v>-0.02262973078423725</v>
@@ -5562,7 +5676,7 @@
         <v>27941</v>
       </c>
       <c r="B584">
-        <v>0.01419192894381149</v>
+        <v>0.01504916631038888</v>
       </c>
       <c r="E584">
         <v>-0.0115768463073852</v>
@@ -5579,7 +5693,7 @@
         <v>27972</v>
       </c>
       <c r="B585">
-        <v>0.01170871013802954</v>
+        <v>0.01347822424395595</v>
       </c>
       <c r="E585">
         <v>-0.09208400646203552</v>
@@ -5596,7 +5710,7 @@
         <v>28003</v>
       </c>
       <c r="B586">
-        <v>0.01787730523146402</v>
+        <v>0.02194331310780484</v>
       </c>
       <c r="E586">
         <v>-0.08318505338078297</v>
@@ -5613,7 +5727,7 @@
         <v>28033</v>
       </c>
       <c r="B587">
-        <v>0.01377334072841552</v>
+        <v>0.01675477836518913</v>
       </c>
       <c r="E587">
         <v>0.1266375545851528</v>
@@ -5630,7 +5744,7 @@
         <v>28064</v>
       </c>
       <c r="B588">
-        <v>0.01075955138141693</v>
+        <v>0.009999200063994795</v>
       </c>
       <c r="E588">
         <v>0.053402239448751</v>
@@ -5647,7 +5761,7 @@
         <v>28094</v>
       </c>
       <c r="B589">
-        <v>0.02417681551646367</v>
+        <v>0.02542372881355925</v>
       </c>
       <c r="E589">
         <v>0.06377759607522493</v>
@@ -5664,7 +5778,7 @@
         <v>28125</v>
       </c>
       <c r="B590">
-        <v>0.01823306614991616</v>
+        <v>0.02796014520738388</v>
       </c>
       <c r="E590">
         <v>0.03420445810914696</v>
@@ -5681,7 +5795,7 @@
         <v>28156</v>
       </c>
       <c r="B591">
-        <v>-0.01920415224913496</v>
+        <v>-0.0222405890750621</v>
       </c>
       <c r="E591">
         <v>-0.01820884429580094</v>
@@ -5698,7 +5812,7 @@
         <v>28184</v>
       </c>
       <c r="B592">
-        <v>0.003792556006350312</v>
+        <v>0.002766464304925886</v>
       </c>
       <c r="E592">
         <v>0.07683573050719161</v>
@@ -5715,7 +5829,7 @@
         <v>28215</v>
       </c>
       <c r="B593">
-        <v>0.0074685879975398</v>
+        <v>0.007893325159016085</v>
       </c>
       <c r="E593">
         <v>0.05307557117750439</v>
@@ -5732,7 +5846,7 @@
         <v>28245</v>
       </c>
       <c r="B594">
-        <v>0.009070294784580657</v>
+        <v>0.01094890510948909</v>
       </c>
       <c r="E594">
         <v>-0.02202937249666226</v>
@@ -5749,7 +5863,7 @@
         <v>28276</v>
       </c>
       <c r="B595">
-        <v>0.006914433880726101</v>
+        <v>0.009401323706377918</v>
       </c>
       <c r="E595">
         <v>-0.02252559726962466</v>
@@ -5766,7 +5880,7 @@
         <v>28306</v>
       </c>
       <c r="B596">
-        <v>0.0141630901287555</v>
+        <v>0.016243200953729</v>
       </c>
       <c r="E596">
         <v>-0.001745810055865937</v>
@@ -5783,7 +5897,7 @@
         <v>28337</v>
       </c>
       <c r="B597">
-        <v>-0.0005924672027084465</v>
+        <v>0.002566170540362345</v>
       </c>
       <c r="E597">
         <v>0.01084295208114727</v>
@@ -5800,7 +5914,7 @@
         <v>28368</v>
       </c>
       <c r="B598">
-        <v>0.00956978319783186</v>
+        <v>0.01118911803422562</v>
       </c>
       <c r="E598">
         <v>0.01038062283737018</v>
@@ -5817,7 +5931,7 @@
         <v>28398</v>
       </c>
       <c r="B599">
-        <v>0</v>
+        <v>-0.001229478556447616</v>
       </c>
       <c r="E599">
         <v>0.05410958904109586</v>
@@ -5834,7 +5948,7 @@
         <v>28429</v>
       </c>
       <c r="B600">
-        <v>-0.005284791544333478</v>
+        <v>-0.006299782766111539</v>
       </c>
       <c r="E600">
         <v>0.04483430799220267</v>
@@ -5851,7 +5965,7 @@
         <v>28459</v>
       </c>
       <c r="B601">
-        <v>0.008939112835216756</v>
+        <v>0.008671573271150645</v>
       </c>
       <c r="E601">
         <v>-0.006218905472636815</v>
@@ -5868,7 +5982,7 @@
         <v>28490</v>
       </c>
       <c r="B602">
-        <v>-0.004429956536275537</v>
+        <v>-0.008091316283773797</v>
       </c>
       <c r="E602">
         <v>0.03629536921151422</v>
@@ -5885,7 +5999,7 @@
         <v>28521</v>
       </c>
       <c r="B603">
-        <v>-0.002350768197464492</v>
+        <v>-0.003495994173343231</v>
       </c>
       <c r="E603">
         <v>0.05797101449275366</v>
@@ -5902,7 +6016,7 @@
         <v>28549</v>
       </c>
       <c r="B604">
-        <v>0.003871076327526701</v>
+        <v>0.005043122350533613</v>
       </c>
       <c r="E604">
         <v>0.03881278538812793</v>
@@ -5919,7 +6033,7 @@
         <v>28580</v>
       </c>
       <c r="B605">
-        <v>0.003185514292899594</v>
+        <v>0.002036215547960074</v>
       </c>
       <c r="E605">
         <v>-0.006868131868131844</v>
@@ -5936,7 +6050,7 @@
         <v>28610</v>
       </c>
       <c r="B606">
-        <v>0.001420573243085199</v>
+        <v>0.0001451484142536152</v>
       </c>
       <c r="E606">
         <v>-0.05947441217150762</v>
@@ -5953,7 +6067,7 @@
         <v>28641</v>
       </c>
       <c r="B607">
-        <v>-0.004506008010680906</v>
+        <v>-0.009288150351933866</v>
       </c>
       <c r="E607">
         <v>0.08764705882352941</v>
@@ -5970,7 +6084,7 @@
         <v>28671</v>
       </c>
       <c r="B608">
-        <v>-0.0002514668901928419</v>
+        <v>0.00219731927049005</v>
       </c>
       <c r="E608">
         <v>-0.009194159004867641</v>
@@ -5987,7 +6101,7 @@
         <v>28702</v>
       </c>
       <c r="B609">
-        <v>0.01140269975685415</v>
+        <v>0.01300884308996575</v>
       </c>
       <c r="E609">
         <v>0.0856986899563319</v>
@@ -6004,7 +6118,7 @@
         <v>28733</v>
       </c>
       <c r="B610">
-        <v>0.01583354057862896</v>
+        <v>0.02200418440227958</v>
       </c>
       <c r="E610">
         <v>0.04223227752639525</v>
@@ -6021,7 +6135,7 @@
         <v>28763</v>
       </c>
       <c r="B611">
-        <v>-0.0004080300310104201</v>
+        <v>-0.003458986305237999</v>
       </c>
       <c r="E611">
         <v>0.04896285576459225</v>
@@ -6038,7 +6152,7 @@
         <v>28794</v>
       </c>
       <c r="B612">
-        <v>-0.01412360192668782</v>
+        <v>-0.01997591556279654</v>
       </c>
       <c r="E612">
         <v>0.1204874683835366</v>
@@ -6055,7 +6169,7 @@
         <v>28824</v>
       </c>
       <c r="B613">
-        <v>0.009771447499171915</v>
+        <v>0.01062522587640036</v>
       </c>
       <c r="E613">
         <v>-0.2050071824338191</v>
@@ -6072,7 +6186,7 @@
         <v>28855</v>
       </c>
       <c r="B614">
-        <v>-0.009594882729211052</v>
+        <v>-0.01451866685738812</v>
       </c>
       <c r="E614">
         <v>0.1590087764584409</v>
@@ -6089,7 +6203,7 @@
         <v>28886</v>
       </c>
       <c r="B615">
-        <v>0.01871325660346113</v>
+        <v>0.02032077799550058</v>
       </c>
       <c r="E615">
         <v>0.03808463251670391</v>
@@ -6106,7 +6220,7 @@
         <v>28914</v>
       </c>
       <c r="B616">
-        <v>-0.004226611395594548</v>
+        <v>-0.01017142044242125</v>
       </c>
       <c r="E616">
         <v>0.07659300579274841</v>
@@ -6123,7 +6237,7 @@
         <v>28945</v>
       </c>
       <c r="B617">
-        <v>0.01028487470410577</v>
+        <v>0.01142569703937912</v>
       </c>
       <c r="E617">
         <v>-0.0448385811080112</v>
@@ -6140,7 +6254,7 @@
         <v>28975</v>
       </c>
       <c r="B618">
-        <v>-0.001615900460531616</v>
+        <v>-0.00596802841918298</v>
       </c>
       <c r="E618">
         <v>0.01585645733361152</v>
@@ -6157,7 +6271,7 @@
         <v>29006</v>
       </c>
       <c r="B619">
-        <v>0.01869385773245935</v>
+        <v>0.02330069330283746</v>
       </c>
       <c r="E619">
         <v>0.1384267816800164</v>
@@ -6174,7 +6288,7 @@
         <v>29036</v>
       </c>
       <c r="B620">
-        <v>0.0217667619955515</v>
+        <v>0.02332890968778378</v>
       </c>
       <c r="E620">
         <v>-0.002525708100306612</v>
@@ -6191,7 +6305,7 @@
         <v>29067</v>
       </c>
       <c r="B621">
-        <v>0.000466490436946021</v>
+        <v>0.001638113439355715</v>
       </c>
       <c r="E621">
         <v>0.06836679327183948</v>
@@ -6208,7 +6322,7 @@
         <v>29098</v>
       </c>
       <c r="B622">
-        <v>-0.002564501087970239</v>
+        <v>-0.0003407155025554331</v>
       </c>
       <c r="E622">
         <v>0.0758422210936176</v>
@@ -6225,7 +6339,7 @@
         <v>29128</v>
       </c>
       <c r="B623">
-        <v>-0.01044020257109457</v>
+        <v>-0.02058623040218122</v>
       </c>
       <c r="E623">
         <v>0.2494099134539733</v>
@@ -6242,7 +6356,7 @@
         <v>29159</v>
       </c>
       <c r="B624">
-        <v>-0.06078261554208331</v>
+        <v>-0.08087416481069043</v>
       </c>
       <c r="E624">
         <v>-0.04345088161209065</v>
@@ -6259,7 +6373,7 @@
         <v>29189</v>
       </c>
       <c r="B625">
-        <v>0.02917260457708104</v>
+        <v>0.02544298046342552</v>
       </c>
       <c r="E625">
         <v>0.09861751152073728</v>
@@ -6276,7 +6390,7 @@
         <v>29220</v>
       </c>
       <c r="B626">
-        <v>0.002687953083000627</v>
+        <v>-0.003987594151528495</v>
       </c>
       <c r="E626">
         <v>0.2559923298178333</v>
@@ -6293,7 +6407,7 @@
         <v>29251</v>
       </c>
       <c r="B627">
-        <v>-0.03046303818034124</v>
+        <v>-0.04826512455516008</v>
       </c>
       <c r="E627">
         <v>0.2748091603053435</v>
@@ -6310,7 +6424,7 @@
         <v>29280</v>
       </c>
       <c r="B628">
-        <v>-0.05915374947633001</v>
+        <v>-0.0694087403598973</v>
       </c>
       <c r="E628">
         <v>-0.04191616766467066</v>
@@ -6327,7 +6441,7 @@
         <v>29311</v>
       </c>
       <c r="B629">
-        <v>0.0008014961261020304</v>
+        <v>-0.008119872760756763</v>
       </c>
       <c r="E629">
         <v>-0.213671875</v>
@@ -6344,7 +6458,7 @@
         <v>29341</v>
       </c>
       <c r="B630">
-        <v>0.1133653675031145</v>
+        <v>0.1288716347371086</v>
       </c>
       <c r="E630">
         <v>0.03179334326875316</v>
@@ -6361,7 +6475,7 @@
         <v>29372</v>
       </c>
       <c r="B631">
-        <v>0.04715473145780047</v>
+        <v>0.05779007177033502</v>
       </c>
       <c r="E631">
         <v>0.02339913336543087</v>
@@ -6378,7 +6492,7 @@
         <v>29402</v>
       </c>
       <c r="B632">
-        <v>0.01885208365135083</v>
+        <v>0.02487808325676721</v>
       </c>
       <c r="E632">
         <v>0.246706812194204</v>
@@ -6395,7 +6509,7 @@
         <v>29433</v>
       </c>
       <c r="B633">
-        <v>-0.02067570604539681</v>
+        <v>-0.02675677539480037</v>
       </c>
       <c r="E633">
         <v>-0.06716981132075472</v>
@@ -6412,7 +6526,7 @@
         <v>29464</v>
       </c>
       <c r="B634">
-        <v>-0.03579897498661355</v>
+        <v>-0.04074257776518109</v>
       </c>
       <c r="E634">
         <v>0.02548543689320382</v>
@@ -6429,7 +6543,7 @@
         <v>29494</v>
       </c>
       <c r="B635">
-        <v>-0.01047203490678295</v>
+        <v>-0.01890973555916686</v>
       </c>
       <c r="E635">
         <v>0.05719921104536496</v>
@@ -6446,7 +6560,7 @@
         <v>29525</v>
       </c>
       <c r="B636">
-        <v>-0.01146476389000251</v>
+        <v>-0.01023942177382908</v>
       </c>
       <c r="E636">
         <v>-0.05074626865671639</v>
@@ -6463,7 +6577,7 @@
         <v>29555</v>
       </c>
       <c r="B637">
-        <v>-0.001865369018653751</v>
+        <v>-0.004792332268370614</v>
       </c>
       <c r="E637">
         <v>-0.02279874213836475</v>
@@ -6480,7 +6594,7 @@
         <v>29586</v>
       </c>
       <c r="B638">
-        <v>0.02730153571138394</v>
+        <v>0.02797523503783528</v>
       </c>
       <c r="E638">
         <v>-0.05148833467417535</v>
@@ -6497,7 +6611,7 @@
         <v>29617</v>
       </c>
       <c r="B639">
-        <v>0.0004745709088032068</v>
+        <v>-0.00171016432448523</v>
       </c>
       <c r="E639">
         <v>-0.1391009329940628</v>
@@ -6514,7 +6628,7 @@
         <v>29645</v>
       </c>
       <c r="B640">
-        <v>-0.01897383192347213</v>
+        <v>-0.02346193952033349</v>
       </c>
       <c r="E640">
         <v>-0.03399014778325127</v>
@@ -6531,7 +6645,7 @@
         <v>29676</v>
       </c>
       <c r="B641">
-        <v>0.02377306793456357</v>
+        <v>0.02318663717489122</v>
       </c>
       <c r="E641">
         <v>0.04895461499235076</v>
@@ -6548,7 +6662,7 @@
         <v>29706</v>
       </c>
       <c r="B642">
-        <v>-0.03565806045340048</v>
+        <v>-0.05173313455087603</v>
       </c>
       <c r="E642">
         <v>-0.06465726786582404</v>
@@ -6565,7 +6679,7 @@
         <v>29737</v>
       </c>
       <c r="B643">
-        <v>0.03591543547465514</v>
+        <v>0.04355003537457747</v>
       </c>
       <c r="E643">
         <v>-0.004677754677754664</v>
@@ -6582,7 +6696,7 @@
         <v>29767</v>
       </c>
       <c r="B644">
-        <v>-0.002285083917736963</v>
+        <v>-0.001054613935969728</v>
       </c>
       <c r="E644">
         <v>-0.1195822454308094</v>
@@ -6599,7 +6713,7 @@
         <v>29798</v>
       </c>
       <c r="B645">
-        <v>-0.01927025746327593</v>
+        <v>-0.02307518286705379</v>
       </c>
       <c r="E645">
         <v>-0.03855278766310799</v>
@@ -6616,7 +6730,7 @@
         <v>29829</v>
       </c>
       <c r="B646">
-        <v>-0.0210984055403447</v>
+        <v>-0.02593593207255895</v>
       </c>
       <c r="E646">
         <v>0.04996915484268971</v>
@@ -6633,7 +6747,7 @@
         <v>29859</v>
       </c>
       <c r="B647">
-        <v>-0.0006581112207962869</v>
+        <v>-0.01735478247087718</v>
       </c>
       <c r="E647">
         <v>0.00235017626321965</v>
@@ -6650,7 +6764,7 @@
         <v>29890</v>
       </c>
       <c r="B648">
-        <v>0.05852815278235091</v>
+        <v>0.05887096774193568</v>
       </c>
       <c r="E648">
         <v>0.005861664712778492</v>
@@ -6667,7 +6781,7 @@
         <v>29920</v>
       </c>
       <c r="B649">
-        <v>0.08523213313632483</v>
+        <v>0.1069306930693068</v>
       </c>
       <c r="E649">
         <v>-0.03146853146853146</v>
@@ -6684,7 +6798,7 @@
         <v>29951</v>
       </c>
       <c r="B650">
-        <v>-0.0374059476890003</v>
+        <v>-0.0473372781065089</v>
       </c>
       <c r="E650">
         <v>-0.03730445246690739</v>
@@ -6701,7 +6815,7 @@
         <v>29982</v>
       </c>
       <c r="B651">
-        <v>0.006327700439216821</v>
+        <v>0.00137223746930526</v>
       </c>
       <c r="E651">
         <v>-0.02937500000000004</v>
@@ -6718,7 +6832,7 @@
         <v>30010</v>
       </c>
       <c r="B652">
-        <v>0.01952951620062127</v>
+        <v>0.02293544897223221</v>
       </c>
       <c r="E652">
         <v>-0.06439150032195751</v>
@@ -6735,7 +6849,7 @@
         <v>30041</v>
       </c>
       <c r="B653">
-        <v>0.01269772166594119</v>
+        <v>0.01572304872029884</v>
       </c>
       <c r="E653">
         <v>-0.1176875430144528</v>
@@ -6752,7 +6866,7 @@
         <v>30071</v>
       </c>
       <c r="B654">
-        <v>0.0280146163215591</v>
+        <v>0.03561016243231974</v>
       </c>
       <c r="E654">
         <v>0.1131045241809672</v>
@@ -6769,7 +6883,7 @@
         <v>30102</v>
       </c>
       <c r="B655">
-        <v>0.01623919710064126</v>
+        <v>0.01930424291172317</v>
       </c>
       <c r="E655">
         <v>-0.08759635599159077</v>
@@ -6786,7 +6900,7 @@
         <v>30132</v>
       </c>
       <c r="B656">
-        <v>-0.01570537000205741</v>
+        <v>-0.02400210429407512</v>
       </c>
       <c r="E656">
         <v>-0.03533026113671278</v>
@@ -6798,12 +6912,12 @@
         <v>-0.02028959599570967</v>
       </c>
     </row>
-    <row r="657" spans="1:9">
+    <row r="657" spans="1:10">
       <c r="A657" s="2">
         <v>30163</v>
       </c>
       <c r="B657">
-        <v>0.04299052396878467</v>
+        <v>0.04547904595068042</v>
       </c>
       <c r="E657">
         <v>0.09076433121019112</v>
@@ -6815,12 +6929,12 @@
         <v>-0.02299060304716716</v>
       </c>
     </row>
-    <row r="658" spans="1:9">
+    <row r="658" spans="1:10">
       <c r="A658" s="2">
         <v>30194</v>
       </c>
       <c r="B658">
-        <v>0.0545794642260673</v>
+        <v>0.07108332796287953</v>
       </c>
       <c r="E658">
         <v>0.1959124087591242</v>
@@ -6832,12 +6946,12 @@
         <v>0.115977215426277</v>
       </c>
     </row>
-    <row r="659" spans="1:9">
+    <row r="659" spans="1:10">
       <c r="A659" s="2">
         <v>30224</v>
       </c>
       <c r="B659">
-        <v>0.04047890535917897</v>
+        <v>0.05090252707581233</v>
       </c>
       <c r="E659">
         <v>-0.0362548828125</v>
@@ -6849,12 +6963,12 @@
         <v>0.00761442557108194</v>
       </c>
     </row>
-    <row r="660" spans="1:9">
+    <row r="660" spans="1:10">
       <c r="A660" s="2">
         <v>30255</v>
       </c>
       <c r="B660">
-        <v>0.0529680365296803</v>
+        <v>0.06675827321653505</v>
       </c>
       <c r="E660">
         <v>0.06903103229892338</v>
@@ -6866,12 +6980,12 @@
         <v>0.1103637269556552</v>
       </c>
     </row>
-    <row r="661" spans="1:9">
+    <row r="661" spans="1:10">
       <c r="A661" s="2">
         <v>30285</v>
       </c>
       <c r="B661">
-        <v>0.009771610291991806</v>
+        <v>0.01588664662945471</v>
       </c>
       <c r="E661">
         <v>0.01481042654028442</v>
@@ -6883,12 +6997,12 @@
         <v>0.03612295265873899</v>
       </c>
     </row>
-    <row r="662" spans="1:9">
+    <row r="662" spans="1:10">
       <c r="A662" s="2">
         <v>30316</v>
       </c>
       <c r="B662">
-        <v>0.02009848831882732</v>
+        <v>0.01827979712595096</v>
       </c>
       <c r="E662">
         <v>0.04611792177466434</v>
@@ -6900,12 +7014,12 @@
         <v>0.01515807708964911</v>
       </c>
     </row>
-    <row r="663" spans="1:9">
+    <row r="663" spans="1:10">
       <c r="A663" s="2">
         <v>30347</v>
       </c>
       <c r="B663">
-        <v>0.001683974179062409</v>
+        <v>0.004980803154508662</v>
       </c>
       <c r="E663">
         <v>0.1227678571428572</v>
@@ -6917,12 +7031,12 @@
         <v>0.03313424345847582</v>
       </c>
     </row>
-    <row r="664" spans="1:9">
+    <row r="664" spans="1:10">
       <c r="A664" s="2">
         <v>30375</v>
       </c>
       <c r="B664">
-        <v>0.02869151022695426</v>
+        <v>0.03469282395456896</v>
       </c>
       <c r="E664">
         <v>-0.165506958250497</v>
@@ -6934,12 +7048,12 @@
         <v>0.01899518238127995</v>
       </c>
     </row>
-    <row r="665" spans="1:9">
+    <row r="665" spans="1:10">
       <c r="A665" s="2">
         <v>30406</v>
       </c>
       <c r="B665">
-        <v>0.002614806340905496</v>
+        <v>0.01287296676978356</v>
       </c>
       <c r="E665">
         <v>-0.01310303752233477</v>
@@ -6951,12 +7065,12 @@
         <v>0.03309469134134813</v>
       </c>
     </row>
-    <row r="666" spans="1:9">
+    <row r="666" spans="1:10">
       <c r="A666" s="2">
         <v>30436</v>
       </c>
       <c r="B666">
-        <v>0.02787286063569683</v>
+        <v>0.04093596059113302</v>
       </c>
       <c r="E666">
         <v>0.03439951719975864</v>
@@ -6968,12 +7082,12 @@
         <v>0.07492154811715457</v>
       </c>
     </row>
-    <row r="667" spans="1:9">
+    <row r="667" spans="1:10">
       <c r="A667" s="2">
         <v>30467</v>
       </c>
       <c r="B667">
-        <v>-0.01310920816153938</v>
+        <v>-0.02011263073209979</v>
       </c>
       <c r="E667">
         <v>0.02450408401400228</v>
@@ -6985,12 +7099,12 @@
         <v>-0.01234642987471113</v>
       </c>
     </row>
-    <row r="668" spans="1:9">
+    <row r="668" spans="1:10">
       <c r="A668" s="2">
         <v>30497</v>
       </c>
       <c r="B668">
-        <v>0.001071237279057335</v>
+        <v>0.0001931807205639569</v>
       </c>
       <c r="E668">
         <v>-0.0506833712984055</v>
@@ -7002,12 +7116,12 @@
         <v>0.03522384383274857</v>
       </c>
     </row>
-    <row r="669" spans="1:9">
+    <row r="669" spans="1:10">
       <c r="A669" s="2">
         <v>30528</v>
       </c>
       <c r="B669">
-        <v>-0.02364901016586418</v>
+        <v>-0.03191694833413805</v>
       </c>
       <c r="E669">
         <v>0.01319736052789433</v>
@@ -7019,12 +7133,12 @@
         <v>-0.03301409791208143</v>
       </c>
     </row>
-    <row r="670" spans="1:9">
+    <row r="670" spans="1:10">
       <c r="A670" s="2">
         <v>30559</v>
       </c>
       <c r="B670">
-        <v>0.006959666812801357</v>
+        <v>0.005287046735497958</v>
       </c>
       <c r="E670">
         <v>-0.01835405565423331</v>
@@ -7035,13 +7149,16 @@
       <c r="I670">
         <v>0.01131889763779537</v>
       </c>
-    </row>
-    <row r="671" spans="1:9">
+      <c r="J670">
+        <v>0.01221871499847271</v>
+      </c>
+    </row>
+    <row r="671" spans="1:10">
       <c r="A671" s="2">
         <v>30589</v>
       </c>
       <c r="B671">
-        <v>0.0329795918367346</v>
+        <v>0.03621930042173149</v>
       </c>
       <c r="E671">
         <v>-0.02533172496984315</v>
@@ -7052,13 +7169,16 @@
       <c r="I671">
         <v>0.01015815085158134</v>
       </c>
-    </row>
-    <row r="672" spans="1:9">
+      <c r="J671">
+        <v>0.02545015591992761</v>
+      </c>
+    </row>
+    <row r="672" spans="1:10">
       <c r="A672" s="2">
         <v>30620</v>
       </c>
       <c r="B672">
-        <v>0.00358252989831942</v>
+        <v>-0.0004309312903998386</v>
       </c>
       <c r="E672">
         <v>-0.05074257425742579</v>
@@ -7069,13 +7189,16 @@
       <c r="I672">
         <v>-0.01517432408020702</v>
       </c>
-    </row>
-    <row r="673" spans="1:9">
+      <c r="J672">
+        <v>0.00951540121640182</v>
+      </c>
+    </row>
+    <row r="673" spans="1:10">
       <c r="A673" s="2">
         <v>30650</v>
       </c>
       <c r="B673">
-        <v>0.01144417029765332</v>
+        <v>0.01202337612569471</v>
       </c>
       <c r="E673">
         <v>0.05801825293350715</v>
@@ -7086,13 +7209,16 @@
       <c r="I673">
         <v>0.01742586365025978</v>
       </c>
-    </row>
-    <row r="674" spans="1:9">
+      <c r="J673">
+        <v>0.006899232338936967</v>
+      </c>
+    </row>
+    <row r="674" spans="1:10">
       <c r="A674" s="2">
         <v>30681</v>
       </c>
       <c r="B674">
-        <v>0.001920382000311527</v>
+        <v>-0.003123964595067918</v>
       </c>
       <c r="E674">
         <v>-0.05976586568083797</v>
@@ -7103,13 +7229,16 @@
       <c r="I674">
         <v>-0.008834134615384626</v>
       </c>
-    </row>
-    <row r="675" spans="1:9">
+      <c r="J674">
+        <v>-0.006755452615325286</v>
+      </c>
+    </row>
+    <row r="675" spans="1:10">
       <c r="A675" s="2">
         <v>30712</v>
       </c>
       <c r="B675">
-        <v>0.02061748860339829</v>
+        <v>0.02796638336261337</v>
       </c>
       <c r="E675">
         <v>-0.02516382699868946</v>
@@ -7120,13 +7249,16 @@
       <c r="I675">
         <v>-0.009216031043473016</v>
       </c>
-    </row>
-    <row r="676" spans="1:9">
+      <c r="J675">
+        <v>0.03536727555382813</v>
+      </c>
+    </row>
+    <row r="676" spans="1:10">
       <c r="A676" s="2">
         <v>30741</v>
       </c>
       <c r="B676">
-        <v>-0.005126383108313926</v>
+        <v>-0.01159353348729786</v>
       </c>
       <c r="E676">
         <v>0.06641570314600709</v>
@@ -7137,13 +7269,16 @@
       <c r="I676">
         <v>-0.03885931093568318</v>
       </c>
-    </row>
-    <row r="677" spans="1:9">
+      <c r="J676">
+        <v>-0.008633633633633675</v>
+      </c>
+    </row>
+    <row r="677" spans="1:10">
       <c r="A677" s="2">
         <v>30772</v>
       </c>
       <c r="B677">
-        <v>-0.01122391714708426</v>
+        <v>-0.01331837936352176</v>
       </c>
       <c r="E677">
         <v>-0.02042360060514381</v>
@@ -7154,13 +7289,16 @@
       <c r="I677">
         <v>0.01349802623201324</v>
       </c>
-    </row>
-    <row r="678" spans="1:9">
+      <c r="J677">
+        <v>-0.009276789095039817</v>
+      </c>
+    </row>
+    <row r="678" spans="1:10">
       <c r="A678" s="2">
         <v>30802</v>
       </c>
       <c r="B678">
-        <v>-0.001960683143284681</v>
+        <v>-0.008667235009945928</v>
       </c>
       <c r="E678">
         <v>-0.03166023166023169</v>
@@ -7171,13 +7309,16 @@
       <c r="I678">
         <v>0.005465510742555635</v>
       </c>
-    </row>
-    <row r="679" spans="1:9">
+      <c r="J678">
+        <v>-0.01289891075864702</v>
+      </c>
+    </row>
+    <row r="679" spans="1:10">
       <c r="A679" s="2">
         <v>30833</v>
       </c>
       <c r="B679">
-        <v>-0.03117406813834467</v>
+        <v>-0.0374086283502939</v>
       </c>
       <c r="E679">
         <v>0.01927166400850622</v>
@@ -7188,13 +7329,16 @@
       <c r="I679">
         <v>-0.05935645110902843</v>
       </c>
-    </row>
-    <row r="680" spans="1:9">
+      <c r="J679">
+        <v>-0.03813764398412545</v>
+      </c>
+    </row>
+    <row r="680" spans="1:10">
       <c r="A680" s="2">
         <v>30863</v>
       </c>
       <c r="B680">
-        <v>0.01280683030949836</v>
+        <v>0.01350009926543572</v>
       </c>
       <c r="E680">
         <v>-0.02138479593167297</v>
@@ -7205,13 +7349,16 @@
       <c r="I680">
         <v>0.0174692793091995</v>
       </c>
-    </row>
-    <row r="681" spans="1:9">
+      <c r="J680">
+        <v>0.01569890308946364</v>
+      </c>
+    </row>
+    <row r="681" spans="1:10">
       <c r="A681" s="2">
         <v>30894</v>
       </c>
       <c r="B681">
-        <v>0.04499473129610121</v>
+        <v>0.0547992164544564</v>
       </c>
       <c r="E681">
         <v>-0.08967355096602259</v>
@@ -7222,13 +7369,16 @@
       <c r="I681">
         <v>-0.01645123384253822</v>
       </c>
-    </row>
-    <row r="682" spans="1:9">
+      <c r="J681">
+        <v>0.02348162092539363</v>
+      </c>
+    </row>
+    <row r="682" spans="1:10">
       <c r="A682" s="2">
         <v>30925</v>
       </c>
       <c r="B682">
-        <v>0.01683977009176174</v>
+        <v>0.02242443938901539</v>
       </c>
       <c r="E682">
         <v>0.01785714285714279</v>
@@ -7239,13 +7389,16 @@
       <c r="I682">
         <v>0.1063321385902032</v>
       </c>
-    </row>
-    <row r="683" spans="1:9">
+      <c r="J682">
+        <v>0.02565343659244923</v>
+      </c>
+    </row>
+    <row r="683" spans="1:10">
       <c r="A683" s="2">
         <v>30955</v>
       </c>
       <c r="B683">
-        <v>0.02375049583498612</v>
+        <v>0.02992462083371183</v>
       </c>
       <c r="E683">
         <v>-0.0102099511072764</v>
@@ -7256,13 +7409,16 @@
       <c r="I683">
         <v>-0.003479721622270282</v>
       </c>
-    </row>
-    <row r="684" spans="1:9">
+      <c r="J683">
+        <v>0.02321849929211894</v>
+      </c>
+    </row>
+    <row r="684" spans="1:10">
       <c r="A684" s="2">
         <v>30986</v>
       </c>
       <c r="B684">
-        <v>0.04242747130333702</v>
+        <v>0.05105594991402485</v>
       </c>
       <c r="E684">
         <v>-0.02804009879413039</v>
@@ -7273,13 +7429,16 @@
       <c r="I684">
         <v>-6.020469596623723e-05</v>
       </c>
-    </row>
-    <row r="685" spans="1:9">
+      <c r="J684">
+        <v>0.03293054146296481</v>
+      </c>
+    </row>
+    <row r="685" spans="1:10">
       <c r="A685" s="2">
         <v>31016</v>
       </c>
       <c r="B685">
-        <v>0.01788784091437079</v>
+        <v>0.01724065606778824</v>
       </c>
       <c r="E685">
         <v>-0.01763826606875929</v>
@@ -7290,13 +7449,16 @@
       <c r="I685">
         <v>-0.01511228851827318</v>
       </c>
-    </row>
-    <row r="686" spans="1:9">
+      <c r="J685">
+        <v>0.00910876942311134</v>
+      </c>
+    </row>
+    <row r="686" spans="1:10">
       <c r="A686" s="2">
         <v>31047</v>
       </c>
       <c r="B686">
-        <v>0.01460653642505005</v>
+        <v>0.0128659793814434</v>
       </c>
       <c r="E686">
         <v>-0.05964698721850281</v>
@@ -7307,13 +7469,16 @@
       <c r="I686">
         <v>0.02237437339528059</v>
       </c>
-    </row>
-    <row r="687" spans="1:9">
+      <c r="J686">
+        <v>-0.0008849557522123686</v>
+      </c>
+    </row>
+    <row r="687" spans="1:10">
       <c r="A687" s="2">
         <v>31078</v>
       </c>
       <c r="B687">
-        <v>0.02276408133885188</v>
+        <v>0.0290285807344679</v>
       </c>
       <c r="E687">
         <v>-0.0132686084142396</v>
@@ -7324,13 +7489,16 @@
       <c r="I687">
         <v>0.0740851470939965</v>
       </c>
-    </row>
-    <row r="688" spans="1:9">
+      <c r="J687">
+        <v>0.03790965456155893</v>
+      </c>
+    </row>
+    <row r="688" spans="1:10">
       <c r="A688" s="2">
         <v>31106</v>
       </c>
       <c r="B688">
-        <v>-0.02045394563209291</v>
+        <v>-0.02540059347181001</v>
       </c>
       <c r="E688">
         <v>-0.04722859954083303</v>
@@ -7341,13 +7509,16 @@
       <c r="I688">
         <v>0.008628848187941962</v>
       </c>
-    </row>
-    <row r="689" spans="1:9">
+      <c r="J688">
+        <v>0.01271548045741588</v>
+      </c>
+    </row>
+    <row r="689" spans="1:10">
       <c r="A689" s="2">
         <v>31137</v>
       </c>
       <c r="B689">
-        <v>0.020387085185684</v>
+        <v>0.01940486339463332</v>
       </c>
       <c r="E689">
         <v>0.1352839931153185</v>
@@ -7358,13 +7529,16 @@
       <c r="I689">
         <v>-0.002870073959598263</v>
       </c>
-    </row>
-    <row r="690" spans="1:9">
+      <c r="J689">
+        <v>0.004297632088986258</v>
+      </c>
+    </row>
+    <row r="690" spans="1:10">
       <c r="A690" s="2">
         <v>31167</v>
       </c>
       <c r="B690">
-        <v>0.02068388857105141</v>
+        <v>0.02234080681772932</v>
       </c>
       <c r="E690">
         <v>-0.01561552456033966</v>
@@ -7375,13 +7549,16 @@
       <c r="I690">
         <v>-0.004594265471050463</v>
       </c>
-    </row>
-    <row r="691" spans="1:9">
+      <c r="J690">
+        <v>0.01829165967444202</v>
+      </c>
+    </row>
+    <row r="691" spans="1:10">
       <c r="A691" s="2">
         <v>31198</v>
       </c>
       <c r="B691">
-        <v>0.0522571465528392</v>
+        <v>0.06361015892801491</v>
       </c>
       <c r="E691">
         <v>-0.03542276297551206</v>
@@ -7392,13 +7569,16 @@
       <c r="I691">
         <v>0.0540510482122003</v>
       </c>
-    </row>
-    <row r="692" spans="1:9">
+      <c r="J691">
+        <v>0.04235332893869481</v>
+      </c>
+    </row>
+    <row r="692" spans="1:10">
       <c r="A692" s="2">
         <v>31228</v>
       </c>
       <c r="B692">
-        <v>0.01057160417947145</v>
+        <v>0.007910639077091997</v>
       </c>
       <c r="E692">
         <v>0.01069774868273998</v>
@@ -7409,13 +7589,16 @@
       <c r="I692">
         <v>0.01213400158269584</v>
       </c>
-    </row>
-    <row r="693" spans="1:9">
+      <c r="J692">
+        <v>0.01264822134387344</v>
+      </c>
+    </row>
+    <row r="693" spans="1:10">
       <c r="A693" s="2">
         <v>31259</v>
       </c>
       <c r="B693">
-        <v>-0.003487004825041495</v>
+        <v>-0.004105955452200161</v>
       </c>
       <c r="E693">
         <v>0.03665086887835711</v>
@@ -7426,13 +7609,16 @@
       <c r="I693">
         <v>-0.004847537138389368</v>
       </c>
-    </row>
-    <row r="694" spans="1:9">
+      <c r="J693">
+        <v>0.00843091334894619</v>
+      </c>
+    </row>
+    <row r="694" spans="1:10">
       <c r="A694" s="2">
         <v>31290</v>
       </c>
       <c r="B694">
-        <v>0.018798063229849</v>
+        <v>0.02375218914185639</v>
       </c>
       <c r="E694">
         <v>0.02331606217616566</v>
@@ -7443,13 +7629,16 @@
       <c r="I694">
         <v>-0.01199455269222705</v>
       </c>
-    </row>
-    <row r="695" spans="1:9">
+      <c r="J694">
+        <v>0.0201269546369407</v>
+      </c>
+    </row>
+    <row r="695" spans="1:10">
       <c r="A695" s="2">
         <v>31320</v>
       </c>
       <c r="B695">
-        <v>0.006030592276049518</v>
+        <v>0.0006058662104850843</v>
       </c>
       <c r="E695">
         <v>-0.02755026061057331</v>
@@ -7460,13 +7649,16 @@
       <c r="I695">
         <v>-0.03472406298043784</v>
       </c>
-    </row>
-    <row r="696" spans="1:9">
+      <c r="J695">
+        <v>0.009561390195780728</v>
+      </c>
+    </row>
+    <row r="696" spans="1:10">
       <c r="A696" s="2">
         <v>31351</v>
       </c>
       <c r="B696">
-        <v>0.02096069868995643</v>
+        <v>0.02436244479270555</v>
       </c>
       <c r="E696">
         <v>-0.002297090352220477</v>
@@ -7477,13 +7669,16 @@
       <c r="I696">
         <v>0.04250878734622132</v>
       </c>
-    </row>
-    <row r="697" spans="1:9">
+      <c r="J696">
+        <v>0.002630787733012507</v>
+      </c>
+    </row>
+    <row r="697" spans="1:10">
       <c r="A697" s="2">
         <v>31381</v>
       </c>
       <c r="B697">
-        <v>0.02402986235321558</v>
+        <v>0.02579972183588297</v>
       </c>
       <c r="E697">
         <v>0.005065234075211089</v>
@@ -7494,13 +7689,16 @@
       <c r="I697">
         <v>0.06506163734063852</v>
       </c>
-    </row>
-    <row r="698" spans="1:9">
+      <c r="J697">
+        <v>0.02488942199565192</v>
+      </c>
+    </row>
+    <row r="698" spans="1:10">
       <c r="A698" s="2">
         <v>31412</v>
       </c>
       <c r="B698">
-        <v>0.03056652490887002</v>
+        <v>0.03287912683885863</v>
       </c>
       <c r="E698">
         <v>-0.001221747098350545</v>
@@ -7511,13 +7709,16 @@
       <c r="I698">
         <v>0.04506108720383839</v>
       </c>
-    </row>
-    <row r="699" spans="1:9">
+      <c r="J698">
+        <v>0.03759783483285783</v>
+      </c>
+    </row>
+    <row r="699" spans="1:10">
       <c r="A699" s="2">
         <v>31443</v>
       </c>
       <c r="B699">
-        <v>0.005563538557901371</v>
+        <v>0.007449461800997481</v>
       </c>
       <c r="E699">
         <v>0.08256880733944949</v>
@@ -7528,13 +7729,16 @@
       <c r="I699">
         <v>0.002366527830367282</v>
       </c>
-    </row>
-    <row r="700" spans="1:9">
+      <c r="J699">
+        <v>0.01318293972506179</v>
+      </c>
+    </row>
+    <row r="700" spans="1:10">
       <c r="A700" s="2">
         <v>31471</v>
       </c>
       <c r="B700">
-        <v>0.03942547266598262</v>
+        <v>0.0478191472034919</v>
       </c>
       <c r="E700">
         <v>-0.04449152542372881</v>
@@ -7545,13 +7749,16 @@
       <c r="I700">
         <v>0.07148928132968169</v>
       </c>
-    </row>
-    <row r="701" spans="1:9">
+      <c r="J700">
+        <v>0.03847759532424155</v>
+      </c>
+    </row>
+    <row r="701" spans="1:10">
       <c r="A701" s="2">
         <v>31502</v>
       </c>
       <c r="B701">
-        <v>0.03105611957134791</v>
+        <v>0.02434171666614859</v>
       </c>
       <c r="E701">
         <v>0.02143385070214343</v>
@@ -7562,13 +7769,16 @@
       <c r="I701">
         <v>0.05279393618896533</v>
       </c>
-    </row>
-    <row r="702" spans="1:9">
+      <c r="J701">
+        <v>0.03845896147403693</v>
+      </c>
+    </row>
+    <row r="702" spans="1:10">
       <c r="A702" s="2">
         <v>31532</v>
       </c>
       <c r="B702">
-        <v>0.005299326472699928</v>
+        <v>0.005432473444613173</v>
       </c>
       <c r="E702">
         <v>-0.00217076700434149</v>
@@ -7579,13 +7789,16 @@
       <c r="I702">
         <v>-0.01414817915445787</v>
       </c>
-    </row>
-    <row r="703" spans="1:9">
+      <c r="J702">
+        <v>0.01587199174140252</v>
+      </c>
+    </row>
+    <row r="703" spans="1:10">
       <c r="A703" s="2">
         <v>31563</v>
       </c>
       <c r="B703">
-        <v>-0.01911304584410289</v>
+        <v>-0.0109873524706452</v>
       </c>
       <c r="E703">
         <v>-0.004060913705583702</v>
@@ -7596,13 +7809,16 @@
       <c r="I703">
         <v>0.05022927989130421</v>
       </c>
-    </row>
-    <row r="704" spans="1:9">
+      <c r="J703">
+        <v>0.01098761511590984</v>
+      </c>
+    </row>
+    <row r="704" spans="1:10">
       <c r="A704" s="2">
         <v>31593</v>
       </c>
       <c r="B704">
-        <v>0.02617710283614172</v>
+        <v>0.01877002899435376</v>
       </c>
       <c r="E704">
         <v>0.006261831949905261</v>
@@ -7613,13 +7829,16 @@
       <c r="I704">
         <v>0.01410956135031327</v>
       </c>
-    </row>
-    <row r="705" spans="1:9">
+      <c r="J704">
+        <v>0.01111948737278534</v>
+      </c>
+    </row>
+    <row r="705" spans="1:10">
       <c r="A705" s="2">
         <v>31624</v>
       </c>
       <c r="B705">
-        <v>0.008852248538703034</v>
+        <v>0.004523666866387055</v>
       </c>
       <c r="E705">
         <v>0.0354558610709117</v>
@@ -7630,13 +7849,16 @@
       <c r="I705">
         <v>-0.0586828257056291</v>
       </c>
-    </row>
-    <row r="706" spans="1:9">
+      <c r="J705">
+        <v>-0.01000310655483061</v>
+      </c>
+    </row>
+    <row r="706" spans="1:10">
       <c r="A706" s="2">
         <v>31655</v>
       </c>
       <c r="B706">
-        <v>0.02485012893934835</v>
+        <v>0.02051832632489337</v>
       </c>
       <c r="E706">
         <v>0.07896575821104124</v>
@@ -7647,13 +7869,16 @@
       <c r="I706">
         <v>0.07119261392512288</v>
       </c>
-    </row>
-    <row r="707" spans="1:9">
+      <c r="J706">
+        <v>0.01537592569348556</v>
+      </c>
+    </row>
+    <row r="707" spans="1:10">
       <c r="A707" s="2">
         <v>31685</v>
       </c>
       <c r="B707">
-        <v>-0.009868958530766858</v>
+        <v>-0.002863906017125051</v>
       </c>
       <c r="E707">
         <v>0.0911917098445596</v>
@@ -7664,13 +7889,16 @@
       <c r="I707">
         <v>-0.08543865891748714</v>
       </c>
-    </row>
-    <row r="708" spans="1:9">
+      <c r="J707">
+        <v>0.0119908523394523</v>
+      </c>
+    </row>
+    <row r="708" spans="1:10">
       <c r="A708" s="2">
         <v>31716</v>
       </c>
       <c r="B708">
-        <v>0.01445592263771078</v>
+        <v>0.01676386975762734</v>
       </c>
       <c r="E708">
         <v>-0.04677113010446343</v>
@@ -7681,13 +7909,16 @@
       <c r="I708">
         <v>0.05472937921494037</v>
       </c>
-    </row>
-    <row r="709" spans="1:9">
+      <c r="J708">
+        <v>0.0232089415501131</v>
+      </c>
+    </row>
+    <row r="709" spans="1:10">
       <c r="A709" s="2">
         <v>31746</v>
       </c>
       <c r="B709">
-        <v>0.01398965416273557</v>
+        <v>0.01441212924797508</v>
       </c>
       <c r="E709">
         <v>-0.02864259028642591</v>
@@ -7698,13 +7929,16 @@
       <c r="I709">
         <v>0.02147717025985751</v>
       </c>
-    </row>
-    <row r="710" spans="1:9">
+      <c r="J709">
+        <v>-0.002686086074135896</v>
+      </c>
+    </row>
+    <row r="710" spans="1:10">
       <c r="A710" s="2">
         <v>31777</v>
       </c>
       <c r="B710">
-        <v>0.003753970545769425</v>
+        <v>0.009007473077032424</v>
       </c>
       <c r="E710">
         <v>0.002307692307692344</v>
@@ -7715,13 +7949,16 @@
       <c r="I710">
         <v>-0.02828825936923207</v>
       </c>
-    </row>
-    <row r="711" spans="1:9">
+      <c r="J710">
+        <v>-0.00287287526933222</v>
+      </c>
+    </row>
+    <row r="711" spans="1:10">
       <c r="A711" s="2">
         <v>31808</v>
       </c>
       <c r="B711">
-        <v>0.0140966628308401</v>
+        <v>0.02182483807378199</v>
       </c>
       <c r="E711">
         <v>0.04195446405730374</v>
@@ -7732,13 +7969,16 @@
       <c r="I711">
         <v>0.1317669405789321</v>
       </c>
-    </row>
-    <row r="712" spans="1:9">
+      <c r="J711">
+        <v>0.0413565426170468</v>
+      </c>
+    </row>
+    <row r="712" spans="1:10">
       <c r="A712" s="2">
         <v>31836</v>
       </c>
       <c r="B712">
-        <v>0.006934594168636732</v>
+        <v>0.006035551880942513</v>
       </c>
       <c r="E712">
         <v>-0.003805548735575814</v>
@@ -7749,13 +7989,16 @@
       <c r="I712">
         <v>0.03692352597781667</v>
       </c>
-    </row>
-    <row r="713" spans="1:9">
+      <c r="J712">
+        <v>0.02121159721021382</v>
+      </c>
+    </row>
+    <row r="713" spans="1:10">
       <c r="A713" s="2">
         <v>31867</v>
       </c>
       <c r="B713">
-        <v>-0.004507747691344544</v>
+        <v>-0.003999561691869435</v>
       </c>
       <c r="E713">
         <v>0.03265557609365377</v>
@@ -7766,13 +8009,16 @@
       <c r="I713">
         <v>0.02638986629134421</v>
       </c>
-    </row>
-    <row r="714" spans="1:9">
+      <c r="J713">
+        <v>0.006886041654907693</v>
+      </c>
+    </row>
+    <row r="714" spans="1:10">
       <c r="A714" s="2">
         <v>31897</v>
       </c>
       <c r="B714">
-        <v>-0.02742052136725248</v>
+        <v>-0.03286759447714394</v>
       </c>
       <c r="E714">
         <v>0.08472553699284013</v>
@@ -7783,13 +8029,16 @@
       <c r="I714">
         <v>-0.0114501199862872</v>
       </c>
-    </row>
-    <row r="715" spans="1:9">
+      <c r="J714">
+        <v>-0.03475531139637866</v>
+      </c>
+    </row>
+    <row r="715" spans="1:10">
       <c r="A715" s="2">
         <v>31928</v>
       </c>
       <c r="B715">
-        <v>-0.003912185974328408</v>
+        <v>-0.004550237465517748</v>
       </c>
       <c r="E715">
         <v>-0.006050605060506031</v>
@@ -7800,13 +8049,16 @@
       <c r="I715">
         <v>0.006034124011652153</v>
       </c>
-    </row>
-    <row r="716" spans="1:9">
+      <c r="J715">
+        <v>0.0072013473488588</v>
+      </c>
+    </row>
+    <row r="716" spans="1:10">
       <c r="A716" s="2">
         <v>31958</v>
       </c>
       <c r="B716">
-        <v>0.01376265904959761</v>
+        <v>0.01454161071908122</v>
       </c>
       <c r="E716">
         <v>-0.01029330381848359</v>
@@ -7817,13 +8069,16 @@
       <c r="I716">
         <v>0.04791451223715959</v>
       </c>
-    </row>
-    <row r="717" spans="1:9">
+      <c r="J716">
+        <v>0.01280055353745024</v>
+      </c>
+    </row>
+    <row r="717" spans="1:10">
       <c r="A717" s="2">
         <v>31989</v>
       </c>
       <c r="B717">
-        <v>-0.0007684426229508379</v>
+        <v>-0.002731471052038859</v>
       </c>
       <c r="E717">
         <v>0.03835830910310878</v>
@@ -7834,13 +8089,16 @@
       <c r="I717">
         <v>0.04822368421052636</v>
       </c>
-    </row>
-    <row r="718" spans="1:9">
+      <c r="J717">
+        <v>0.002675775690293092</v>
+      </c>
+    </row>
+    <row r="718" spans="1:10">
       <c r="A718" s="2">
         <v>32020</v>
       </c>
       <c r="B718">
-        <v>-0.005351192002050587</v>
+        <v>-0.005619087957080215</v>
       </c>
       <c r="E718">
         <v>-0.01798599892299413</v>
@@ -7851,13 +8109,16 @@
       <c r="I718">
         <v>0.03495889035335464</v>
       </c>
-    </row>
-    <row r="719" spans="1:9">
+      <c r="J718">
+        <v>0.006188962071315141</v>
+      </c>
+    </row>
+    <row r="719" spans="1:10">
       <c r="A719" s="2">
         <v>32050</v>
       </c>
       <c r="B719">
-        <v>-0.02129441706130608</v>
+        <v>-0.02819741026806</v>
       </c>
       <c r="E719">
         <v>0.007128756306207462</v>
@@ -7868,13 +8129,16 @@
       <c r="I719">
         <v>-0.02416616130988491</v>
       </c>
-    </row>
-    <row r="720" spans="1:9">
+      <c r="J719">
+        <v>-0.03148806500761814</v>
+      </c>
+    </row>
+    <row r="720" spans="1:10">
       <c r="A720" s="2">
         <v>32081</v>
       </c>
       <c r="B720">
-        <v>0.03561553653719551</v>
+        <v>0.03336937147532359</v>
       </c>
       <c r="E720">
         <v>0.01927474681476649</v>
@@ -7885,13 +8149,16 @@
       <c r="I720">
         <v>-0.217630426001305</v>
       </c>
-    </row>
-    <row r="721" spans="1:9">
+      <c r="J720">
+        <v>-0.03268659325292778</v>
+      </c>
+    </row>
+    <row r="721" spans="1:10">
       <c r="A721" s="2">
         <v>32111</v>
       </c>
       <c r="B721">
-        <v>0.008009662449939503</v>
+        <v>0.01066025731655595</v>
       </c>
       <c r="E721">
         <v>0.05534188034188037</v>
@@ -7902,13 +8169,16 @@
       <c r="I721">
         <v>-0.08534890186266331</v>
       </c>
-    </row>
-    <row r="722" spans="1:9">
+      <c r="J721">
+        <v>0.02879171184194673</v>
+      </c>
+    </row>
+    <row r="722" spans="1:10">
       <c r="A722" s="2">
         <v>32142</v>
       </c>
       <c r="B722">
-        <v>0.01362174434003904</v>
+        <v>0.01891332326114936</v>
       </c>
       <c r="E722">
         <v>-0.01498279003846925</v>
@@ -7919,13 +8189,16 @@
       <c r="I722">
         <v>0.07286148501953971</v>
       </c>
-    </row>
-    <row r="723" spans="1:9">
+      <c r="J722">
+        <v>0.02406323185011705</v>
+      </c>
+    </row>
+    <row r="723" spans="1:10">
       <c r="A723" s="2">
         <v>32173</v>
       </c>
       <c r="B723">
-        <v>0.03515211845952848</v>
+        <v>0.03921137898841232</v>
       </c>
       <c r="E723">
         <v>-0.0436793422404933</v>
@@ -7939,13 +8212,16 @@
       <c r="I723">
         <v>0.04043224866440021</v>
       </c>
-    </row>
-    <row r="724" spans="1:9">
+      <c r="J723">
+        <v>0.03344577211137145</v>
+      </c>
+    </row>
+    <row r="724" spans="1:10">
       <c r="A724" s="2">
         <v>32202</v>
       </c>
       <c r="B724">
-        <v>0.01187041711744197</v>
+        <v>0.01371347037996085</v>
       </c>
       <c r="E724">
         <v>-0.08919935518538424</v>
@@ -7959,13 +8235,16 @@
       <c r="I724">
         <v>0.04181740381997123</v>
       </c>
-    </row>
-    <row r="725" spans="1:9">
+      <c r="J724">
+        <v>0.03236335472449681</v>
+      </c>
+    </row>
+    <row r="725" spans="1:10">
       <c r="A725" s="2">
         <v>32233</v>
       </c>
       <c r="B725">
-        <v>-0.009384930652490131</v>
+        <v>-0.008601589990877012</v>
       </c>
       <c r="E725">
         <v>0.08082595870206499</v>
@@ -7979,13 +8258,16 @@
       <c r="I725">
         <v>-0.03334329026958405</v>
       </c>
-    </row>
-    <row r="726" spans="1:9">
+      <c r="J725">
+        <v>-0.01039601307539806</v>
+      </c>
+    </row>
+    <row r="726" spans="1:10">
       <c r="A726" s="2">
         <v>32263</v>
       </c>
       <c r="B726">
-        <v>-0.005396492280018039</v>
+        <v>-0.007072433285132074</v>
       </c>
       <c r="E726">
         <v>-0.01801310043668125</v>
@@ -7999,13 +8281,16 @@
       <c r="I726">
         <v>0.009424852253852922</v>
       </c>
-    </row>
-    <row r="727" spans="1:9">
+      <c r="J726">
+        <v>0.007635241241132906</v>
+      </c>
+    </row>
+    <row r="727" spans="1:10">
       <c r="A727" s="2">
         <v>32294</v>
       </c>
       <c r="B727">
-        <v>-0.006721929163526763</v>
+        <v>-0.005428162897844646</v>
       </c>
       <c r="E727">
         <v>0.009449694274596965</v>
@@ -8019,13 +8304,16 @@
       <c r="I727">
         <v>0.003176060919144463</v>
       </c>
-    </row>
-    <row r="728" spans="1:9">
+      <c r="J727">
+        <v>0.001504729148753325</v>
+      </c>
+    </row>
+    <row r="728" spans="1:10">
       <c r="A728" s="2">
         <v>32324</v>
       </c>
       <c r="B728">
-        <v>0.02412600145666444</v>
+        <v>0.02393440004259739</v>
       </c>
       <c r="E728">
         <v>-0.03777533039647574</v>
@@ -8039,13 +8327,16 @@
       <c r="I728">
         <v>0.04325602685382957</v>
       </c>
-    </row>
-    <row r="729" spans="1:9">
+      <c r="J728">
+        <v>0.01459540673964366</v>
+      </c>
+    </row>
+    <row r="729" spans="1:10">
       <c r="A729" s="2">
         <v>32355</v>
       </c>
       <c r="B729">
-        <v>-0.005244910658725344</v>
+        <v>-0.002262090483619361</v>
       </c>
       <c r="E729">
         <v>-0.009499828316355763</v>
@@ -8059,13 +8350,16 @@
       <c r="I729">
         <v>-0.005411334552102409</v>
       </c>
-    </row>
-    <row r="730" spans="1:9">
+      <c r="J729">
+        <v>0.006558070657922466</v>
+      </c>
+    </row>
+    <row r="730" spans="1:10">
       <c r="A730" s="2">
         <v>32386</v>
       </c>
       <c r="B730">
-        <v>0.00262138814417634</v>
+        <v>0.004221718395746921</v>
       </c>
       <c r="E730">
         <v>-0.01467529466142814</v>
@@ -8079,13 +8373,16 @@
       <c r="I730">
         <v>-0.03860010293360783</v>
       </c>
-    </row>
-    <row r="731" spans="1:9">
+      <c r="J730">
+        <v>-0.001471206389239144</v>
+      </c>
+    </row>
+    <row r="731" spans="1:10">
       <c r="A731" s="2">
         <v>32416</v>
       </c>
       <c r="B731">
-        <v>0.02263949135421006</v>
+        <v>0.02156481121058773</v>
       </c>
       <c r="E731">
         <v>-0.07083382197724886</v>
@@ -8099,13 +8396,16 @@
       <c r="I731">
         <v>0.03972927500764767</v>
       </c>
-    </row>
-    <row r="732" spans="1:9">
+      <c r="J731">
+        <v>0.01257629972637342</v>
+      </c>
+    </row>
+    <row r="732" spans="1:10">
       <c r="A732" s="2">
         <v>32447</v>
       </c>
       <c r="B732">
-        <v>0.01882626380011621</v>
+        <v>0.01747701061829998</v>
       </c>
       <c r="E732">
         <v>0.04076738609112729</v>
@@ -8119,13 +8419,16 @@
       <c r="I732">
         <v>0.02596447353903875</v>
       </c>
-    </row>
-    <row r="733" spans="1:9">
+      <c r="J732">
+        <v>0.01210829912175848</v>
+      </c>
+    </row>
+    <row r="733" spans="1:10">
       <c r="A733" s="2">
         <v>32477</v>
       </c>
       <c r="B733">
-        <v>-0.01214782707881823</v>
+        <v>-0.009612023767913369</v>
       </c>
       <c r="E733">
         <v>0.02182876546204215</v>
@@ -8139,13 +8442,16 @@
       <c r="I733">
         <v>-0.01889092017062777</v>
       </c>
-    </row>
-    <row r="734" spans="1:9">
+      <c r="J733">
+        <v>0.005904703224481445</v>
+      </c>
+    </row>
+    <row r="734" spans="1:10">
       <c r="A734" s="2">
         <v>32508</v>
       </c>
       <c r="B734">
-        <v>0.001125801050747555</v>
+        <v>0.002722528926869749</v>
       </c>
       <c r="E734">
         <v>-0.02646570140042737</v>
@@ -8159,13 +8465,16 @@
       <c r="I734">
         <v>0.01468761417610542</v>
       </c>
-    </row>
-    <row r="735" spans="1:9">
+      <c r="J734">
+        <v>0.004696033893114349</v>
+      </c>
+    </row>
+    <row r="735" spans="1:10">
       <c r="A735" s="2">
         <v>32539</v>
       </c>
       <c r="B735">
-        <v>0.01438828176811513</v>
+        <v>0.01478241194660224</v>
       </c>
       <c r="E735">
         <v>-0.03730342557600863</v>
@@ -8179,13 +8488,16 @@
       <c r="I735">
         <v>0.07111479187671033</v>
       </c>
-    </row>
-    <row r="736" spans="1:9">
+      <c r="J735">
+        <v>0.0176294264085759</v>
+      </c>
+    </row>
+    <row r="736" spans="1:10">
       <c r="A736" s="2">
         <v>32567</v>
       </c>
       <c r="B736">
-        <v>-0.007248436611711262</v>
+        <v>-0.005648457822370778</v>
       </c>
       <c r="E736">
         <v>-0.02051411928580482</v>
@@ -8199,13 +8511,16 @@
       <c r="I736">
         <v>-0.02894409520287766</v>
       </c>
-    </row>
-    <row r="737" spans="1:9">
+      <c r="J736">
+        <v>0.00219670494258617</v>
+      </c>
+    </row>
+    <row r="737" spans="1:10">
       <c r="A737" s="2">
         <v>32598</v>
       </c>
       <c r="B737">
-        <v>0.004323550465282766</v>
+        <v>0.002939930737225094</v>
       </c>
       <c r="E737">
         <v>-0.01150614091790558</v>
@@ -8219,13 +8534,16 @@
       <c r="I737">
         <v>0.02080592674652082</v>
       </c>
-    </row>
-    <row r="738" spans="1:9">
+      <c r="J737">
+        <v>-0.007821062070339835</v>
+      </c>
+    </row>
+    <row r="738" spans="1:10">
       <c r="A738" s="2">
         <v>32628</v>
       </c>
       <c r="B738">
-        <v>0.02092598928041967</v>
+        <v>0.02032045708607622</v>
       </c>
       <c r="E738">
         <v>-0.002615746795710194</v>
@@ -8239,13 +8557,16 @@
       <c r="I738">
         <v>0.05008987011225274</v>
       </c>
-    </row>
-    <row r="739" spans="1:9">
+      <c r="J738">
+        <v>0.00421750263593923</v>
+      </c>
+    </row>
+    <row r="739" spans="1:10">
       <c r="A739" s="2">
         <v>32659</v>
       </c>
       <c r="B739">
-        <v>0.02627757609606252</v>
+        <v>0.02726852190003171</v>
       </c>
       <c r="E739">
         <v>-0.04668240230789411</v>
@@ -8259,13 +8580,16 @@
       <c r="I739">
         <v>0.03513757912414417</v>
       </c>
-    </row>
-    <row r="740" spans="1:9">
+      <c r="J739">
+        <v>0.01939903004849763</v>
+      </c>
+    </row>
+    <row r="740" spans="1:10">
       <c r="A740" s="2">
         <v>32689</v>
       </c>
       <c r="B740">
-        <v>0.03044815107071908</v>
+        <v>0.02962576730737321</v>
       </c>
       <c r="E740">
         <v>0.02104539202200817</v>
@@ -8279,13 +8603,16 @@
       <c r="I740">
         <v>-0.007924622488456157</v>
       </c>
-    </row>
-    <row r="741" spans="1:9">
+      <c r="J740">
+        <v>0.01240865172396877</v>
+      </c>
+    </row>
+    <row r="741" spans="1:10">
       <c r="A741" s="2">
         <v>32720</v>
       </c>
       <c r="B741">
-        <v>0.02125693160813302</v>
+        <v>0.01940473724190328</v>
       </c>
       <c r="E741">
         <v>-0.005523373299205048</v>
@@ -8299,13 +8626,16 @@
       <c r="I741">
         <v>0.08837033775709147</v>
       </c>
-    </row>
-    <row r="742" spans="1:9">
+      <c r="J741">
+        <v>-0.001308012789458246</v>
+      </c>
+    </row>
+    <row r="742" spans="1:10">
       <c r="A742" s="2">
         <v>32751</v>
       </c>
       <c r="B742">
-        <v>-0.01481577246283128</v>
+        <v>-0.01083863975071131</v>
       </c>
       <c r="E742">
         <v>-0.02573828230831754</v>
@@ -8319,13 +8649,16 @@
       <c r="I742">
         <v>0.01551664355062421</v>
       </c>
-    </row>
-    <row r="743" spans="1:9">
+      <c r="J742">
+        <v>0.00339558573853993</v>
+      </c>
+    </row>
+    <row r="743" spans="1:10">
       <c r="A743" s="2">
         <v>32781</v>
       </c>
       <c r="B743">
-        <v>0.005117841583119009</v>
+        <v>0.004611240469342137</v>
       </c>
       <c r="E743">
         <v>0.02614015572858719</v>
@@ -8339,13 +8672,16 @@
       <c r="I743">
         <v>-0.006544316403471417</v>
       </c>
-    </row>
-    <row r="744" spans="1:9">
+      <c r="J743">
+        <v>-0.01682378535170403</v>
+      </c>
+    </row>
+    <row r="744" spans="1:10">
       <c r="A744" s="2">
         <v>32812</v>
       </c>
       <c r="B744">
-        <v>0.02462333864271349</v>
+        <v>0.0230185420832576</v>
       </c>
       <c r="E744">
         <v>0.01910569105691051</v>
@@ -8359,13 +8695,16 @@
       <c r="I744">
         <v>-0.0251754260346555</v>
       </c>
-    </row>
-    <row r="745" spans="1:9">
+      <c r="J744">
+        <v>-0.02370064414613759</v>
+      </c>
+    </row>
+    <row r="745" spans="1:10">
       <c r="A745" s="2">
         <v>32842</v>
       </c>
       <c r="B745">
-        <v>0.009531090723751356</v>
+        <v>0.006907887430310344</v>
       </c>
       <c r="E745">
         <v>0.08177104108496214</v>
@@ -8379,13 +8718,16 @@
       <c r="I745">
         <v>0.01654130920202146</v>
       </c>
-    </row>
-    <row r="746" spans="1:9">
+      <c r="J745">
+        <v>-0.001964240745404244</v>
+      </c>
+    </row>
+    <row r="746" spans="1:10">
       <c r="A746" s="2">
         <v>32873</v>
       </c>
       <c r="B746">
-        <v>0.002675821679204438</v>
+        <v>0.001058854672196352</v>
       </c>
       <c r="E746">
         <v>-0.01425762045231072</v>
@@ -8399,13 +8741,16 @@
       <c r="I746">
         <v>0.02141680395387136</v>
       </c>
-    </row>
-    <row r="747" spans="1:9">
+      <c r="J746">
+        <v>0.001564392410173587</v>
+      </c>
+    </row>
+    <row r="747" spans="1:10">
       <c r="A747" s="2">
         <v>32904</v>
       </c>
       <c r="B747">
-        <v>-0.01188318227593144</v>
+        <v>-0.0124504186866462</v>
       </c>
       <c r="E747">
         <v>0.04127182044887778</v>
@@ -8419,13 +8764,16 @@
       <c r="I747">
         <v>-0.0688172043010753</v>
       </c>
-    </row>
-    <row r="748" spans="1:9">
+      <c r="J747">
+        <v>-0.02146420113871106</v>
+      </c>
+    </row>
+    <row r="748" spans="1:10">
       <c r="A748" s="2">
         <v>32932</v>
       </c>
       <c r="B748">
-        <v>0.003235833673053357</v>
+        <v>0.002900814459444456</v>
       </c>
       <c r="E748">
         <v>-0.02023709735361034</v>
@@ -8439,13 +8787,16 @@
       <c r="I748">
         <v>0.008538957092500299</v>
       </c>
-    </row>
-    <row r="749" spans="1:9">
+      <c r="J748">
+        <v>-0.02064775243293349</v>
+      </c>
+    </row>
+    <row r="749" spans="1:10">
       <c r="A749" s="2">
         <v>32963</v>
       </c>
       <c r="B749">
-        <v>0.0007365079365080351</v>
+        <v>0.0009122260540661564</v>
       </c>
       <c r="E749">
         <v>-0.09019799560009789</v>
@@ -8459,13 +8810,16 @@
       <c r="I749">
         <v>0.02425502425502435</v>
       </c>
-    </row>
-    <row r="750" spans="1:9">
+      <c r="J749">
+        <v>0.02623554153522623</v>
+      </c>
+    </row>
+    <row r="750" spans="1:10">
       <c r="A750" s="2">
         <v>32993</v>
       </c>
       <c r="B750">
-        <v>-0.009161506446046075</v>
+        <v>-0.01042546570044012</v>
       </c>
       <c r="E750">
         <v>-0.001746372917786121</v>
@@ -8479,13 +8833,16 @@
       <c r="I750">
         <v>-0.02688709772312758</v>
       </c>
-    </row>
-    <row r="751" spans="1:9">
+      <c r="J750">
+        <v>-0.001690660382191678</v>
+      </c>
+    </row>
+    <row r="751" spans="1:10">
       <c r="A751" s="2">
         <v>33024</v>
       </c>
       <c r="B751">
-        <v>0.02960838050354742</v>
+        <v>0.03234719320708934</v>
       </c>
       <c r="E751">
         <v>-0.02112770824922627</v>
@@ -8499,13 +8856,16 @@
       <c r="I751">
         <v>0.09198911729141468</v>
       </c>
-    </row>
-    <row r="752" spans="1:9">
+      <c r="J751">
+        <v>0.01929590475212972</v>
+      </c>
+    </row>
+    <row r="752" spans="1:10">
       <c r="A752" s="2">
         <v>33054</v>
       </c>
       <c r="B752">
-        <v>0.01604517525311566</v>
+        <v>0.01708118458559094</v>
       </c>
       <c r="E752">
         <v>-0.03106956282650541</v>
@@ -8519,13 +8879,16 @@
       <c r="I752">
         <v>-0.008886305124159222</v>
       </c>
-    </row>
-    <row r="753" spans="1:9">
+      <c r="J752">
+        <v>0.02416675057899509</v>
+      </c>
+    </row>
+    <row r="753" spans="1:10">
       <c r="A753" s="2">
         <v>33085</v>
       </c>
       <c r="B753">
-        <v>0.01383312114386448</v>
+        <v>0.0113174446964186</v>
       </c>
       <c r="E753">
         <v>0.05306469920544843</v>
@@ -8539,13 +8902,16 @@
       <c r="I753">
         <v>-0.005223171889838563</v>
       </c>
-    </row>
-    <row r="754" spans="1:9">
+      <c r="J753">
+        <v>0.02693933733162934</v>
+      </c>
+    </row>
+    <row r="754" spans="1:10">
       <c r="A754" s="2">
         <v>33116</v>
       </c>
       <c r="B754">
-        <v>-0.01335458475210693</v>
+        <v>-0.01592942819064536</v>
       </c>
       <c r="E754">
         <v>0.04580975478307736</v>
@@ -8559,13 +8925,16 @@
       <c r="I754">
         <v>-0.09431419345781267</v>
       </c>
-    </row>
-    <row r="755" spans="1:9">
+      <c r="J754">
+        <v>-0.05691718525610345</v>
+      </c>
+    </row>
+    <row r="755" spans="1:10">
       <c r="A755" s="2">
         <v>33146</v>
       </c>
       <c r="B755">
-        <v>0.008272958684159004</v>
+        <v>0.004578872694440905</v>
       </c>
       <c r="E755">
         <v>0.04637979902087097</v>
@@ -8579,13 +8948,16 @@
       <c r="I755">
         <v>-0.05118427579365081</v>
       </c>
-    </row>
-    <row r="756" spans="1:9">
+      <c r="J755">
+        <v>-0.07299121871986192</v>
+      </c>
+    </row>
+    <row r="756" spans="1:10">
       <c r="A756" s="2">
         <v>33177</v>
       </c>
       <c r="B756">
-        <v>0.0126960236927709</v>
+        <v>0.004493804968864312</v>
       </c>
       <c r="E756">
         <v>-0.06611672001969959</v>
@@ -8599,13 +8971,16 @@
       <c r="I756">
         <v>-0.006698251919621034</v>
       </c>
-    </row>
-    <row r="757" spans="1:9">
+      <c r="J756">
+        <v>-0.05251054043694903</v>
+      </c>
+    </row>
+    <row r="757" spans="1:10">
       <c r="A757" s="2">
         <v>33207</v>
       </c>
       <c r="B757">
-        <v>0.02152599659611187</v>
+        <v>0.02055772139494261</v>
       </c>
       <c r="E757">
         <v>0.01463414634146343</v>
@@ -8619,13 +8994,16 @@
       <c r="I757">
         <v>0.05993421052631587</v>
       </c>
-    </row>
-    <row r="758" spans="1:9">
+      <c r="J757">
+        <v>0.03120665742024964</v>
+      </c>
+    </row>
+    <row r="758" spans="1:10">
       <c r="A758" s="2">
         <v>33238</v>
       </c>
       <c r="B758">
-        <v>0.01558136806288868</v>
+        <v>0.01409009309898557</v>
       </c>
       <c r="E758">
         <v>0.01611226611226613</v>
@@ -8639,13 +9017,16 @@
       <c r="I758">
         <v>0.02482775743280996</v>
       </c>
-    </row>
-    <row r="759" spans="1:9">
+      <c r="J758">
+        <v>0.0056041246357319</v>
+      </c>
+    </row>
+    <row r="759" spans="1:10">
       <c r="A759" s="2">
         <v>33269</v>
       </c>
       <c r="B759">
-        <v>0.01236165345779705</v>
+        <v>0.01265927008501255</v>
       </c>
       <c r="E759">
         <v>-0.05473145780051147</v>
@@ -8659,13 +9040,16 @@
       <c r="I759">
         <v>0.04151777602810247</v>
       </c>
-    </row>
-    <row r="760" spans="1:9">
+      <c r="J759">
+        <v>0.02747436469014719</v>
+      </c>
+    </row>
+    <row r="760" spans="1:10">
       <c r="A760" s="2">
         <v>33297</v>
       </c>
       <c r="B760">
-        <v>0.008536084356598472</v>
+        <v>0.01711521261891225</v>
       </c>
       <c r="E760">
         <v>-0.0178571428571429</v>
@@ -8679,13 +9063,16 @@
       <c r="I760">
         <v>0.06728113278864889</v>
       </c>
-    </row>
-    <row r="761" spans="1:9">
+      <c r="J760">
+        <v>0.1093995769376797</v>
+      </c>
+    </row>
+    <row r="761" spans="1:10">
       <c r="A761" s="2">
         <v>33328</v>
       </c>
       <c r="B761">
-        <v>0.006879695845025902</v>
+        <v>0.01233062872217117</v>
       </c>
       <c r="E761">
         <v>-0.02479338842975209</v>
@@ -8699,13 +9086,16 @@
       <c r="I761">
         <v>0.0222028495927209</v>
       </c>
-    </row>
-    <row r="762" spans="1:9">
+      <c r="J761">
+        <v>0.05891268211596756</v>
+      </c>
+    </row>
+    <row r="762" spans="1:10">
       <c r="A762" s="2">
         <v>33358</v>
       </c>
       <c r="B762">
-        <v>0.01083340825316914</v>
+        <v>0.01297009179745334</v>
       </c>
       <c r="C762">
         <v>-0.0007292557430189639</v>
@@ -8722,13 +9112,16 @@
       <c r="I762">
         <v>0.0003464634081338236</v>
       </c>
-    </row>
-    <row r="763" spans="1:9">
+      <c r="J762">
+        <v>0.0409991227665174</v>
+      </c>
+    </row>
+    <row r="763" spans="1:10">
       <c r="A763" s="2">
         <v>33389</v>
       </c>
       <c r="B763">
-        <v>0.00584782318673005</v>
+        <v>0.006879482382288638</v>
       </c>
       <c r="C763">
         <v>-0.01559518319134923</v>
@@ -8745,13 +9138,16 @@
       <c r="I763">
         <v>0.03857732782736112</v>
       </c>
-    </row>
-    <row r="764" spans="1:9">
+      <c r="J763">
+        <v>0.001818423737082631</v>
+      </c>
+    </row>
+    <row r="764" spans="1:10">
       <c r="A764" s="2">
         <v>33419</v>
       </c>
       <c r="B764">
-        <v>-0.0005084333620709591</v>
+        <v>-0.0001548437046354767</v>
       </c>
       <c r="C764">
         <v>-0.02895704509329267</v>
@@ -8768,13 +9164,16 @@
       <c r="I764">
         <v>-0.04789267116435358</v>
       </c>
-    </row>
-    <row r="765" spans="1:9">
+      <c r="J764">
+        <v>0.02957322472109092</v>
+      </c>
+    </row>
+    <row r="765" spans="1:10">
       <c r="A765" s="2">
         <v>33450</v>
       </c>
       <c r="B765">
-        <v>0.0138673862078118</v>
+        <v>0.01438333623710242</v>
       </c>
       <c r="C765">
         <v>0.037559682506491</v>
@@ -8791,13 +9190,16 @@
       <c r="I765">
         <v>0.04485935984481082</v>
       </c>
-    </row>
-    <row r="766" spans="1:9">
+      <c r="J765">
+        <v>0.03199174406604754</v>
+      </c>
+    </row>
+    <row r="766" spans="1:10">
       <c r="A766" s="2">
         <v>33481</v>
       </c>
       <c r="B766">
-        <v>0.02164001657904491</v>
+        <v>0.02263358778625957</v>
       </c>
       <c r="C766">
         <v>-0.002896043683129346</v>
@@ -8814,13 +9216,16 @@
       <c r="I766">
         <v>0.01964879709135925</v>
       </c>
-    </row>
-    <row r="767" spans="1:9">
+      <c r="J766">
+        <v>0.02300000000000013</v>
+      </c>
+    </row>
+    <row r="767" spans="1:10">
       <c r="A767" s="2">
         <v>33511</v>
       </c>
       <c r="B767">
-        <v>0.02026348941985345</v>
+        <v>0.02062105773896161</v>
       </c>
       <c r="C767">
         <v>0.008427025433720647</v>
@@ -8837,13 +9242,16 @@
       <c r="I767">
         <v>-0.01914371696634043</v>
       </c>
-    </row>
-    <row r="768" spans="1:9">
+      <c r="J767">
+        <v>0.01392961876832843</v>
+      </c>
+    </row>
+    <row r="768" spans="1:10">
       <c r="A768" s="2">
         <v>33542</v>
       </c>
       <c r="B768">
-        <v>0.01113389979490176</v>
+        <v>0.009471393830794872</v>
       </c>
       <c r="C768">
         <v>0.004661116475715765</v>
@@ -8860,13 +9268,16 @@
       <c r="I768">
         <v>0.01185994946630209</v>
       </c>
-    </row>
-    <row r="769" spans="1:9">
+      <c r="J768">
+        <v>0.03338153771993246</v>
+      </c>
+    </row>
+    <row r="769" spans="1:10">
       <c r="A769" s="2">
         <v>33572</v>
       </c>
       <c r="B769">
-        <v>0.009169184915345463</v>
+        <v>0.009799126953938586</v>
       </c>
       <c r="C769">
         <v>-0.02899863880547393</v>
@@ -8883,13 +9294,16 @@
       <c r="I769">
         <v>-0.04392804362227987</v>
       </c>
-    </row>
-    <row r="770" spans="1:9">
+      <c r="J769">
+        <v>0.005208940719144683</v>
+      </c>
+    </row>
+    <row r="770" spans="1:10">
       <c r="A770" s="2">
         <v>33603</v>
       </c>
       <c r="B770">
-        <v>0.02969829973132065</v>
+        <v>0.0326816143497759</v>
       </c>
       <c r="C770">
         <v>-0.04535025821792171</v>
@@ -8906,13 +9320,16 @@
       <c r="I770">
         <v>0.1115878684505089</v>
       </c>
-    </row>
-    <row r="771" spans="1:9">
+      <c r="J770">
+        <v>0.01438570710390974</v>
+      </c>
+    </row>
+    <row r="771" spans="1:10">
       <c r="A771" s="2">
         <v>33634</v>
       </c>
       <c r="B771">
-        <v>-0.01360422268698336</v>
+        <v>-0.01248870978948113</v>
       </c>
       <c r="C771">
         <v>0.01653732808879682</v>
@@ -8929,13 +9346,16 @@
       <c r="I771">
         <v>-0.01989978182166907</v>
       </c>
-    </row>
-    <row r="772" spans="1:9">
+      <c r="J771">
+        <v>0.03522549654988372</v>
+      </c>
+    </row>
+    <row r="772" spans="1:10">
       <c r="A772" s="2">
         <v>33663</v>
       </c>
       <c r="B772">
-        <v>0.006502160655869949</v>
+        <v>0.009586125622218722</v>
       </c>
       <c r="C772">
         <v>-0.002857123953527219</v>
@@ -8952,13 +9372,16 @@
       <c r="I772">
         <v>0.009564813229286262</v>
       </c>
-    </row>
-    <row r="773" spans="1:9">
+      <c r="J772">
+        <v>0.02467317252807955</v>
+      </c>
+    </row>
+    <row r="773" spans="1:10">
       <c r="A773" s="2">
         <v>33694</v>
       </c>
       <c r="B773">
-        <v>-0.005637589278549071</v>
+        <v>-0.004285863618941455</v>
       </c>
       <c r="C773">
         <v>0.005569163906598007</v>
@@ -8975,13 +9398,16 @@
       <c r="I773">
         <v>-0.0218318391083111</v>
       </c>
-    </row>
-    <row r="774" spans="1:9">
+      <c r="J773">
+        <v>0.01239892183288416</v>
+      </c>
+    </row>
+    <row r="774" spans="1:10">
       <c r="A774" s="2">
         <v>33724</v>
       </c>
       <c r="B774">
-        <v>0.00722313015757714</v>
+        <v>0.004986702127659504</v>
       </c>
       <c r="C774">
         <v>0.005047833445690708</v>
@@ -8998,13 +9424,16 @@
       <c r="I774">
         <v>0.02789268993534644</v>
       </c>
-    </row>
-    <row r="775" spans="1:9">
+      <c r="J774">
+        <v>0.003798367057153085</v>
+      </c>
+    </row>
+    <row r="775" spans="1:10">
       <c r="A775" s="2">
         <v>33755</v>
       </c>
       <c r="B775">
-        <v>0.01886981430660439</v>
+        <v>0.02233751762800984</v>
       </c>
       <c r="C775">
         <v>0.03109451783637218</v>
@@ -9021,13 +9450,16 @@
       <c r="I775">
         <v>0.0009639715628388945</v>
       </c>
-    </row>
-    <row r="776" spans="1:9">
+      <c r="J775">
+        <v>0.01411040775188321</v>
+      </c>
+    </row>
+    <row r="776" spans="1:10">
       <c r="A776" s="2">
         <v>33785</v>
       </c>
       <c r="B776">
-        <v>0.01376245994141123</v>
+        <v>0.01565054495912799</v>
       </c>
       <c r="C776">
         <v>0.0008086527971746804</v>
@@ -9044,13 +9476,16 @@
       <c r="I776">
         <v>-0.0173588539785724</v>
       </c>
-    </row>
-    <row r="777" spans="1:9">
+      <c r="J776">
+        <v>0.009415539126795824</v>
+      </c>
+    </row>
+    <row r="777" spans="1:10">
       <c r="A777" s="2">
         <v>33816</v>
       </c>
       <c r="B777">
-        <v>0.0204022264026531</v>
+        <v>0.02669394188366669</v>
       </c>
       <c r="C777">
         <v>-0.006303879881663033</v>
@@ -9067,13 +9502,16 @@
       <c r="I777">
         <v>0.03937374430342522</v>
       </c>
-    </row>
-    <row r="778" spans="1:9">
+      <c r="J777">
+        <v>0.01509707731638232</v>
+      </c>
+    </row>
+    <row r="778" spans="1:10">
       <c r="A778" s="2">
         <v>33847</v>
       </c>
       <c r="B778">
-        <v>0.01013019101016832</v>
+        <v>0.00775750845160128</v>
       </c>
       <c r="C778">
         <v>-0.01333333333333342</v>
@@ -9090,13 +9528,16 @@
       <c r="I778">
         <v>-0.0239975483840551</v>
       </c>
-    </row>
-    <row r="779" spans="1:9">
+      <c r="J778">
+        <v>0.01310281455263262</v>
+      </c>
+    </row>
+    <row r="779" spans="1:10">
       <c r="A779" s="2">
         <v>33877</v>
       </c>
       <c r="B779">
-        <v>0.01185369157823435</v>
+        <v>0.01213820374031704</v>
       </c>
       <c r="C779">
         <v>0.01225895763710905</v>
@@ -9113,13 +9554,16 @@
       <c r="I779">
         <v>0.009105620365674083</v>
       </c>
-    </row>
-    <row r="780" spans="1:9">
+      <c r="J779">
+        <v>0.01017871539908621</v>
+      </c>
+    </row>
+    <row r="780" spans="1:10">
       <c r="A780" s="2">
         <v>33908</v>
       </c>
       <c r="B780">
-        <v>-0.01325820967681945</v>
+        <v>-0.01778880794171789</v>
       </c>
       <c r="C780">
         <v>-0.03175225569332196</v>
@@ -9136,13 +9580,16 @@
       <c r="I780">
         <v>0.002106270943034838</v>
       </c>
-    </row>
-    <row r="781" spans="1:9">
+      <c r="J780">
+        <v>-0.01409996341990605</v>
+      </c>
+    </row>
+    <row r="781" spans="1:10">
       <c r="A781" s="2">
         <v>33938</v>
       </c>
       <c r="B781">
-        <v>0.0002261377555827782</v>
+        <v>0.00159754825247771</v>
       </c>
       <c r="C781">
         <v>-0.01107756613546429</v>
@@ -9159,13 +9606,16 @@
       <c r="I781">
         <v>0.03026177510270367</v>
       </c>
-    </row>
-    <row r="782" spans="1:9">
+      <c r="J781">
+        <v>0.01258137416939298</v>
+      </c>
+    </row>
+    <row r="782" spans="1:10">
       <c r="A782" s="2">
         <v>33969</v>
       </c>
       <c r="B782">
-        <v>0.01590142622981716</v>
+        <v>0.01845643045473788</v>
       </c>
       <c r="C782">
         <v>-0.003307271645947907</v>
@@ -9182,13 +9632,16 @@
       <c r="I782">
         <v>0.0101078010896023</v>
       </c>
-    </row>
-    <row r="783" spans="1:9">
+      <c r="J782">
+        <v>0.01142571618920729</v>
+      </c>
+    </row>
+    <row r="783" spans="1:10">
       <c r="A783" s="2">
         <v>34000</v>
       </c>
       <c r="B783">
-        <v>0.01917620222176875</v>
+        <v>0.02329966760419344</v>
       </c>
       <c r="C783">
         <v>-0.004329169106278896</v>
@@ -9205,13 +9658,16 @@
       <c r="I783">
         <v>0.007045970943976521</v>
       </c>
-    </row>
-    <row r="784" spans="1:9">
+      <c r="J783">
+        <v>0.02908144781477451</v>
+      </c>
+    </row>
+    <row r="784" spans="1:10">
       <c r="A784" s="2">
         <v>34028</v>
       </c>
       <c r="B784">
-        <v>0.01750523155308881</v>
+        <v>0.02295655433051191</v>
       </c>
       <c r="C784">
         <v>0.01004524520562722</v>
@@ -9228,13 +9684,16 @@
       <c r="I784">
         <v>0.01048361365604644</v>
       </c>
-    </row>
-    <row r="785" spans="1:9">
+      <c r="J784">
+        <v>0.01763425718491973</v>
+      </c>
+    </row>
+    <row r="785" spans="1:10">
       <c r="A785" s="2">
         <v>34059</v>
       </c>
       <c r="B785">
-        <v>0.004166890212278895</v>
+        <v>0.00349596971177335</v>
       </c>
       <c r="C785">
         <v>0.02096047021629488</v>
@@ -9251,13 +9710,16 @@
       <c r="I785">
         <v>0.01869727998556558</v>
       </c>
-    </row>
-    <row r="786" spans="1:9">
+      <c r="J785">
+        <v>0.01286284869641774</v>
+      </c>
+    </row>
+    <row r="786" spans="1:10">
       <c r="A786" s="2">
         <v>34089</v>
       </c>
       <c r="B786">
-        <v>0.006963490650044424</v>
+        <v>0.00769780779821394</v>
       </c>
       <c r="C786">
         <v>0.006824483529759506</v>
@@ -9274,13 +9736,16 @@
       <c r="I786">
         <v>-0.02541678659198088</v>
       </c>
-    </row>
-    <row r="787" spans="1:9">
+      <c r="J786">
+        <v>0.008725082282804442</v>
+      </c>
+    </row>
+    <row r="787" spans="1:10">
       <c r="A787" s="2">
         <v>34120</v>
       </c>
       <c r="B787">
-        <v>0.001273412214145564</v>
+        <v>0.001177554008967574</v>
       </c>
       <c r="C787">
         <v>-0.02014407655203931</v>
@@ -9297,13 +9762,16 @@
       <c r="I787">
         <v>0.02271746291374188</v>
       </c>
-    </row>
-    <row r="788" spans="1:9">
+      <c r="J787">
+        <v>0.01188167574722199</v>
+      </c>
+    </row>
+    <row r="788" spans="1:10">
       <c r="A788" s="2">
         <v>34150</v>
       </c>
       <c r="B788">
-        <v>0.01812304594351111</v>
+        <v>0.02427733462008241</v>
       </c>
       <c r="C788">
         <v>-0.006028976665483965</v>
@@ -9320,13 +9788,16 @@
       <c r="I788">
         <v>0.0007552366778471598</v>
       </c>
-    </row>
-    <row r="789" spans="1:9">
+      <c r="J788">
+        <v>0.02098987010616615</v>
+      </c>
+    </row>
+    <row r="789" spans="1:10">
       <c r="A789" s="2">
         <v>34181</v>
       </c>
       <c r="B789">
-        <v>0.005655892711531996</v>
+        <v>0.007243069766072585</v>
       </c>
       <c r="C789">
         <v>0.01464626360161092</v>
@@ -9343,13 +9814,16 @@
       <c r="I789">
         <v>-0.005327059241337917</v>
       </c>
-    </row>
-    <row r="790" spans="1:9">
+      <c r="J789">
+        <v>0.009653487471322553</v>
+      </c>
+    </row>
+    <row r="790" spans="1:10">
       <c r="A790" s="2">
         <v>34212</v>
       </c>
       <c r="B790">
-        <v>0.01752781851117047</v>
+        <v>0.02486151507622147</v>
       </c>
       <c r="C790">
         <v>-0.01975312159594278</v>
@@ -9366,13 +9840,16 @@
       <c r="I790">
         <v>0.03443197286501687</v>
       </c>
-    </row>
-    <row r="791" spans="1:9">
+      <c r="J790">
+        <v>0.008439814678195212</v>
+      </c>
+    </row>
+    <row r="791" spans="1:10">
       <c r="A791" s="2">
         <v>34242</v>
       </c>
       <c r="B791">
-        <v>0.002746647225377652</v>
+        <v>0.002381631488876046</v>
       </c>
       <c r="C791">
         <v>-0.02578343612945488</v>
@@ -9389,13 +9866,16 @@
       <c r="I791">
         <v>-0.009987919578910986</v>
       </c>
-    </row>
-    <row r="792" spans="1:9">
+      <c r="J791">
+        <v>0.002575132414479153</v>
+      </c>
+    </row>
+    <row r="792" spans="1:10">
       <c r="A792" s="2">
         <v>34273</v>
       </c>
       <c r="B792">
-        <v>0.003736705949985764</v>
+        <v>0.005036493234879869</v>
       </c>
       <c r="C792">
         <v>-0.0147138139096149</v>
@@ -9412,13 +9892,16 @@
       <c r="I792">
         <v>0.01939293574183432</v>
       </c>
-    </row>
-    <row r="793" spans="1:9">
+      <c r="J792">
+        <v>0.02025626805989322</v>
+      </c>
+    </row>
+    <row r="793" spans="1:10">
       <c r="A793" s="2">
         <v>34303</v>
       </c>
       <c r="B793">
-        <v>-0.008506839161781521</v>
+        <v>-0.01227332568904738</v>
       </c>
       <c r="C793">
         <v>-0.01340431677467135</v>
@@ -9435,13 +9918,16 @@
       <c r="I793">
         <v>-0.01291067268024704</v>
       </c>
-    </row>
-    <row r="794" spans="1:9">
+      <c r="J793">
+        <v>0.004806179373480157</v>
+      </c>
+    </row>
+    <row r="794" spans="1:10">
       <c r="A794" s="2">
         <v>34334</v>
       </c>
       <c r="B794">
-        <v>0.005419731901663116</v>
+        <v>0.005876114311921476</v>
       </c>
       <c r="C794">
         <v>0.01188060371032762</v>
@@ -9458,13 +9944,16 @@
       <c r="I794">
         <v>0.01009116698066204</v>
       </c>
-    </row>
-    <row r="795" spans="1:9">
+      <c r="J794">
+        <v>0.01244198957947784</v>
+      </c>
+    </row>
+    <row r="795" spans="1:10">
       <c r="A795" s="2">
         <v>34365</v>
       </c>
       <c r="B795">
-        <v>0.01350163912264701</v>
+        <v>0.01940613245184086</v>
       </c>
       <c r="C795">
         <v>0.03435535297418557</v>
@@ -9481,13 +9970,16 @@
       <c r="I795">
         <v>0.03250080394468857</v>
       </c>
-    </row>
-    <row r="796" spans="1:9">
+      <c r="J795">
+        <v>0.02170978627671527</v>
+      </c>
+    </row>
+    <row r="796" spans="1:10">
       <c r="A796" s="2">
         <v>34393</v>
       </c>
       <c r="B796">
-        <v>-0.01737332644180267</v>
+        <v>-0.02360718978000165</v>
       </c>
       <c r="C796">
         <v>-0.01019843064627279</v>
@@ -9504,13 +9996,16 @@
       <c r="I796">
         <v>-0.03004505720396178</v>
       </c>
-    </row>
-    <row r="797" spans="1:9">
+      <c r="J796">
+        <v>-0.002642298799955922</v>
+      </c>
+    </row>
+    <row r="797" spans="1:10">
       <c r="A797" s="2">
         <v>34424</v>
       </c>
       <c r="B797">
-        <v>-0.02465428013913629</v>
+        <v>-0.03069126930729926</v>
       </c>
       <c r="C797">
         <v>-0.000818173012825163</v>
@@ -9527,13 +10022,16 @@
       <c r="I797">
         <v>-0.04574645716487569</v>
       </c>
-    </row>
-    <row r="798" spans="1:9">
+      <c r="J797">
+        <v>-0.03775251131471469</v>
+      </c>
+    </row>
+    <row r="798" spans="1:10">
       <c r="A798" s="2">
         <v>34454</v>
       </c>
       <c r="B798">
-        <v>-0.007985108381754369</v>
+        <v>-0.009628874809859189</v>
       </c>
       <c r="C798">
         <v>0.01815710152398298</v>
@@ -9550,13 +10048,16 @@
       <c r="I798">
         <v>0.01153060995580701</v>
       </c>
-    </row>
-    <row r="799" spans="1:9">
+      <c r="J798">
+        <v>-0.006854422393025139</v>
+      </c>
+    </row>
+    <row r="799" spans="1:10">
       <c r="A799" s="2">
         <v>34485</v>
       </c>
       <c r="B799">
-        <v>-0.0001402942672256158</v>
+        <v>-0.003683213790429685</v>
       </c>
       <c r="C799">
         <v>0.04981921395032085</v>
@@ -9573,13 +10074,16 @@
       <c r="I799">
         <v>0.01239715242509587</v>
       </c>
-    </row>
-    <row r="800" spans="1:9">
+      <c r="J799">
+        <v>0.0005197955470848115</v>
+      </c>
+    </row>
+    <row r="800" spans="1:10">
       <c r="A800" s="2">
         <v>34515</v>
       </c>
       <c r="B800">
-        <v>-0.002209944751381254</v>
+        <v>-0.002454575388391667</v>
       </c>
       <c r="C800">
         <v>0.02478647525460254</v>
@@ -9596,13 +10100,16 @@
       <c r="I800">
         <v>-0.0267907995618839</v>
       </c>
-    </row>
-    <row r="801" spans="1:9">
+      <c r="J800">
+        <v>0.003088290472479605</v>
+      </c>
+    </row>
+    <row r="801" spans="1:10">
       <c r="A801" s="2">
         <v>34546</v>
       </c>
       <c r="B801">
-        <v>0.0198632424546048</v>
+        <v>0.02525131282820703</v>
       </c>
       <c r="C801">
         <v>0.01010852952077923</v>
@@ -9619,13 +10126,16 @@
       <c r="I801">
         <v>0.03148985976995977</v>
       </c>
-    </row>
-    <row r="802" spans="1:9">
+      <c r="J801">
+        <v>0.008488231570466631</v>
+      </c>
+    </row>
+    <row r="802" spans="1:10">
       <c r="A802" s="2">
         <v>34577</v>
       </c>
       <c r="B802">
-        <v>0.001240972784777306</v>
+        <v>0.001126834765047713</v>
       </c>
       <c r="C802">
         <v>-0.03047769239887244</v>
@@ -9642,13 +10152,16 @@
       <c r="I802">
         <v>0.0375987430716187</v>
       </c>
-    </row>
-    <row r="803" spans="1:9">
+      <c r="J802">
+        <v>0.007075808154298313</v>
+      </c>
+    </row>
+    <row r="803" spans="1:10">
       <c r="A803" s="2">
         <v>34607</v>
       </c>
       <c r="B803">
-        <v>-0.01471828682584209</v>
+        <v>-0.01863762607805874</v>
       </c>
       <c r="C803">
         <v>-0.0023378296775729</v>
@@ -9665,13 +10178,16 @@
       <c r="I803">
         <v>-0.02691959872973149</v>
       </c>
-    </row>
-    <row r="804" spans="1:9">
+      <c r="J803">
+        <v>5.666203926679714e-05</v>
+      </c>
+    </row>
+    <row r="804" spans="1:10">
       <c r="A804" s="2">
         <v>34638</v>
       </c>
       <c r="B804">
-        <v>-0.00089104759242431</v>
+        <v>-0.002293885454681011</v>
       </c>
       <c r="C804">
         <v>0.00383731326265413</v>
@@ -9688,13 +10204,16 @@
       <c r="I804">
         <v>0.02087790961550939</v>
       </c>
-    </row>
-    <row r="805" spans="1:9">
+      <c r="J804">
+        <v>0.002379670812204138</v>
+      </c>
+    </row>
+    <row r="805" spans="1:10">
       <c r="A805" s="2">
         <v>34668</v>
       </c>
       <c r="B805">
-        <v>-0.002220862114190703</v>
+        <v>-0.001642256759379346</v>
       </c>
       <c r="C805">
         <v>-0.006557199543957726</v>
@@ -9711,13 +10230,16 @@
       <c r="I805">
         <v>-0.0395046046363926</v>
       </c>
-    </row>
-    <row r="806" spans="1:9">
+      <c r="J805">
+        <v>-0.01260492326823615</v>
+      </c>
+    </row>
+    <row r="806" spans="1:10">
       <c r="A806" s="2">
         <v>34699</v>
       </c>
       <c r="B806">
-        <v>0.00690525430263933</v>
+        <v>0.00826965351198572</v>
       </c>
       <c r="C806">
         <v>0.02338324565818328</v>
@@ -9734,13 +10256,16 @@
       <c r="I806">
         <v>0.01229914699464385</v>
       </c>
-    </row>
-    <row r="807" spans="1:9">
+      <c r="J806">
+        <v>0.007356098119472243</v>
+      </c>
+    </row>
+    <row r="807" spans="1:10">
       <c r="A807" s="2">
         <v>34730</v>
       </c>
       <c r="B807">
-        <v>0.01979043375339407</v>
+        <v>0.02120906502135722</v>
       </c>
       <c r="C807">
         <v>-0.01077763531038178</v>
@@ -9757,13 +10282,16 @@
       <c r="I807">
         <v>0.02427765802251414</v>
       </c>
-    </row>
-    <row r="808" spans="1:9">
+      <c r="J807">
+        <v>0.01355344661021762</v>
+      </c>
+    </row>
+    <row r="808" spans="1:10">
       <c r="A808" s="2">
         <v>34758</v>
       </c>
       <c r="B808">
-        <v>0.02377579409104102</v>
+        <v>0.02882911668167432</v>
       </c>
       <c r="C808">
         <v>-0.005810627378874056</v>
@@ -9780,13 +10308,16 @@
       <c r="I808">
         <v>0.03607414650737639</v>
       </c>
-    </row>
-    <row r="809" spans="1:9">
+      <c r="J808">
+        <v>0.03428555409155898</v>
+      </c>
+    </row>
+    <row r="809" spans="1:10">
       <c r="A809" s="2">
         <v>34789</v>
       </c>
       <c r="B809">
-        <v>0.00613517388549889</v>
+        <v>0.008159347252219673</v>
       </c>
       <c r="C809">
         <v>0.01969111272251634</v>
@@ -9803,13 +10334,16 @@
       <c r="I809">
         <v>0.02732924352161503</v>
       </c>
-    </row>
-    <row r="810" spans="1:9">
+      <c r="J809">
+        <v>0.01076055727218517</v>
+      </c>
+    </row>
+    <row r="810" spans="1:10">
       <c r="A810" s="2">
         <v>34819</v>
       </c>
       <c r="B810">
-        <v>0.01396851698425849</v>
+        <v>0.01687273338280804</v>
       </c>
       <c r="C810">
         <v>0.01547409323188043</v>
@@ -9826,13 +10360,16 @@
       <c r="I810">
         <v>0.02796029637914166</v>
       </c>
-    </row>
-    <row r="811" spans="1:9">
+      <c r="J810">
+        <v>0.02544849963798224</v>
+      </c>
+    </row>
+    <row r="811" spans="1:10">
       <c r="A811" s="2">
         <v>34850</v>
       </c>
       <c r="B811">
-        <v>0.03869723661203084</v>
+        <v>0.04713447715568297</v>
       </c>
       <c r="C811">
         <v>-0.01203417183940236</v>
@@ -9849,13 +10386,16 @@
       <c r="I811">
         <v>0.0363117095063239</v>
       </c>
-    </row>
-    <row r="812" spans="1:9">
+      <c r="J811">
+        <v>0.02803347280334734</v>
+      </c>
+    </row>
+    <row r="812" spans="1:10">
       <c r="A812" s="2">
         <v>34880</v>
       </c>
       <c r="B812">
-        <v>0.007331539780683016</v>
+        <v>0.009007824314550383</v>
       </c>
       <c r="C812">
         <v>-0.01448884304081999</v>
@@ -9872,13 +10412,16 @@
       <c r="I812">
         <v>0.02127859017622802</v>
       </c>
-    </row>
-    <row r="813" spans="1:9">
+      <c r="J812">
+        <v>0.006359381359381411</v>
+      </c>
+    </row>
+    <row r="813" spans="1:10">
       <c r="A813" s="2">
         <v>34911</v>
       </c>
       <c r="B813">
-        <v>-0.002233432770549881</v>
+        <v>-0.004418089404405023</v>
       </c>
       <c r="C813">
         <v>0.01464814955223614</v>
@@ -9895,13 +10438,16 @@
       <c r="I813">
         <v>0.03177604405690682</v>
       </c>
-    </row>
-    <row r="814" spans="1:9">
+      <c r="J813">
+        <v>0.0126383903746019</v>
+      </c>
+    </row>
+    <row r="814" spans="1:10">
       <c r="A814" s="2">
         <v>34942</v>
       </c>
       <c r="B814">
-        <v>0.01206874960866555</v>
+        <v>0.01611446374572933</v>
       </c>
       <c r="C814">
         <v>0.01231424841051232</v>
@@ -9918,13 +10464,16 @@
       <c r="I814">
         <v>-0.0003202505070631911</v>
       </c>
-    </row>
-    <row r="815" spans="1:9">
+      <c r="J814">
+        <v>0.003120163746193505</v>
+      </c>
+    </row>
+    <row r="815" spans="1:10">
       <c r="A815" s="2">
         <v>34972</v>
       </c>
       <c r="B815">
-        <v>0.009728559276158233</v>
+        <v>0.01185230991213815</v>
       </c>
       <c r="C815">
         <v>0.005183604799345432</v>
@@ -9941,13 +10490,16 @@
       <c r="I815">
         <v>0.04009752972164859</v>
       </c>
-    </row>
-    <row r="816" spans="1:9">
+      <c r="J815">
+        <v>0.01229253241097861</v>
+      </c>
+    </row>
+    <row r="816" spans="1:10">
       <c r="A816" s="2">
         <v>35003</v>
       </c>
       <c r="B816">
-        <v>0.01300471784817114</v>
+        <v>0.01301214636754855</v>
       </c>
       <c r="C816">
         <v>0.003786059102096173</v>
@@ -9964,13 +10516,16 @@
       <c r="I816">
         <v>-0.00497938091408423</v>
       </c>
-    </row>
-    <row r="817" spans="1:9">
+      <c r="J816">
+        <v>0.006169956490745143</v>
+      </c>
+    </row>
+    <row r="817" spans="1:10">
       <c r="A817" s="2">
         <v>35033</v>
       </c>
       <c r="B817">
-        <v>0.01498495456126281</v>
+        <v>0.01914182293499578</v>
       </c>
       <c r="C817">
         <v>0.01107248786009474</v>
@@ -9987,13 +10542,16 @@
       <c r="I817">
         <v>0.04104901117798798</v>
       </c>
-    </row>
-    <row r="818" spans="1:9">
+      <c r="J817">
+        <v>0.008819505521352466</v>
+      </c>
+    </row>
+    <row r="818" spans="1:10">
       <c r="A818" s="2">
         <v>35064</v>
       </c>
       <c r="B818">
-        <v>0.01403372862165542</v>
+        <v>0.01647613057580122</v>
       </c>
       <c r="C818">
         <v>0.04841876974779091</v>
@@ -10010,13 +10568,16 @@
       <c r="I818">
         <v>0.01744387729818109</v>
       </c>
-    </row>
-    <row r="819" spans="1:9">
+      <c r="J818">
+        <v>0.01571694960404924</v>
+      </c>
+    </row>
+    <row r="819" spans="1:10">
       <c r="A819" s="2">
         <v>35095</v>
       </c>
       <c r="B819">
-        <v>0.006640613522169714</v>
+        <v>0.006454509056937896</v>
       </c>
       <c r="C819">
         <v>0.002482681142263354</v>
@@ -10033,13 +10594,16 @@
       <c r="I819">
         <v>0.03261734287987283</v>
       </c>
-    </row>
-    <row r="820" spans="1:9">
+      <c r="J819">
+        <v>0.01759572743312199</v>
+      </c>
+    </row>
+    <row r="820" spans="1:10">
       <c r="A820" s="2">
         <v>35124</v>
       </c>
       <c r="B820">
-        <v>-0.01738229370384425</v>
+        <v>-0.02375986980893241</v>
       </c>
       <c r="C820">
         <v>0.01731469272348796</v>
@@ -10056,13 +10620,16 @@
       <c r="I820">
         <v>0.006933744221879756</v>
       </c>
-    </row>
-    <row r="821" spans="1:9">
+      <c r="J820">
+        <v>0.0007966260543579295</v>
+      </c>
+    </row>
+    <row r="821" spans="1:10">
       <c r="A821" s="2">
         <v>35155</v>
       </c>
       <c r="B821">
-        <v>-0.00695114887043824</v>
+        <v>-0.008520201521288073</v>
       </c>
       <c r="C821">
         <v>0.04340155556077718</v>
@@ -10079,13 +10646,16 @@
       <c r="I821">
         <v>0.007916556063894742</v>
       </c>
-    </row>
-    <row r="822" spans="1:9">
+      <c r="J821">
+        <v>-0.0006789343072528542</v>
+      </c>
+    </row>
+    <row r="822" spans="1:10">
       <c r="A822" s="2">
         <v>35185</v>
       </c>
       <c r="B822">
-        <v>-0.005623775407948006</v>
+        <v>-0.008294517647644994</v>
       </c>
       <c r="C822">
         <v>0.04436713416166649</v>
@@ -10102,13 +10672,16 @@
       <c r="I822">
         <v>0.01343144848954303</v>
       </c>
-    </row>
-    <row r="823" spans="1:9">
+      <c r="J822">
+        <v>0.002202178751317785</v>
+      </c>
+    </row>
+    <row r="823" spans="1:10">
       <c r="A823" s="2">
         <v>35216</v>
       </c>
       <c r="B823">
-        <v>-0.002030594287261489</v>
+        <v>-0.001745617119606191</v>
       </c>
       <c r="C823">
         <v>-0.008817849265926769</v>
@@ -10125,13 +10698,16 @@
       <c r="I823">
         <v>0.02285338673433523</v>
       </c>
-    </row>
-    <row r="824" spans="1:9">
+      <c r="J823">
+        <v>0.006007620561490512</v>
+      </c>
+    </row>
+    <row r="824" spans="1:10">
       <c r="A824" s="2">
         <v>35246</v>
       </c>
       <c r="B824">
-        <v>0.01342919153553979</v>
+        <v>0.01466869629760081</v>
       </c>
       <c r="C824">
         <v>-0.005623384647515883</v>
@@ -10148,13 +10724,16 @@
       <c r="I824">
         <v>0.002256695361071204</v>
       </c>
-    </row>
-    <row r="825" spans="1:9">
+      <c r="J824">
+        <v>0.008272144251324498</v>
+      </c>
+    </row>
+    <row r="825" spans="1:10">
       <c r="A825" s="2">
         <v>35277</v>
       </c>
       <c r="B825">
-        <v>0.002736507086660955</v>
+        <v>0.001934164031988095</v>
       </c>
       <c r="C825">
         <v>-0.01884974463273681</v>
@@ -10171,13 +10750,16 @@
       <c r="I825">
         <v>-0.04574802797369626</v>
       </c>
-    </row>
-    <row r="826" spans="1:9">
+      <c r="J825">
+        <v>0.004655235988200612</v>
+      </c>
+    </row>
+    <row r="826" spans="1:10">
       <c r="A826" s="2">
         <v>35308</v>
       </c>
       <c r="B826">
-        <v>-0.001675985939516234</v>
+        <v>-0.003081263689349245</v>
       </c>
       <c r="C826">
         <v>0.04409840437630286</v>
@@ -10194,13 +10776,16 @@
       <c r="I826">
         <v>0.01881396984139383</v>
       </c>
-    </row>
-    <row r="827" spans="1:9">
+      <c r="J826">
+        <v>0.01080423911547457</v>
+      </c>
+    </row>
+    <row r="827" spans="1:10">
       <c r="A827" s="2">
         <v>35338</v>
       </c>
       <c r="B827">
-        <v>0.01742683108007737</v>
+        <v>0.02120106253568688</v>
       </c>
       <c r="C827">
         <v>0.0006629254661623118</v>
@@ -10217,13 +10802,16 @@
       <c r="I827">
         <v>0.0541726100093558</v>
       </c>
-    </row>
-    <row r="828" spans="1:9">
+      <c r="J827">
+        <v>0.02410076024055363</v>
+      </c>
+    </row>
+    <row r="828" spans="1:10">
       <c r="A828" s="2">
         <v>35369</v>
       </c>
       <c r="B828">
-        <v>0.02215148284975821</v>
+        <v>0.02730035249787277</v>
       </c>
       <c r="C828">
         <v>-0.0181449530240877</v>
@@ -10240,13 +10828,16 @@
       <c r="I828">
         <v>0.02613085798256987</v>
       </c>
-    </row>
-    <row r="829" spans="1:9">
+      <c r="J828">
+        <v>0.007689409887650545</v>
+      </c>
+    </row>
+    <row r="829" spans="1:10">
       <c r="A829" s="2">
         <v>35399</v>
       </c>
       <c r="B829">
-        <v>0.01712857142857138</v>
+        <v>0.02136873491409919</v>
       </c>
       <c r="C829">
         <v>0.05151157604050471</v>
@@ -10263,13 +10854,16 @@
       <c r="I829">
         <v>0.07337615381343321</v>
       </c>
-    </row>
-    <row r="830" spans="1:9">
+      <c r="J829">
+        <v>0.01972555746140636</v>
+      </c>
+    </row>
+    <row r="830" spans="1:10">
       <c r="A830" s="2">
         <v>35430</v>
       </c>
       <c r="B830">
-        <v>-0.009297883397238693</v>
+        <v>-0.01380876254025631</v>
       </c>
       <c r="C830">
         <v>0.0091852209563279</v>
@@ -10286,13 +10880,16 @@
       <c r="I830">
         <v>-0.021505376344086</v>
       </c>
-    </row>
-    <row r="831" spans="1:9">
+      <c r="J830">
+        <v>0.007159647193288876</v>
+      </c>
+    </row>
+    <row r="831" spans="1:10">
       <c r="A831" s="2">
         <v>35461</v>
       </c>
       <c r="B831">
-        <v>0.003062222663283043</v>
+        <v>0.001409608833548681</v>
       </c>
       <c r="C831">
         <v>0.002026315056348427</v>
@@ -10309,13 +10906,16 @@
       <c r="I831">
         <v>0.06131706131706127</v>
       </c>
-    </row>
-    <row r="832" spans="1:9">
+      <c r="J831">
+        <v>0.009763826734899173</v>
+      </c>
+    </row>
+    <row r="832" spans="1:10">
       <c r="A832" s="2">
         <v>35489</v>
       </c>
       <c r="B832">
-        <v>0.002487527030655912</v>
+        <v>0.004187683284457622</v>
       </c>
       <c r="C832">
         <v>0.006540111127919745</v>
@@ -10332,13 +10932,16 @@
       <c r="I832">
         <v>0.005927546555408725</v>
       </c>
-    </row>
-    <row r="833" spans="1:9">
+      <c r="J832">
+        <v>0.01653979092007885</v>
+      </c>
+    </row>
+    <row r="833" spans="1:10">
       <c r="A833" s="2">
         <v>35520</v>
       </c>
       <c r="B833">
-        <v>-0.01108150403925057</v>
+        <v>-0.01557115656429975</v>
       </c>
       <c r="C833">
         <v>0.01635615189700657</v>
@@ -10355,13 +10958,16 @@
       <c r="I833">
         <v>-0.04261399559950441</v>
       </c>
-    </row>
-    <row r="834" spans="1:9">
+      <c r="J833">
+        <v>-0.01489392769978515</v>
+      </c>
+    </row>
+    <row r="834" spans="1:10">
       <c r="A834" s="2">
         <v>35550</v>
       </c>
       <c r="B834">
-        <v>0.01496941961421672</v>
+        <v>0.01515295346132861</v>
       </c>
       <c r="C834">
         <v>0.00353064555579885</v>
@@ -10378,13 +10984,16 @@
       <c r="I834">
         <v>0.05840553677092153</v>
       </c>
-    </row>
-    <row r="835" spans="1:9">
+      <c r="J834">
+        <v>0.01054526204340922</v>
+      </c>
+    </row>
+    <row r="835" spans="1:10">
       <c r="A835" s="2">
         <v>35581</v>
       </c>
       <c r="B835">
-        <v>0.00945317657634881</v>
+        <v>0.01132657712943153</v>
       </c>
       <c r="C835">
         <v>0.01042882187686933</v>
@@ -10401,13 +11010,16 @@
       <c r="I835">
         <v>0.05857688371976932</v>
       </c>
-    </row>
-    <row r="836" spans="1:9">
+      <c r="J835">
+        <v>0.02139429625128342</v>
+      </c>
+    </row>
+    <row r="836" spans="1:10">
       <c r="A836" s="2">
         <v>35611</v>
       </c>
       <c r="B836">
-        <v>0.01186931233128341</v>
+        <v>0.01415857605177995</v>
       </c>
       <c r="C836">
         <v>-0.06147619813394123</v>
@@ -10424,13 +11036,16 @@
       <c r="I836">
         <v>0.04345263356438922</v>
       </c>
-    </row>
-    <row r="837" spans="1:9">
+      <c r="J836">
+        <v>0.01386837354341042</v>
+      </c>
+    </row>
+    <row r="837" spans="1:10">
       <c r="A837" s="2">
         <v>35642</v>
       </c>
       <c r="B837">
-        <v>0.02696681747548779</v>
+        <v>0.03659467775941638</v>
       </c>
       <c r="C837">
         <v>0.02797147584770321</v>
@@ -10447,13 +11062,16 @@
       <c r="I837">
         <v>0.07812323474252647</v>
       </c>
-    </row>
-    <row r="838" spans="1:9">
+      <c r="J837">
+        <v>0.02745851881829209</v>
+      </c>
+    </row>
+    <row r="838" spans="1:10">
       <c r="A838" s="2">
         <v>35673</v>
       </c>
       <c r="B838">
-        <v>-0.008529726834493823</v>
+        <v>-0.01476538106337122</v>
       </c>
       <c r="C838">
         <v>-0.005154133765622571</v>
@@ -10470,13 +11088,16 @@
       <c r="I838">
         <v>-0.05744584979408773</v>
       </c>
-    </row>
-    <row r="839" spans="1:9">
+      <c r="J838">
+        <v>-0.002264804931366493</v>
+      </c>
+    </row>
+    <row r="839" spans="1:10">
       <c r="A839" s="2">
         <v>35703</v>
       </c>
       <c r="B839">
-        <v>0.01474818686438972</v>
+        <v>0.01749746130583718</v>
       </c>
       <c r="C839">
         <v>0.006669875259123881</v>
@@ -10493,13 +11114,16 @@
       <c r="I839">
         <v>0.05315352374175908</v>
       </c>
-    </row>
-    <row r="840" spans="1:9">
+      <c r="J839">
+        <v>0.01981761478030863</v>
+      </c>
+    </row>
+    <row r="840" spans="1:10">
       <c r="A840" s="2">
         <v>35734</v>
       </c>
       <c r="B840">
-        <v>0.01450722033672713</v>
+        <v>0.01267807986312941</v>
       </c>
       <c r="C840">
         <v>-0.0002700530723636074</v>
@@ -10516,13 +11140,16 @@
       <c r="I840">
         <v>-0.03447766235959793</v>
       </c>
-    </row>
-    <row r="841" spans="1:9">
+      <c r="J840">
+        <v>0.0008903340688266592</v>
+      </c>
+    </row>
+    <row r="841" spans="1:10">
       <c r="A841" s="2">
         <v>35764</v>
       </c>
       <c r="B841">
-        <v>0.004604788455231157</v>
+        <v>0.005642375212536743</v>
       </c>
       <c r="C841">
         <v>-0.04354823177628664</v>
@@ -10539,13 +11166,16 @@
       <c r="I841">
         <v>0.04458682294286143</v>
       </c>
-    </row>
-    <row r="842" spans="1:9">
+      <c r="J841">
+        <v>0.009552908415841443</v>
+      </c>
+    </row>
+    <row r="842" spans="1:10">
       <c r="A842" s="2">
         <v>35795</v>
       </c>
       <c r="B842">
-        <v>0.01006842875052238</v>
+        <v>0.01059682526007433</v>
       </c>
       <c r="C842">
         <v>-0.04450201025262979</v>
@@ -10562,13 +11192,16 @@
       <c r="I842">
         <v>0.01573163073058392</v>
       </c>
-    </row>
-    <row r="843" spans="1:9">
+      <c r="J842">
+        <v>0.008772937976477824</v>
+      </c>
+    </row>
+    <row r="843" spans="1:10">
       <c r="A843" s="2">
         <v>35826</v>
       </c>
       <c r="B843">
-        <v>0.01283824841299586</v>
+        <v>0.01186036103237353</v>
       </c>
       <c r="C843">
         <v>-0.0005161470072403418</v>
@@ -10585,13 +11218,16 @@
       <c r="I843">
         <v>0.01015013962882438</v>
       </c>
-    </row>
-    <row r="844" spans="1:9">
+      <c r="J843">
+        <v>0.01800091143855398</v>
+      </c>
+    </row>
+    <row r="844" spans="1:10">
       <c r="A844" s="2">
         <v>35854</v>
       </c>
       <c r="B844">
-        <v>-0.0007531273934133775</v>
+        <v>-0.0003264704333630908</v>
       </c>
       <c r="C844">
         <v>-0.04679082034705129</v>
@@ -10608,13 +11244,16 @@
       <c r="I844">
         <v>0.0704492593952748</v>
       </c>
-    </row>
-    <row r="845" spans="1:9">
+      <c r="J844">
+        <v>0.005856897709467956</v>
+      </c>
+    </row>
+    <row r="845" spans="1:10">
       <c r="A845" s="2">
         <v>35885</v>
       </c>
       <c r="B845">
-        <v>0.003436338319643406</v>
+        <v>0.003697694998103795</v>
       </c>
       <c r="C845">
         <v>-0.001617790825082732</v>
@@ -10631,13 +11270,16 @@
       <c r="I845">
         <v>0.04994568014180345</v>
       </c>
-    </row>
-    <row r="846" spans="1:9">
+      <c r="J845">
+        <v>0.009383228869191296</v>
+      </c>
+    </row>
+    <row r="846" spans="1:10">
       <c r="A846" s="2">
         <v>35915</v>
       </c>
       <c r="B846">
-        <v>0.005219605346912903</v>
+        <v>0.006318551561270036</v>
       </c>
       <c r="C846">
         <v>-0.01720584963212124</v>
@@ -10654,13 +11296,16 @@
       <c r="I846">
         <v>0.009076469253460395</v>
       </c>
-    </row>
-    <row r="847" spans="1:9">
+      <c r="J846">
+        <v>0.0039498824221047</v>
+      </c>
+    </row>
+    <row r="847" spans="1:10">
       <c r="A847" s="2">
         <v>35946</v>
       </c>
       <c r="B847">
-        <v>0.009485815602836789</v>
+        <v>0.0118693743024918</v>
       </c>
       <c r="C847">
         <v>-0.05312590152784502</v>
@@ -10677,13 +11322,16 @@
       <c r="I847">
         <v>-0.0188261749494042</v>
       </c>
-    </row>
-    <row r="848" spans="1:9">
+      <c r="J847">
+        <v>0.003476860577890761</v>
+      </c>
+    </row>
+    <row r="848" spans="1:10">
       <c r="A848" s="2">
         <v>35976</v>
       </c>
       <c r="B848">
-        <v>0.008480849088559728</v>
+        <v>0.007390609699531092</v>
       </c>
       <c r="C848">
         <v>-0.02583180323238032</v>
@@ -10700,13 +11348,16 @@
       <c r="I848">
         <v>0.03943822078803105</v>
       </c>
-    </row>
-    <row r="849" spans="1:9">
+      <c r="J848">
+        <v>0.003592464941554185</v>
+      </c>
+    </row>
+    <row r="849" spans="1:10">
       <c r="A849" s="2">
         <v>36007</v>
       </c>
       <c r="B849">
-        <v>0.002127262548982989</v>
+        <v>-0.0009413498137764709</v>
       </c>
       <c r="C849">
         <v>-0.06428856221164747</v>
@@ -10723,13 +11374,16 @@
       <c r="I849">
         <v>-0.01161539547026025</v>
       </c>
-    </row>
-    <row r="850" spans="1:9">
+      <c r="J849">
+        <v>0.005687393247810535</v>
+      </c>
+    </row>
+    <row r="850" spans="1:10">
       <c r="A850" s="2">
         <v>36038</v>
       </c>
       <c r="B850">
-        <v>0.01627439296886646</v>
+        <v>0.00468045882834911</v>
       </c>
       <c r="C850">
         <v>-0.06736857483423486</v>
@@ -10746,13 +11400,16 @@
       <c r="I850">
         <v>-0.1457967108961604</v>
       </c>
-    </row>
-    <row r="851" spans="1:9">
+      <c r="J850">
+        <v>-0.05517914250094869</v>
+      </c>
+    </row>
+    <row r="851" spans="1:10">
       <c r="A851" s="2">
         <v>36068</v>
       </c>
       <c r="B851">
-        <v>0.02341602843636648</v>
+        <v>0.03239650549965845</v>
       </c>
       <c r="C851">
         <v>0.07333739187603183</v>
@@ -10769,13 +11426,16 @@
       <c r="I851">
         <v>0.06239553735584158</v>
       </c>
-    </row>
-    <row r="852" spans="1:9">
+      <c r="J851">
+        <v>0.004513032337024159</v>
+      </c>
+    </row>
+    <row r="852" spans="1:10">
       <c r="A852" s="2">
         <v>36099</v>
       </c>
       <c r="B852">
-        <v>-0.005275470256851045</v>
+        <v>-0.01542335225870151</v>
       </c>
       <c r="C852">
         <v>-0.03305375768685626</v>
@@ -10792,13 +11452,16 @@
       <c r="I852">
         <v>0.08029419573062224</v>
       </c>
-    </row>
-    <row r="853" spans="1:9">
+      <c r="J852">
+        <v>-0.02048392316625103</v>
+      </c>
+    </row>
+    <row r="853" spans="1:10">
       <c r="A853" s="2">
         <v>36129</v>
       </c>
       <c r="B853">
-        <v>0.005663411005255581</v>
+        <v>0.01884408251682324</v>
       </c>
       <c r="C853">
         <v>-0.07560744137118802</v>
@@ -10815,13 +11478,16 @@
       <c r="I853">
         <v>0.05912603420499329</v>
       </c>
-    </row>
-    <row r="854" spans="1:9">
+      <c r="J853">
+        <v>0.04149417915379083</v>
+      </c>
+    </row>
+    <row r="854" spans="1:10">
       <c r="A854" s="2">
         <v>36160</v>
       </c>
       <c r="B854">
-        <v>0.00300665759896912</v>
+        <v>0.002903771950547362</v>
       </c>
       <c r="C854">
         <v>-0.03762650814030866</v>
@@ -10838,13 +11504,16 @@
       <c r="I854">
         <v>0.05637530830246718</v>
       </c>
-    </row>
-    <row r="855" spans="1:9">
+      <c r="J854">
+        <v>0.001100992759573094</v>
+      </c>
+    </row>
+    <row r="855" spans="1:10">
       <c r="A855" s="2">
         <v>36191</v>
       </c>
       <c r="B855">
-        <v>0.007137249304118187</v>
+        <v>0.009883498385466316</v>
       </c>
       <c r="C855">
         <v>-0.00788918636499758</v>
@@ -10861,13 +11530,16 @@
       <c r="I855">
         <v>0.04100941239637823</v>
       </c>
-    </row>
-    <row r="856" spans="1:9">
+      <c r="J855">
+        <v>0.0148377355676923</v>
+      </c>
+    </row>
+    <row r="856" spans="1:10">
       <c r="A856" s="2">
         <v>36219</v>
       </c>
       <c r="B856">
-        <v>-0.01745683036874301</v>
+        <v>-0.02373316228351519</v>
       </c>
       <c r="C856">
         <v>-0.03818942879092724</v>
@@ -10884,13 +11556,16 @@
       <c r="I856">
         <v>-0.03228251695789452</v>
       </c>
-    </row>
-    <row r="857" spans="1:9">
+      <c r="J856">
+        <v>-0.005877706959572238</v>
+      </c>
+    </row>
+    <row r="857" spans="1:10">
       <c r="A857" s="2">
         <v>36250</v>
       </c>
       <c r="B857">
-        <v>0.005541664663172519</v>
+        <v>0.007078007406522424</v>
       </c>
       <c r="C857">
         <v>0.0913442823449544</v>
@@ -10907,13 +11582,16 @@
       <c r="I857">
         <v>0.03879418248770516</v>
       </c>
-    </row>
-    <row r="858" spans="1:9">
+      <c r="J857">
+        <v>0.009533839587605897</v>
+      </c>
+    </row>
+    <row r="858" spans="1:10">
       <c r="A858" s="2">
         <v>36280</v>
       </c>
       <c r="B858">
-        <v>0.00316799961744918</v>
+        <v>0.00292597095776137</v>
       </c>
       <c r="C858">
         <v>0.03671444757388675</v>
@@ -10930,13 +11608,16 @@
       <c r="I858">
         <v>0.0379439819025631</v>
       </c>
-    </row>
-    <row r="859" spans="1:9">
+      <c r="J858">
+        <v>0.01938176028111793</v>
+      </c>
+    </row>
+    <row r="859" spans="1:10">
       <c r="A859" s="2">
         <v>36311</v>
       </c>
       <c r="B859">
-        <v>-0.008758967514360005</v>
+        <v>-0.01337486078120231</v>
       </c>
       <c r="C859">
         <v>-0.06475089080244234</v>
@@ -10953,13 +11634,16 @@
       <c r="I859">
         <v>-0.02497041597387628</v>
       </c>
-    </row>
-    <row r="860" spans="1:9">
+      <c r="J859">
+        <v>-0.01353729038744655</v>
+      </c>
+    </row>
+    <row r="860" spans="1:10">
       <c r="A860" s="2">
         <v>36341</v>
       </c>
       <c r="B860">
-        <v>-0.003185900287332122</v>
+        <v>-0.005214681025354162</v>
       </c>
       <c r="C860">
         <v>0.05143943868510559</v>
@@ -10976,13 +11660,16 @@
       <c r="I860">
         <v>0.05443833343575255</v>
       </c>
-    </row>
-    <row r="861" spans="1:9">
+      <c r="J860">
+        <v>-0.002129440885265121</v>
+      </c>
+    </row>
+    <row r="861" spans="1:10">
       <c r="A861" s="2">
         <v>36372</v>
       </c>
       <c r="B861">
-        <v>-0.00425742335431889</v>
+        <v>-0.005533239606346663</v>
       </c>
       <c r="C861">
         <v>0.01366232684498914</v>
@@ -10999,13 +11686,16 @@
       <c r="I861">
         <v>-0.03204609859329355</v>
       </c>
-    </row>
-    <row r="862" spans="1:9">
+      <c r="J861">
+        <v>0.004012621518594939</v>
+      </c>
+    </row>
+    <row r="862" spans="1:10">
       <c r="A862" s="2">
         <v>36403</v>
       </c>
       <c r="B862">
-        <v>-0.0005087147684741389</v>
+        <v>-0.002433630552666322</v>
       </c>
       <c r="C862">
         <v>0.05354845875747505</v>
@@ -11022,13 +11712,16 @@
       <c r="I862">
         <v>-0.00625413932205432</v>
       </c>
-    </row>
-    <row r="863" spans="1:9">
+      <c r="J862">
+        <v>-0.0110451069086418</v>
+      </c>
+    </row>
+    <row r="863" spans="1:10">
       <c r="A863" s="2">
         <v>36433</v>
       </c>
       <c r="B863">
-        <v>0.01160944752117676</v>
+        <v>0.01086164311454829</v>
       </c>
       <c r="C863">
         <v>0.04788269996848471</v>
@@ -11045,13 +11738,16 @@
       <c r="I863">
         <v>-0.02855173771783015</v>
       </c>
-    </row>
-    <row r="864" spans="1:9">
+      <c r="J863">
+        <v>-0.007200720072007116</v>
+      </c>
+    </row>
+    <row r="864" spans="1:10">
       <c r="A864" s="2">
         <v>36464</v>
       </c>
       <c r="B864">
-        <v>0.003689639062256722</v>
+        <v>0.004596388980683264</v>
       </c>
       <c r="C864">
         <v>-0.04340121512151207</v>
@@ -11068,13 +11764,16 @@
       <c r="I864">
         <v>0.06253946722174142</v>
       </c>
-    </row>
-    <row r="865" spans="1:9">
+      <c r="J864">
+        <v>-0.006642366828871205</v>
+      </c>
+    </row>
+    <row r="865" spans="1:10">
       <c r="A865" s="2">
         <v>36494</v>
       </c>
       <c r="B865">
-        <v>-7.161186369886163e-05</v>
+        <v>0.001066586921850021</v>
       </c>
       <c r="C865">
         <v>0.01882985725497988</v>
@@ -11091,13 +11790,16 @@
       <c r="I865">
         <v>0.01906187405075821</v>
       </c>
-    </row>
-    <row r="866" spans="1:9">
+      <c r="J865">
+        <v>0.01175309193860841</v>
+      </c>
+    </row>
+    <row r="866" spans="1:10">
       <c r="A866" s="2">
         <v>36525</v>
       </c>
       <c r="B866">
-        <v>-0.004822210816552985</v>
+        <v>-0.005297380186603196</v>
       </c>
       <c r="C866">
         <v>0.02425173496254796</v>
@@ -11114,13 +11816,16 @@
       <c r="I866">
         <v>0.05784392077240419</v>
       </c>
-    </row>
-    <row r="867" spans="1:9">
+      <c r="J866">
+        <v>0.01124836613339686</v>
+      </c>
+    </row>
+    <row r="867" spans="1:10">
       <c r="A867" s="2">
         <v>36556</v>
       </c>
       <c r="B867">
-        <v>-0.003274362818590726</v>
+        <v>-0.003523699884879217</v>
       </c>
       <c r="C867">
         <v>0.04922014192636648</v>
@@ -11137,13 +11842,16 @@
       <c r="I867">
         <v>-0.05090352220520666</v>
       </c>
-    </row>
-    <row r="868" spans="1:9">
+      <c r="J867">
+        <v>-0.00431458219552161</v>
+      </c>
+    </row>
+    <row r="868" spans="1:10">
       <c r="A868" s="2">
         <v>36585</v>
       </c>
       <c r="B868">
-        <v>0.01209357175519243</v>
+        <v>0.00927237475261955</v>
       </c>
       <c r="C868">
         <v>0.01289367648987905</v>
@@ -11160,13 +11868,16 @@
       <c r="I868">
         <v>-0.02010814221992741</v>
       </c>
-    </row>
-    <row r="869" spans="1:9">
+      <c r="J868">
+        <v>0.001938090797725556</v>
+      </c>
+    </row>
+    <row r="869" spans="1:10">
       <c r="A869" s="2">
         <v>36616</v>
       </c>
       <c r="B869">
-        <v>0.01317369541179669</v>
+        <v>0.00852029542332744</v>
       </c>
       <c r="C869">
         <v>0.004696970933030897</v>
@@ -11183,13 +11894,16 @@
       <c r="I869">
         <v>0.09671989578606865</v>
       </c>
-    </row>
-    <row r="870" spans="1:9">
+      <c r="J869">
+        <v>-0.02102228142849316</v>
+      </c>
+    </row>
+    <row r="870" spans="1:10">
       <c r="A870" s="2">
         <v>36646</v>
       </c>
       <c r="B870">
-        <v>-0.002863345655107596</v>
+        <v>-0.008783877144154295</v>
       </c>
       <c r="C870">
         <v>-0.01666703882716658</v>
@@ -11206,13 +11920,16 @@
       <c r="I870">
         <v>-0.03079582004297388</v>
       </c>
-    </row>
-    <row r="871" spans="1:9">
+      <c r="J870">
+        <v>0.001603071933192979</v>
+      </c>
+    </row>
+    <row r="871" spans="1:10">
       <c r="A871" s="2">
         <v>36677</v>
       </c>
       <c r="B871">
-        <v>-0.000458980122630015</v>
+        <v>-0.003723912697148335</v>
       </c>
       <c r="C871">
         <v>0.0615276156384541</v>
@@ -11229,13 +11946,16 @@
       <c r="I871">
         <v>-0.02191499762467053</v>
       </c>
-    </row>
-    <row r="872" spans="1:9">
+      <c r="J871">
+        <v>-0.01025440604470251</v>
+      </c>
+    </row>
+    <row r="872" spans="1:10">
       <c r="A872" s="2">
         <v>36707</v>
       </c>
       <c r="B872">
-        <v>0.02080487919747553</v>
+        <v>0.02511543304883168</v>
       </c>
       <c r="C872">
         <v>0.01868097461557761</v>
@@ -11252,13 +11972,16 @@
       <c r="I872">
         <v>0.02393354920456137</v>
       </c>
-    </row>
-    <row r="873" spans="1:9">
+      <c r="J872">
+        <v>0.02036403294347688</v>
+      </c>
+    </row>
+    <row r="873" spans="1:10">
       <c r="A873" s="2">
         <v>36738</v>
       </c>
       <c r="B873">
-        <v>0.009077382668773559</v>
+        <v>0.01212818437960062</v>
       </c>
       <c r="C873">
         <v>-0.05497509635962039</v>
@@ -11275,13 +11998,16 @@
       <c r="I873">
         <v>-0.01634126220266741</v>
       </c>
-    </row>
-    <row r="874" spans="1:9">
+      <c r="J873">
+        <v>0.007629226941859413</v>
+      </c>
+    </row>
+    <row r="874" spans="1:10">
       <c r="A874" s="2">
         <v>36769</v>
       </c>
       <c r="B874">
-        <v>0.01449374757103983</v>
+        <v>0.0125126426816935</v>
       </c>
       <c r="C874">
         <v>0.09257366339273809</v>
@@ -11298,13 +12024,16 @@
       <c r="I874">
         <v>0.06069903482594019</v>
       </c>
-    </row>
-    <row r="875" spans="1:9">
+      <c r="J874">
+        <v>0.006839920261892063</v>
+      </c>
+    </row>
+    <row r="875" spans="1:10">
       <c r="A875" s="2">
         <v>36799</v>
       </c>
       <c r="B875">
-        <v>0.006287040584086467</v>
+        <v>0.005479764826759492</v>
       </c>
       <c r="C875">
         <v>-0.01104376830458842</v>
@@ -11321,13 +12050,16 @@
       <c r="I875">
         <v>-0.05348294765695016</v>
       </c>
-    </row>
-    <row r="876" spans="1:9">
+      <c r="J875">
+        <v>-0.008737035220605538</v>
+      </c>
+    </row>
+    <row r="876" spans="1:10">
       <c r="A876" s="2">
         <v>36830</v>
       </c>
       <c r="B876">
-        <v>0.006617251881046116</v>
+        <v>0.0002460024600245969</v>
       </c>
       <c r="C876">
         <v>-0.029489132974994</v>
@@ -11344,13 +12076,16 @@
       <c r="I876">
         <v>-0.00494949565265812</v>
       </c>
-    </row>
-    <row r="877" spans="1:9">
+      <c r="J876">
+        <v>-0.03203107820860518</v>
+      </c>
+    </row>
+    <row r="877" spans="1:10">
       <c r="A877" s="2">
         <v>36860</v>
       </c>
       <c r="B877">
-        <v>0.01635095603038828</v>
+        <v>0.01187142911196037</v>
       </c>
       <c r="C877">
         <v>0.07483885633266674</v>
@@ -11367,13 +12102,16 @@
       <c r="I877">
         <v>-0.0800685602350637</v>
       </c>
-    </row>
-    <row r="878" spans="1:9">
+      <c r="J877">
+        <v>-0.03960321066182038</v>
+      </c>
+    </row>
+    <row r="878" spans="1:10">
       <c r="A878" s="2">
         <v>36891</v>
       </c>
       <c r="B878">
-        <v>0.0185503376270888</v>
+        <v>0.01864056613474685</v>
       </c>
       <c r="C878">
         <v>0.0270919847800255</v>
@@ -11390,13 +12128,16 @@
       <c r="I878">
         <v>0.004053386060306474</v>
       </c>
-    </row>
-    <row r="879" spans="1:9">
+      <c r="J878">
+        <v>0.01931719624694472</v>
+      </c>
+    </row>
+    <row r="879" spans="1:10">
       <c r="A879" s="2">
         <v>36922</v>
       </c>
       <c r="B879">
-        <v>0.0163536339020931</v>
+        <v>0.02862387005001588</v>
       </c>
       <c r="C879">
         <v>-0.02825934838334787</v>
@@ -11413,13 +12154,16 @@
       <c r="I879">
         <v>0.03463659223801008</v>
       </c>
-    </row>
-    <row r="880" spans="1:9">
+      <c r="J879">
+        <v>0.07491491336633671</v>
+      </c>
+    </row>
+    <row r="880" spans="1:10">
       <c r="A880" s="2">
         <v>36950</v>
       </c>
       <c r="B880">
-        <v>0.008711280262184262</v>
+        <v>0.008449020377574001</v>
       </c>
       <c r="C880">
         <v>-0.008043133751442166</v>
@@ -11436,13 +12180,16 @@
       <c r="I880">
         <v>-0.09229068601254742</v>
       </c>
-    </row>
-    <row r="881" spans="1:9">
+      <c r="J880">
+        <v>0.0133127046378585</v>
+      </c>
+    </row>
+    <row r="881" spans="1:10">
       <c r="A881" s="2">
         <v>36981</v>
       </c>
       <c r="B881">
-        <v>0.005020227639549679</v>
+        <v>0.006139908520671478</v>
       </c>
       <c r="C881">
         <v>-0.0462261051225259</v>
@@ -11459,13 +12206,16 @@
       <c r="I881">
         <v>-0.06420471958320573</v>
       </c>
-    </row>
-    <row r="882" spans="1:9">
+      <c r="J881">
+        <v>-0.02354152611582572</v>
+      </c>
+    </row>
+    <row r="882" spans="1:10">
       <c r="A882" s="2">
         <v>37011</v>
       </c>
       <c r="B882">
-        <v>-0.004150459366168424</v>
+        <v>-0.003271048582106029</v>
       </c>
       <c r="C882">
         <v>0.03166694662798442</v>
@@ -11482,13 +12232,16 @@
       <c r="I882">
         <v>0.07681435453707142</v>
       </c>
-    </row>
-    <row r="883" spans="1:9">
+      <c r="J882">
+        <v>-0.0124545454545455</v>
+      </c>
+    </row>
+    <row r="883" spans="1:10">
       <c r="A883" s="2">
         <v>37042</v>
       </c>
       <c r="B883">
-        <v>0.006031729409916808</v>
+        <v>0.008874930526761471</v>
       </c>
       <c r="C883">
         <v>-0.02407999374473935</v>
@@ -11505,13 +12258,16 @@
       <c r="I883">
         <v>0.005090198965953308</v>
       </c>
-    </row>
-    <row r="884" spans="1:9">
+      <c r="J883">
+        <v>0.01800607566970447</v>
+      </c>
+    </row>
+    <row r="884" spans="1:10">
       <c r="A884" s="2">
         <v>37072</v>
       </c>
       <c r="B884">
-        <v>0.003778455517273738</v>
+        <v>0.005001792600495047</v>
       </c>
       <c r="C884">
         <v>-0.04260595640715314</v>
@@ -11528,13 +12284,16 @@
       <c r="I884">
         <v>-0.02500358331608021</v>
       </c>
-    </row>
-    <row r="885" spans="1:9">
+      <c r="J884">
+        <v>-0.02805056697954533</v>
+      </c>
+    </row>
+    <row r="885" spans="1:10">
       <c r="A885" s="2">
         <v>37103</v>
       </c>
       <c r="B885">
-        <v>0.02235725988759141</v>
+        <v>0.02710321845281083</v>
       </c>
       <c r="C885">
         <v>0.009837482659861507</v>
@@ -11551,13 +12310,16 @@
       <c r="I885">
         <v>-0.010772447362833</v>
       </c>
-    </row>
-    <row r="886" spans="1:9">
+      <c r="J885">
+        <v>0.01471846972572677</v>
+      </c>
+    </row>
+    <row r="886" spans="1:10">
       <c r="A886" s="2">
         <v>37134</v>
       </c>
       <c r="B886">
-        <v>0.01145146566588906</v>
+        <v>0.01298646290429151</v>
       </c>
       <c r="C886">
         <v>-0.003365509764560626</v>
@@ -11574,13 +12336,16 @@
       <c r="I886">
         <v>-0.06410838569057908</v>
       </c>
-    </row>
-    <row r="887" spans="1:9">
+      <c r="J886">
+        <v>0.01179102561751599</v>
+      </c>
+    </row>
+    <row r="887" spans="1:10">
       <c r="A887" s="2">
         <v>37164</v>
       </c>
       <c r="B887">
-        <v>0.01165274421123352</v>
+        <v>-0.00335343162260926</v>
       </c>
       <c r="C887">
         <v>-0.0696270079540463</v>
@@ -11597,13 +12362,16 @@
       <c r="I887">
         <v>-0.08172338961520131</v>
       </c>
-    </row>
-    <row r="888" spans="1:9">
+      <c r="J887">
+        <v>-0.06720313179643334</v>
+      </c>
+    </row>
+    <row r="888" spans="1:10">
       <c r="A888" s="2">
         <v>37195</v>
       </c>
       <c r="B888">
-        <v>0.02092564506696015</v>
+        <v>0.02461024685764146</v>
       </c>
       <c r="C888">
         <v>-0.04941797194951802</v>
@@ -11620,13 +12388,16 @@
       <c r="I888">
         <v>0.01809902588045409</v>
       </c>
-    </row>
-    <row r="889" spans="1:9">
+      <c r="J888">
+        <v>0.02473381518613516</v>
+      </c>
+    </row>
+    <row r="889" spans="1:10">
       <c r="A889" s="2">
         <v>37225</v>
       </c>
       <c r="B889">
-        <v>-0.01378747863911767</v>
+        <v>-0.008451327071271164</v>
       </c>
       <c r="C889">
         <v>0.006099078501577981</v>
@@ -11643,13 +12414,16 @@
       <c r="I889">
         <v>0.07517597992036085</v>
       </c>
-    </row>
-    <row r="890" spans="1:9">
+      <c r="J889">
+        <v>0.0364801577520335</v>
+      </c>
+    </row>
+    <row r="890" spans="1:10">
       <c r="A890" s="2">
         <v>37256</v>
       </c>
       <c r="B890">
-        <v>-0.006350175245146361</v>
+        <v>-0.007234945779202029</v>
       </c>
       <c r="C890">
         <v>-0.0211656964439827</v>
@@ -11666,13 +12440,16 @@
       <c r="I890">
         <v>0.007573829479134542</v>
       </c>
-    </row>
-    <row r="891" spans="1:9">
+      <c r="J890">
+        <v>-0.004079392664410486</v>
+      </c>
+    </row>
+    <row r="891" spans="1:10">
       <c r="A891" s="2">
         <v>37287</v>
       </c>
       <c r="B891">
-        <v>0.008094959723364381</v>
+        <v>0.008485645117010332</v>
       </c>
       <c r="C891">
         <v>-0.008136281593516204</v>
@@ -11689,13 +12466,16 @@
       <c r="I891">
         <v>-0.0155738276078321</v>
       </c>
-    </row>
-    <row r="892" spans="1:9">
+      <c r="J891">
+        <v>0.006961537048602251</v>
+      </c>
+    </row>
+    <row r="892" spans="1:10">
       <c r="A892" s="2">
         <v>37315</v>
       </c>
       <c r="B892">
-        <v>0.009690989149237161</v>
+        <v>0.006599407703158588</v>
       </c>
       <c r="C892">
         <v>0.02453546584772326</v>
@@ -11712,13 +12492,16 @@
       <c r="I892">
         <v>-0.02076623606441341</v>
       </c>
-    </row>
-    <row r="893" spans="1:9">
+      <c r="J892">
+        <v>-0.01395450648474139</v>
+      </c>
+    </row>
+    <row r="893" spans="1:10">
       <c r="A893" s="2">
         <v>37346</v>
       </c>
       <c r="B893">
-        <v>-0.01663584152633113</v>
+        <v>-0.01857846471566837</v>
       </c>
       <c r="C893">
         <v>0.1007144467679684</v>
@@ -11735,13 +12518,16 @@
       <c r="I893">
         <v>0.03673886133022508</v>
       </c>
-    </row>
-    <row r="894" spans="1:9">
+      <c r="J893">
+        <v>0.02406763356519193</v>
+      </c>
+    </row>
+    <row r="894" spans="1:10">
       <c r="A894" s="2">
         <v>37376</v>
       </c>
       <c r="B894">
-        <v>0.01939200760237969</v>
+        <v>0.01260897157553709</v>
       </c>
       <c r="C894">
         <v>-0.001576498326100184</v>
@@ -11758,13 +12544,16 @@
       <c r="I894">
         <v>-0.06141765223681572</v>
       </c>
-    </row>
-    <row r="895" spans="1:9">
+      <c r="J894">
+        <v>0.01558971765088435</v>
+      </c>
+    </row>
+    <row r="895" spans="1:10">
       <c r="A895" s="2">
         <v>37407</v>
       </c>
       <c r="B895">
-        <v>0.008496795494270737</v>
+        <v>0.01406824666435758</v>
       </c>
       <c r="C895">
         <v>-0.01685594403343837</v>
@@ -11781,13 +12570,16 @@
       <c r="I895">
         <v>-0.009081454518441445</v>
       </c>
-    </row>
-    <row r="896" spans="1:9">
+      <c r="J895">
+        <v>-0.005158306652436995</v>
+      </c>
+    </row>
+    <row r="896" spans="1:10">
       <c r="A896" s="2">
         <v>37437</v>
       </c>
       <c r="B896">
-        <v>0.008646670839150827</v>
+        <v>9.758318966901491e-05</v>
       </c>
       <c r="C896">
         <v>0.01804003486273809</v>
@@ -11804,13 +12596,16 @@
       <c r="I896">
         <v>-0.0724647187810411</v>
       </c>
-    </row>
-    <row r="897" spans="1:9">
+      <c r="J896">
+        <v>-0.07373502592526371</v>
+      </c>
+    </row>
+    <row r="897" spans="1:10">
       <c r="A897" s="2">
         <v>37468</v>
       </c>
       <c r="B897">
-        <v>0.01206648019627132</v>
+        <v>-0.00363461913744878</v>
       </c>
       <c r="C897">
         <v>-0.006953494985344366</v>
@@ -11827,13 +12622,16 @@
       <c r="I897">
         <v>-0.07899495862842354</v>
       </c>
-    </row>
-    <row r="898" spans="1:9">
+      <c r="J897">
+        <v>-0.04368219897309178</v>
+      </c>
+    </row>
+    <row r="898" spans="1:10">
       <c r="A898" s="2">
         <v>37499</v>
       </c>
       <c r="B898">
-        <v>0.016884084627937</v>
+        <v>0.026522601336739</v>
       </c>
       <c r="C898">
         <v>0.03799089918371923</v>
@@ -11850,13 +12648,16 @@
       <c r="I898">
         <v>0.004881419889866345</v>
       </c>
-    </row>
-    <row r="899" spans="1:9">
+      <c r="J898">
+        <v>0.02852067900611588</v>
+      </c>
+    </row>
+    <row r="899" spans="1:10">
       <c r="A899" s="2">
         <v>37529</v>
       </c>
       <c r="B899">
-        <v>0.01619560881946436</v>
+        <v>0.01907192317171091</v>
       </c>
       <c r="C899">
         <v>0.03620073152090852</v>
@@ -11873,13 +12674,16 @@
       <c r="I899">
         <v>-0.1100243431178841</v>
       </c>
-    </row>
-    <row r="900" spans="1:9">
+      <c r="J899">
+        <v>-0.0131289740167988</v>
+      </c>
+    </row>
+    <row r="900" spans="1:10">
       <c r="A900" s="2">
         <v>37560</v>
       </c>
       <c r="B900">
-        <v>-0.004554872983852598</v>
+        <v>-0.01342580312982677</v>
       </c>
       <c r="C900">
         <v>-0.01167983607775769</v>
@@ -11896,13 +12700,16 @@
       <c r="I900">
         <v>0.08644882739672255</v>
       </c>
-    </row>
-    <row r="901" spans="1:9">
+      <c r="J900">
+        <v>-0.008729890428937903</v>
+      </c>
+    </row>
+    <row r="901" spans="1:10">
       <c r="A901" s="2">
         <v>37590</v>
       </c>
       <c r="B901">
-        <v>-0.0002659233040511744</v>
+        <v>0.01563278377416677</v>
       </c>
       <c r="C901">
         <v>0.001845738523866158</v>
@@ -11919,13 +12726,16 @@
       <c r="I901">
         <v>0.05706963511560681</v>
       </c>
-    </row>
-    <row r="902" spans="1:9">
+      <c r="J901">
+        <v>0.06194832290162089</v>
+      </c>
+    </row>
+    <row r="902" spans="1:10">
       <c r="A902" s="2">
         <v>37621</v>
       </c>
       <c r="B902">
-        <v>0.02065581288695251</v>
+        <v>0.03053518319552806</v>
       </c>
       <c r="C902">
         <v>0.04778202071893944</v>
@@ -11942,13 +12752,16 @@
       <c r="I902">
         <v>-0.06033258215761861</v>
       </c>
-    </row>
-    <row r="903" spans="1:9">
+      <c r="J902">
+        <v>0.01397914462747463</v>
+      </c>
+    </row>
+    <row r="903" spans="1:10">
       <c r="A903" s="2">
         <v>37652</v>
       </c>
       <c r="B903">
-        <v>0.000853725387995663</v>
+        <v>0.004208092834909749</v>
       </c>
       <c r="C903">
         <v>0.07588532730721931</v>
@@ -11965,13 +12778,16 @@
       <c r="I903">
         <v>-0.02741469846104883</v>
       </c>
-    </row>
-    <row r="904" spans="1:9">
+      <c r="J903">
+        <v>0.03329234667262848</v>
+      </c>
+    </row>
+    <row r="904" spans="1:10">
       <c r="A904" s="2">
         <v>37680</v>
       </c>
       <c r="B904">
-        <v>0.01383651187012891</v>
+        <v>0.02054603862444604</v>
       </c>
       <c r="C904">
         <v>0.03271891770246937</v>
@@ -11988,13 +12804,16 @@
       <c r="I904">
         <v>-0.01700362276498779</v>
       </c>
-    </row>
-    <row r="905" spans="1:9">
+      <c r="J904">
+        <v>0.01233254602167211</v>
+      </c>
+    </row>
+    <row r="905" spans="1:10">
       <c r="A905" s="2">
         <v>37711</v>
       </c>
       <c r="B905">
-        <v>-0.0007705047248768304</v>
+        <v>0.0004275646507239106</v>
       </c>
       <c r="C905">
         <v>-0.07635045027251408</v>
@@ -12011,13 +12830,16 @@
       <c r="I905">
         <v>0.008357605658919409</v>
       </c>
-    </row>
-    <row r="906" spans="1:9">
+      <c r="J905">
+        <v>0.02876378078971276</v>
+      </c>
+    </row>
+    <row r="906" spans="1:10">
       <c r="A906" s="2">
         <v>37741</v>
       </c>
       <c r="B906">
-        <v>0.008251644124581237</v>
+        <v>0.01996168300051582</v>
       </c>
       <c r="C906">
         <v>-0.007169687614042131</v>
@@ -12034,13 +12856,16 @@
       <c r="I906">
         <v>0.08104411799382216</v>
       </c>
-    </row>
-    <row r="907" spans="1:9">
+      <c r="J906">
+        <v>0.05932966310030818</v>
+      </c>
+    </row>
+    <row r="907" spans="1:10">
       <c r="A907" s="2">
         <v>37772</v>
       </c>
       <c r="B907">
-        <v>0.01864500646114098</v>
+        <v>0.03240884560645574</v>
       </c>
       <c r="C907">
         <v>0.05751004587952058</v>
@@ -12057,13 +12882,16 @@
       <c r="I907">
         <v>0.05089866073376093</v>
       </c>
-    </row>
-    <row r="908" spans="1:9">
+      <c r="J907">
+        <v>0.01032865384301118</v>
+      </c>
+    </row>
+    <row r="908" spans="1:10">
       <c r="A908" s="2">
         <v>37802</v>
       </c>
       <c r="B908">
-        <v>-0.001984846131275919</v>
+        <v>-0.002288233441796961</v>
       </c>
       <c r="C908">
         <v>-0.02552993444777985</v>
@@ -12080,13 +12908,16 @@
       <c r="I908">
         <v>0.01132224286262828</v>
       </c>
-    </row>
-    <row r="909" spans="1:9">
+      <c r="J908">
+        <v>0.02876045356755785</v>
+      </c>
+    </row>
+    <row r="909" spans="1:10">
       <c r="A909" s="2">
         <v>37833</v>
       </c>
       <c r="B909">
-        <v>-0.03361925843940239</v>
+        <v>-0.04343587369720436</v>
       </c>
       <c r="C909">
         <v>0.005242348503037508</v>
@@ -12103,13 +12934,16 @@
       <c r="I909">
         <v>0.01622370446382759</v>
       </c>
-    </row>
-    <row r="910" spans="1:9">
+      <c r="J909">
+        <v>-0.01099073884809509</v>
+      </c>
+    </row>
+    <row r="910" spans="1:10">
       <c r="A910" s="2">
         <v>37864</v>
       </c>
       <c r="B910">
-        <v>0.006639226914817442</v>
+        <v>0.008314697364079748</v>
       </c>
       <c r="C910">
         <v>0.03869245017818668</v>
@@ -12126,13 +12960,16 @@
       <c r="I910">
         <v>0.01787319122295039</v>
       </c>
-    </row>
-    <row r="911" spans="1:9">
+      <c r="J910">
+        <v>0.01149443561208274</v>
+      </c>
+    </row>
+    <row r="911" spans="1:10">
       <c r="A911" s="2">
         <v>37894</v>
       </c>
       <c r="B911">
-        <v>0.02647064052194614</v>
+        <v>0.0358059613580668</v>
       </c>
       <c r="C911">
         <v>-4.962844834976998e-06</v>
@@ -12149,13 +12986,16 @@
       <c r="I911">
         <v>-0.01194432594914729</v>
       </c>
-    </row>
-    <row r="912" spans="1:9">
+      <c r="J911">
+        <v>0.02733288276252299</v>
+      </c>
+    </row>
+    <row r="912" spans="1:10">
       <c r="A912" s="2">
         <v>37925</v>
       </c>
       <c r="B912">
-        <v>-0.009326290266712833</v>
+        <v>-0.01051648729667309</v>
       </c>
       <c r="C912">
         <v>0.04692393079113111</v>
@@ -12172,13 +13012,16 @@
       <c r="I912">
         <v>0.05496149482414125</v>
       </c>
-    </row>
-    <row r="913" spans="1:9">
+      <c r="J912">
+        <v>0.02019522046449018</v>
+      </c>
+    </row>
+    <row r="913" spans="1:10">
       <c r="A913" s="2">
         <v>37955</v>
       </c>
       <c r="B913">
-        <v>0.002395042088057187</v>
+        <v>0.005079995743020316</v>
       </c>
       <c r="C913">
         <v>-0.003823946755491803</v>
@@ -12195,13 +13038,16 @@
       <c r="I913">
         <v>0.007128513100665312</v>
       </c>
-    </row>
-    <row r="914" spans="1:9">
+      <c r="J913">
+        <v>0.01516151285204392</v>
+      </c>
+    </row>
+    <row r="914" spans="1:10">
       <c r="A914" s="2">
         <v>37986</v>
       </c>
       <c r="B914">
-        <v>0.01017640852132518</v>
+        <v>0.01138633780645359</v>
       </c>
       <c r="C914">
         <v>0.07282126281260215</v>
@@ -12218,13 +13064,16 @@
       <c r="I914">
         <v>0.05076545076545069</v>
       </c>
-    </row>
-    <row r="915" spans="1:9">
+      <c r="J914">
+        <v>0.02264635929859815</v>
+      </c>
+    </row>
+    <row r="915" spans="1:10">
       <c r="A915" s="2">
         <v>38017</v>
       </c>
       <c r="B915">
-        <v>0.008045302303097301</v>
+        <v>0.01048340941133774</v>
       </c>
       <c r="C915">
         <v>0.01738097385498194</v>
@@ -12241,13 +13090,16 @@
       <c r="I915">
         <v>0.01727642276422769</v>
       </c>
-    </row>
-    <row r="916" spans="1:9">
+      <c r="J915">
+        <v>0.01908242567821339</v>
+      </c>
+    </row>
+    <row r="916" spans="1:10">
       <c r="A916" s="2">
         <v>38046</v>
       </c>
       <c r="B916">
-        <v>0.01082414194697545</v>
+        <v>0.01245372161131675</v>
       </c>
       <c r="C916">
         <v>0.06412672022973442</v>
@@ -12264,13 +13116,16 @@
       <c r="I916">
         <v>0.01220902990814499</v>
       </c>
-    </row>
-    <row r="917" spans="1:9">
+      <c r="J916">
+        <v>-0.002508965654102857</v>
+      </c>
+    </row>
+    <row r="917" spans="1:10">
       <c r="A917" s="2">
         <v>38077</v>
       </c>
       <c r="B917">
-        <v>0.007488986784141005</v>
+        <v>0.009442007381684991</v>
       </c>
       <c r="C917">
         <v>0.0299935538851499</v>
@@ -12287,13 +13142,16 @@
       <c r="I917">
         <v>-0.0163589358394326</v>
       </c>
-    </row>
-    <row r="918" spans="1:9">
+      <c r="J917">
+        <v>0.006792667329827973</v>
+      </c>
+    </row>
+    <row r="918" spans="1:10">
       <c r="A918" s="2">
         <v>38107</v>
       </c>
       <c r="B918">
-        <v>-0.02601661565369484</v>
+        <v>-0.03144029250555891</v>
       </c>
       <c r="C918">
         <v>-0.01850339306218884</v>
@@ -12310,13 +13168,16 @@
       <c r="I918">
         <v>-0.01679082941902499</v>
       </c>
-    </row>
-    <row r="919" spans="1:9">
+      <c r="J918">
+        <v>-0.00680329719963868</v>
+      </c>
+    </row>
+    <row r="919" spans="1:10">
       <c r="A919" s="2">
         <v>38138</v>
       </c>
       <c r="B919">
-        <v>-0.004005870672537215</v>
+        <v>-0.007236011192441549</v>
       </c>
       <c r="C919">
         <v>0.01614563561915139</v>
@@ -12333,13 +13194,16 @@
       <c r="I919">
         <v>0.01208344622053659</v>
       </c>
-    </row>
-    <row r="920" spans="1:9">
+      <c r="J919">
+        <v>-0.01693999943154356</v>
+      </c>
+    </row>
+    <row r="920" spans="1:10">
       <c r="A920" s="2">
         <v>38168</v>
       </c>
       <c r="B920">
-        <v>0.005651578454657358</v>
+        <v>0.004414018021563937</v>
       </c>
       <c r="C920">
         <v>-0.04256214416049287</v>
@@ -12356,13 +13220,16 @@
       <c r="I920">
         <v>0.01798907805974936</v>
       </c>
-    </row>
-    <row r="921" spans="1:9">
+      <c r="J920">
+        <v>0.01434064822042957</v>
+      </c>
+    </row>
+    <row r="921" spans="1:10">
       <c r="A921" s="2">
         <v>38199</v>
       </c>
       <c r="B921">
-        <v>0.00991225499491466</v>
+        <v>0.0124420931827407</v>
       </c>
       <c r="C921">
         <v>0.01652531076082253</v>
@@ -12379,13 +13246,16 @@
       <c r="I921">
         <v>-0.03429052277269373</v>
       </c>
-    </row>
-    <row r="922" spans="1:9">
+      <c r="J921">
+        <v>0.01359632870621108</v>
+      </c>
+    </row>
+    <row r="922" spans="1:10">
       <c r="A922" s="2">
         <v>38230</v>
       </c>
       <c r="B922">
-        <v>0.01907517410897164</v>
+        <v>0.02377661045064983</v>
       </c>
       <c r="C922">
         <v>-0.01951796893462243</v>
@@ -12402,13 +13272,16 @@
       <c r="I922">
         <v>0.002287332534582243</v>
       </c>
-    </row>
-    <row r="923" spans="1:9">
+      <c r="J922">
+        <v>0.01961473565804273</v>
+      </c>
+    </row>
+    <row r="923" spans="1:10">
       <c r="A923" s="2">
         <v>38260</v>
       </c>
       <c r="B923">
-        <v>0.002713499660812468</v>
+        <v>0.00615716986227377</v>
       </c>
       <c r="C923">
         <v>0.06700586042669032</v>
@@ -12425,13 +13298,16 @@
       <c r="I923">
         <v>0.009363906397160005</v>
       </c>
-    </row>
-    <row r="924" spans="1:9">
+      <c r="J923">
+        <v>0.01452113355857398</v>
+      </c>
+    </row>
+    <row r="924" spans="1:10">
       <c r="A924" s="2">
         <v>38291</v>
       </c>
       <c r="B924">
-        <v>0.008385744234800763</v>
+        <v>0.009763003918621393</v>
       </c>
       <c r="C924">
         <v>0.01549989815583719</v>
@@ -12448,13 +13324,16 @@
       <c r="I924">
         <v>0.01401424751924507</v>
       </c>
-    </row>
-    <row r="925" spans="1:9">
+      <c r="J924">
+        <v>0.01806491953023071</v>
+      </c>
+    </row>
+    <row r="925" spans="1:10">
       <c r="A925" s="2">
         <v>38321</v>
       </c>
       <c r="B925">
-        <v>-0.007976410366848485</v>
+        <v>-0.01017363626093948</v>
       </c>
       <c r="C925">
         <v>-0.01377954527629155</v>
@@ -12471,13 +13350,16 @@
       <c r="I925">
         <v>0.03859493894885846</v>
       </c>
-    </row>
-    <row r="926" spans="1:9">
+      <c r="J925">
+        <v>0.01205655767253688</v>
+      </c>
+    </row>
+    <row r="926" spans="1:10">
       <c r="A926" s="2">
         <v>38352</v>
       </c>
       <c r="B926">
-        <v>0.009201122169527842</v>
+        <v>0.01368189263943731</v>
       </c>
       <c r="C926">
         <v>-0.05085524686127008</v>
@@ -12494,13 +13376,16 @@
       <c r="I926">
         <v>0.03245812816275073</v>
       </c>
-    </row>
-    <row r="927" spans="1:9">
+      <c r="J926">
+        <v>0.01490765171503949</v>
+      </c>
+    </row>
+    <row r="927" spans="1:10">
       <c r="A927" s="2">
         <v>38383</v>
       </c>
       <c r="B927">
-        <v>0.006279473814842396</v>
+        <v>0.007967203994860617</v>
       </c>
       <c r="C927">
         <v>0.008353450614507096</v>
@@ -12517,13 +13402,16 @@
       <c r="I927">
         <v>-0.02529044821440363</v>
       </c>
-    </row>
-    <row r="928" spans="1:9">
+      <c r="J927">
+        <v>-0.001299883010529079</v>
+      </c>
+    </row>
+    <row r="928" spans="1:10">
       <c r="A928" s="2">
         <v>38411</v>
       </c>
       <c r="B928">
-        <v>-0.005903197428244966</v>
+        <v>-0.005959381590964319</v>
       </c>
       <c r="C928">
         <v>0.06855227597179714</v>
@@ -12540,13 +13428,16 @@
       <c r="I928">
         <v>0.01890338364641431</v>
       </c>
-    </row>
-    <row r="929" spans="1:9">
+      <c r="J928">
+        <v>0.01470779643368481</v>
+      </c>
+    </row>
+    <row r="929" spans="1:10">
       <c r="A929" s="2">
         <v>38442</v>
       </c>
       <c r="B929">
-        <v>-0.005136009130682795</v>
+        <v>-0.01325269350254488</v>
       </c>
       <c r="C929">
         <v>0.03319741697299361</v>
@@ -12566,13 +13457,16 @@
       <c r="I929">
         <v>-0.01911764705882357</v>
       </c>
-    </row>
-    <row r="930" spans="1:9">
+      <c r="J929">
+        <v>-0.02907901487942544</v>
+      </c>
+    </row>
+    <row r="930" spans="1:10">
       <c r="A930" s="2">
         <v>38472</v>
       </c>
       <c r="B930">
-        <v>0.01353395959763892</v>
+        <v>0.01296848310279008</v>
       </c>
       <c r="C930">
         <v>-0.06045754960550642</v>
@@ -12592,13 +13486,16 @@
       <c r="I930">
         <v>-0.02010858977291019</v>
       </c>
-    </row>
-    <row r="931" spans="1:9">
+      <c r="J930">
+        <v>-0.009749910823986352</v>
+      </c>
+    </row>
+    <row r="931" spans="1:10">
       <c r="A931" s="2">
         <v>38503</v>
       </c>
       <c r="B931">
-        <v>0.01081874702668983</v>
+        <v>0.0137480905429801</v>
       </c>
       <c r="C931">
         <v>-0.01028930208064516</v>
@@ -12618,13 +13515,16 @@
       <c r="I931">
         <v>0.02995202489518967</v>
       </c>
-    </row>
-    <row r="932" spans="1:9">
+      <c r="J931">
+        <v>0.01775732105930228</v>
+      </c>
+    </row>
+    <row r="932" spans="1:10">
       <c r="A932" s="2">
         <v>38533</v>
       </c>
       <c r="B932">
-        <v>0.005452907811777319</v>
+        <v>0.008199608610567566</v>
       </c>
       <c r="C932">
         <v>0.01431394885193171</v>
@@ -12644,13 +13544,16 @@
       <c r="I932">
         <v>-0.0001426772975241519</v>
       </c>
-    </row>
-    <row r="933" spans="1:9">
+      <c r="J932">
+        <v>0.01962352200928086</v>
+      </c>
+    </row>
+    <row r="933" spans="1:10">
       <c r="A933" s="2">
         <v>38564</v>
       </c>
       <c r="B933">
-        <v>-0.00910345495484588</v>
+        <v>-0.00987338004749061</v>
       </c>
       <c r="C933">
         <v>0.04215597908487845</v>
@@ -12673,13 +13576,16 @@
       <c r="I933">
         <v>0.03596820360437514</v>
       </c>
-    </row>
-    <row r="934" spans="1:9">
+      <c r="J933">
+        <v>0.01748454032372093</v>
+      </c>
+    </row>
+    <row r="934" spans="1:10">
       <c r="A934" s="2">
         <v>38595</v>
       </c>
       <c r="B934">
-        <v>0.01281957306097858</v>
+        <v>0.01530408871405142</v>
       </c>
       <c r="C934">
         <v>0.0720952039043592</v>
@@ -12702,13 +13608,16 @@
       <c r="I934">
         <v>-0.01122202596055688</v>
       </c>
-    </row>
-    <row r="935" spans="1:9">
+      <c r="J934">
+        <v>0.001907938794334374</v>
+      </c>
+    </row>
+    <row r="935" spans="1:10">
       <c r="A935" s="2">
         <v>38625</v>
       </c>
       <c r="B935">
-        <v>-0.01030115395440467</v>
+        <v>-0.01614180069896309</v>
       </c>
       <c r="C935">
         <v>0.04350926286395063</v>
@@ -12731,13 +13640,16 @@
       <c r="I935">
         <v>0.006948940040808704</v>
       </c>
-    </row>
-    <row r="936" spans="1:9">
+      <c r="J935">
+        <v>-0.00997553408832963</v>
+      </c>
+    </row>
+    <row r="936" spans="1:10">
       <c r="A936" s="2">
         <v>38656</v>
       </c>
       <c r="B936">
-        <v>-0.007913937956026462</v>
+        <v>-0.01154613547901751</v>
       </c>
       <c r="C936">
         <v>-0.0658187497685816</v>
@@ -12760,13 +13672,16 @@
       <c r="I936">
         <v>-0.0177407410421464</v>
       </c>
-    </row>
-    <row r="937" spans="1:9">
+      <c r="J936">
+        <v>-0.006980624944269653</v>
+      </c>
+    </row>
+    <row r="937" spans="1:10">
       <c r="A937" s="2">
         <v>38686</v>
       </c>
       <c r="B937">
-        <v>0.004422604422604559</v>
+        <v>0.005876902713434884</v>
       </c>
       <c r="C937">
         <v>-0.0006894211684728146</v>
@@ -12789,13 +13704,16 @@
       <c r="I937">
         <v>0.03518612107604735</v>
       </c>
-    </row>
-    <row r="938" spans="1:9">
+      <c r="J937">
+        <v>0.005220960810724096</v>
+      </c>
+    </row>
+    <row r="938" spans="1:10">
       <c r="A938" s="2">
         <v>38717</v>
       </c>
       <c r="B938">
-        <v>0.009507501630789283</v>
+        <v>0.01011264047161609</v>
       </c>
       <c r="C938">
         <v>0.0285309585178517</v>
@@ -12818,13 +13736,16 @@
       <c r="I938">
         <v>-0.0009523961968179728</v>
       </c>
-    </row>
-    <row r="939" spans="1:9">
+      <c r="J938">
+        <v>0.00858834639238415</v>
+      </c>
+    </row>
+    <row r="939" spans="1:10">
       <c r="A939" s="2">
         <v>38748</v>
       </c>
       <c r="B939">
-        <v>5.654007075595047e-05</v>
+        <v>-0.002103891874287611</v>
       </c>
       <c r="C939">
         <v>0.01472048089007671</v>
@@ -12847,13 +13768,16 @@
       <c r="I939">
         <v>0.02546683863525301</v>
       </c>
-    </row>
-    <row r="940" spans="1:9">
+      <c r="J939">
+        <v>0.01595495666476876</v>
+      </c>
+    </row>
+    <row r="940" spans="1:10">
       <c r="A940" s="2">
         <v>38776</v>
       </c>
       <c r="B940">
-        <v>0.003319522182646306</v>
+        <v>0.004516912311849808</v>
       </c>
       <c r="C940">
         <v>-0.06584433464406658</v>
@@ -12876,13 +13800,16 @@
       <c r="I940">
         <v>0.0004530966814575432</v>
       </c>
-    </row>
-    <row r="941" spans="1:9">
+      <c r="J940">
+        <v>0.006675301384875931</v>
+      </c>
+    </row>
+    <row r="941" spans="1:10">
       <c r="A941" s="2">
         <v>38807</v>
       </c>
       <c r="B941">
-        <v>-0.009812918598660514</v>
+        <v>-0.01409411672969707</v>
       </c>
       <c r="C941">
         <v>0.01824776125290928</v>
@@ -12905,13 +13832,16 @@
       <c r="I941">
         <v>0.01106460731185477</v>
       </c>
-    </row>
-    <row r="942" spans="1:9">
+      <c r="J941">
+        <v>0.005987727632620565</v>
+      </c>
+    </row>
+    <row r="942" spans="1:10">
       <c r="A942" s="2">
         <v>38837</v>
       </c>
       <c r="B942">
-        <v>-0.001812934433559676</v>
+        <v>-0.003499752842313408</v>
       </c>
       <c r="C942">
         <v>0.06400292988849476</v>
@@ -12934,13 +13864,16 @@
       <c r="I942">
         <v>0.01218692801371613</v>
       </c>
-    </row>
-    <row r="943" spans="1:9">
+      <c r="J942">
+        <v>0.006161149097348551</v>
+      </c>
+    </row>
+    <row r="943" spans="1:10">
       <c r="A943" s="2">
         <v>38868</v>
       </c>
       <c r="B943">
-        <v>-0.001066931634930102</v>
+        <v>-0.001686574864081858</v>
       </c>
       <c r="C943">
         <v>0.005188121312943439</v>
@@ -12963,13 +13896,16 @@
       <c r="I943">
         <v>-0.03091690129023883</v>
       </c>
-    </row>
-    <row r="944" spans="1:9">
+      <c r="J943">
+        <v>-0.000134446386447773</v>
+      </c>
+    </row>
+    <row r="944" spans="1:10">
       <c r="A944" s="2">
         <v>38898</v>
       </c>
       <c r="B944">
-        <v>0.002119835957309801</v>
+        <v>0.001258786662161393</v>
       </c>
       <c r="C944">
         <v>-0.01948960486487339</v>
@@ -12992,13 +13928,16 @@
       <c r="I944">
         <v>8.660803565119224e-05</v>
       </c>
-    </row>
-    <row r="945" spans="1:9">
+      <c r="J944">
+        <v>-0.00350830012468506</v>
+      </c>
+    </row>
+    <row r="945" spans="1:10">
       <c r="A945" s="2">
         <v>38929</v>
       </c>
       <c r="B945">
-        <v>0.01352197931836874</v>
+        <v>0.01461003513554648</v>
       </c>
       <c r="C945">
         <v>0.02768949071610072</v>
@@ -13021,13 +13960,16 @@
       <c r="I945">
         <v>0.005085813257754701</v>
       </c>
-    </row>
-    <row r="946" spans="1:9">
+      <c r="J945">
+        <v>0.009789128914731382</v>
+      </c>
+    </row>
+    <row r="946" spans="1:10">
       <c r="A946" s="2">
         <v>38960</v>
       </c>
       <c r="B946">
-        <v>0.0153082931293298</v>
+        <v>0.01863216314392502</v>
       </c>
       <c r="C946">
         <v>-0.04019553766116457</v>
@@ -13050,13 +13992,16 @@
       <c r="I946">
         <v>0.02127426252878584</v>
       </c>
-    </row>
-    <row r="947" spans="1:9">
+      <c r="J946">
+        <v>0.01621779219359309</v>
+      </c>
+    </row>
+    <row r="947" spans="1:10">
       <c r="A947" s="2">
         <v>38990</v>
       </c>
       <c r="B947">
-        <v>0.008783997469955729</v>
+        <v>0.01145370500787468</v>
       </c>
       <c r="C947">
         <v>-0.06390302681299487</v>
@@ -13079,13 +14024,16 @@
       <c r="I947">
         <v>0.02456627448574178</v>
       </c>
-    </row>
-    <row r="948" spans="1:9">
+      <c r="J947">
+        <v>0.01417778415339743</v>
+      </c>
+    </row>
+    <row r="948" spans="1:10">
       <c r="A948" s="2">
         <v>39021</v>
       </c>
       <c r="B948">
-        <v>0.00661488662993448</v>
+        <v>0.008089477981808146</v>
       </c>
       <c r="C948">
         <v>0.04288850850793269</v>
@@ -13108,13 +14056,16 @@
       <c r="I948">
         <v>0.03150802859602519</v>
       </c>
-    </row>
-    <row r="949" spans="1:9">
+      <c r="J948">
+        <v>0.01360239515311523</v>
+      </c>
+    </row>
+    <row r="949" spans="1:10">
       <c r="A949" s="2">
         <v>39051</v>
       </c>
       <c r="B949">
-        <v>0.01160119905010326</v>
+        <v>0.01466146765372578</v>
       </c>
       <c r="C949">
         <v>0.05033722602446145</v>
@@ -13137,13 +14088,16 @@
       <c r="I949">
         <v>0.01646660957661439</v>
       </c>
-    </row>
-    <row r="950" spans="1:9">
+      <c r="J949">
+        <v>0.01680388873383576</v>
+      </c>
+    </row>
+    <row r="950" spans="1:10">
       <c r="A950" s="2">
         <v>39082</v>
       </c>
       <c r="B950">
-        <v>-0.005803348085433924</v>
+        <v>-0.009096759820787725</v>
       </c>
       <c r="C950">
         <v>-0.0496838152202449</v>
@@ -13166,13 +14120,16 @@
       <c r="I950">
         <v>0.012615751483261</v>
       </c>
-    </row>
-    <row r="951" spans="1:9">
+      <c r="J950">
+        <v>0.01097933369168658</v>
+      </c>
+    </row>
+    <row r="951" spans="1:10">
       <c r="A951" s="2">
         <v>39113</v>
       </c>
       <c r="B951">
-        <v>-0.0004103088154461254</v>
+        <v>7.494098397509141e-05</v>
       </c>
       <c r="C951">
         <v>-0.002489359414853398</v>
@@ -13195,13 +14152,16 @@
       <c r="I951">
         <v>0.01405908481985474</v>
       </c>
-    </row>
-    <row r="952" spans="1:9">
+      <c r="J951">
+        <v>0.01116553729198966</v>
+      </c>
+    </row>
+    <row r="952" spans="1:10">
       <c r="A952" s="2">
         <v>39141</v>
       </c>
       <c r="B952">
-        <v>0.01542000340773542</v>
+        <v>0.02059473703930337</v>
       </c>
       <c r="C952">
         <v>0.02961512202111827</v>
@@ -13224,13 +14184,16 @@
       <c r="I952">
         <v>-0.02184614528868623</v>
       </c>
-    </row>
-    <row r="953" spans="1:9">
+      <c r="J952">
+        <v>0.01398460574599492</v>
+      </c>
+    </row>
+    <row r="953" spans="1:10">
       <c r="A953" s="2">
         <v>39172</v>
       </c>
       <c r="B953">
-        <v>3.050896582257323e-05</v>
+        <v>-0.005733131011527393</v>
       </c>
       <c r="C953">
         <v>0.00555220623449304</v>
@@ -13253,13 +14216,16 @@
       <c r="I953">
         <v>0.009979954791657697</v>
       </c>
-    </row>
-    <row r="954" spans="1:9">
+      <c r="J953">
+        <v>0.001059205154798404</v>
+      </c>
+    </row>
+    <row r="954" spans="1:10">
       <c r="A954" s="2">
         <v>39202</v>
       </c>
       <c r="B954">
-        <v>0.005392295195747021</v>
+        <v>0.00733542975649093</v>
       </c>
       <c r="C954">
         <v>0.007281815929742752</v>
@@ -13282,13 +14248,16 @@
       <c r="I954">
         <v>0.0432906831074138</v>
       </c>
-    </row>
-    <row r="955" spans="1:9">
+      <c r="J954">
+        <v>0.01299459936074077</v>
+      </c>
+    </row>
+    <row r="955" spans="1:10">
       <c r="A955" s="2">
         <v>39233</v>
       </c>
       <c r="B955">
-        <v>-0.007578516158397774</v>
+        <v>-0.009994440745062394</v>
       </c>
       <c r="C955">
         <v>-0.002837517348402097</v>
@@ -13311,13 +14280,16 @@
       <c r="I955">
         <v>0.03254922860014697</v>
       </c>
-    </row>
-    <row r="956" spans="1:9">
+      <c r="J955">
+        <v>0.007474784841527971</v>
+      </c>
+    </row>
+    <row r="956" spans="1:10">
       <c r="A956" s="2">
         <v>39263</v>
       </c>
       <c r="B956">
-        <v>-0.002958240649437061</v>
+        <v>-0.004893400388756963</v>
       </c>
       <c r="C956">
         <v>-0.01767161697350617</v>
@@ -13340,13 +14312,16 @@
       <c r="I956">
         <v>-0.01781630973069737</v>
       </c>
-    </row>
-    <row r="957" spans="1:9">
+      <c r="J956">
+        <v>-0.01795973908160176</v>
+      </c>
+    </row>
+    <row r="957" spans="1:10">
       <c r="A957" s="2">
         <v>39294</v>
       </c>
       <c r="B957">
-        <v>0.008341383381633705</v>
+        <v>0.002313006163882303</v>
       </c>
       <c r="C957">
         <v>0.01635694962604117</v>
@@ -13369,13 +14344,16 @@
       <c r="I957">
         <v>-0.0319819070742009</v>
       </c>
-    </row>
-    <row r="958" spans="1:9">
+      <c r="J957">
+        <v>-0.03541068698932182</v>
+      </c>
+    </row>
+    <row r="958" spans="1:10">
       <c r="A958" s="2">
         <v>39325</v>
       </c>
       <c r="B958">
-        <v>0.01225650461519745</v>
+        <v>0.008092306740495658</v>
       </c>
       <c r="C958">
         <v>-0.039898797480723</v>
@@ -13398,13 +14376,16 @@
       <c r="I958">
         <v>0.01286359232307399</v>
       </c>
-    </row>
-    <row r="959" spans="1:9">
+      <c r="J958">
+        <v>0.01363537902021372</v>
+      </c>
+    </row>
+    <row r="959" spans="1:10">
       <c r="A959" s="2">
         <v>39355</v>
       </c>
       <c r="B959">
-        <v>0.007586341580663181</v>
+        <v>0.007702079868420197</v>
       </c>
       <c r="C959">
         <v>0.0766099782624321</v>
@@ -13427,13 +14408,16 @@
       <c r="I959">
         <v>0.03579400131615551</v>
       </c>
-    </row>
-    <row r="960" spans="1:9">
+      <c r="J959">
+        <v>0.02617282839757507</v>
+      </c>
+    </row>
+    <row r="960" spans="1:10">
       <c r="A960" s="2">
         <v>39386</v>
       </c>
       <c r="B960">
-        <v>0.008982884064885566</v>
+        <v>0.01200989049805723</v>
       </c>
       <c r="C960">
         <v>0.02958879640325196</v>
@@ -13456,13 +14440,16 @@
       <c r="I960">
         <v>0.01482233502538088</v>
       </c>
-    </row>
-    <row r="961" spans="1:9">
+      <c r="J960">
+        <v>0.005995440396334706</v>
+      </c>
+    </row>
+    <row r="961" spans="1:10">
       <c r="A961" s="2">
         <v>39416</v>
       </c>
       <c r="B961">
-        <v>0.01798313988282141</v>
+        <v>0.005987843774447832</v>
       </c>
       <c r="C961">
         <v>-0.03420422712875315</v>
@@ -13485,13 +14472,16 @@
       <c r="I961">
         <v>-0.04404342382114135</v>
       </c>
-    </row>
-    <row r="962" spans="1:9">
+      <c r="J961">
+        <v>-0.02169247028316801</v>
+      </c>
+    </row>
+    <row r="962" spans="1:10">
       <c r="A962" s="2">
         <v>39447</v>
       </c>
       <c r="B962">
-        <v>0.002808764506506689</v>
+        <v>0.001579277958902781</v>
       </c>
       <c r="C962">
         <v>0.04353929097732645</v>
@@ -13514,13 +14504,16 @@
       <c r="I962">
         <v>-0.008628488866683881</v>
       </c>
-    </row>
-    <row r="963" spans="1:9">
+      <c r="J962">
+        <v>0.002917854597291436</v>
+      </c>
+    </row>
+    <row r="963" spans="1:10">
       <c r="A963" s="2">
         <v>39478</v>
       </c>
       <c r="B963">
-        <v>0.01679814720995876</v>
+        <v>0.01017744835124135</v>
       </c>
       <c r="C963">
         <v>0.03958662226162923</v>
@@ -13543,13 +14536,16 @@
       <c r="I963">
         <v>-0.06116347489716412</v>
       </c>
-    </row>
-    <row r="964" spans="1:9">
+      <c r="J963">
+        <v>-0.01334754702733909</v>
+      </c>
+    </row>
+    <row r="964" spans="1:10">
       <c r="A964" s="2">
         <v>39507</v>
       </c>
       <c r="B964">
-        <v>0.001387989266216305</v>
+        <v>0.001111551264389554</v>
       </c>
       <c r="C964">
         <v>0.1208340072423333</v>
@@ -13572,13 +14568,16 @@
       <c r="I964">
         <v>-0.03476116209060232</v>
       </c>
-    </row>
-    <row r="965" spans="1:9">
+      <c r="J964">
+        <v>-0.01364066087426286</v>
+      </c>
+    </row>
+    <row r="965" spans="1:10">
       <c r="A965" s="2">
         <v>39538</v>
       </c>
       <c r="B965">
-        <v>0.003411853347170313</v>
+        <v>-0.01270368117362874</v>
       </c>
       <c r="C965">
         <v>-0.06459933333580803</v>
@@ -13601,13 +14600,16 @@
       <c r="I965">
         <v>-0.005959583054643391</v>
       </c>
-    </row>
-    <row r="966" spans="1:9">
+      <c r="J965">
+        <v>-0.003445915107256892</v>
+      </c>
+    </row>
+    <row r="966" spans="1:10">
       <c r="A966" s="2">
         <v>39568</v>
       </c>
       <c r="B966">
-        <v>-0.002089738322258894</v>
+        <v>0.009146377938625383</v>
       </c>
       <c r="C966">
         <v>0.0344943384939258</v>
@@ -13630,13 +14632,16 @@
       <c r="I966">
         <v>0.04754668481137059</v>
       </c>
-    </row>
-    <row r="967" spans="1:9">
+      <c r="J966">
+        <v>0.04309693375163159</v>
+      </c>
+    </row>
+    <row r="967" spans="1:10">
       <c r="A967" s="2">
         <v>39599</v>
       </c>
       <c r="B967">
-        <v>-0.007332950003904215</v>
+        <v>-0.009543625036307235</v>
       </c>
       <c r="C967">
         <v>0.02586881084504955</v>
@@ -13659,13 +14664,16 @@
       <c r="I967">
         <v>0.01067415324879661</v>
       </c>
-    </row>
-    <row r="968" spans="1:9">
+      <c r="J967">
+        <v>0.003611336743430504</v>
+      </c>
+    </row>
+    <row r="968" spans="1:10">
       <c r="A968" s="2">
         <v>39629</v>
       </c>
       <c r="B968">
-        <v>-0.0008080779187346065</v>
+        <v>-0.00639778800519486</v>
       </c>
       <c r="C968">
         <v>0.08921449347572974</v>
@@ -13688,13 +14696,16 @@
       <c r="I968">
         <v>-0.08596238163926939</v>
       </c>
-    </row>
-    <row r="969" spans="1:9">
+      <c r="J968">
+        <v>-0.02795550743183384</v>
+      </c>
+    </row>
+    <row r="969" spans="1:10">
       <c r="A969" s="2">
         <v>39660</v>
       </c>
       <c r="B969">
-        <v>-0.0008158883521203197</v>
+        <v>-0.007475003011685355</v>
       </c>
       <c r="C969">
         <v>-0.1198590766603229</v>
@@ -13717,13 +14728,16 @@
       <c r="I969">
         <v>-0.009859374999999893</v>
       </c>
-    </row>
-    <row r="970" spans="1:9">
+      <c r="J969">
+        <v>-0.01332208157524617</v>
+      </c>
+    </row>
+    <row r="970" spans="1:10">
       <c r="A970" s="2">
         <v>39691</v>
       </c>
       <c r="B970">
-        <v>0.009490656180386914</v>
+        <v>0.00719145036685509</v>
       </c>
       <c r="C970">
         <v>-0.07417924244965457</v>
@@ -13746,13 +14760,16 @@
       <c r="I970">
         <v>0.01219050324291038</v>
       </c>
-    </row>
-    <row r="971" spans="1:9">
+      <c r="J970">
+        <v>0.003500929399824493</v>
+      </c>
+    </row>
+    <row r="971" spans="1:10">
       <c r="A971" s="2">
         <v>39721</v>
       </c>
       <c r="B971">
-        <v>-0.01343162854061408</v>
+        <v>-0.07769154756453212</v>
       </c>
       <c r="C971">
         <v>-0.1164534190536778</v>
@@ -13775,13 +14792,16 @@
       <c r="I971">
         <v>-0.09079145327128302</v>
       </c>
-    </row>
-    <row r="972" spans="1:9">
+      <c r="J971">
+        <v>-0.07977454033046205</v>
+      </c>
+    </row>
+    <row r="972" spans="1:10">
       <c r="A972" s="2">
         <v>39752</v>
       </c>
       <c r="B972">
-        <v>-0.02360420876994895</v>
+        <v>-0.06444110537662517</v>
       </c>
       <c r="C972">
         <v>-0.2134011143455901</v>
@@ -13804,13 +14824,16 @@
       <c r="I972">
         <v>-0.1694245344490551</v>
       </c>
-    </row>
-    <row r="973" spans="1:9">
+      <c r="J972">
+        <v>-0.1590678949838227</v>
+      </c>
+    </row>
+    <row r="973" spans="1:10">
       <c r="A973" s="2">
         <v>39782</v>
       </c>
       <c r="B973">
-        <v>0.03254984863105026</v>
+        <v>0.04068963590911001</v>
       </c>
       <c r="C973">
         <v>-0.06985567404019488</v>
@@ -13833,13 +14856,16 @@
       <c r="I973">
         <v>-0.0748490322580645</v>
       </c>
-    </row>
-    <row r="974" spans="1:9">
+      <c r="J973">
+        <v>-0.09313185602890006</v>
+      </c>
+    </row>
+    <row r="974" spans="1:10">
       <c r="A974" s="2">
         <v>39813</v>
       </c>
       <c r="B974">
-        <v>0.0373091739192466</v>
+        <v>0.0679648131621855</v>
       </c>
       <c r="C974">
         <v>-0.04487870367428604</v>
@@ -13862,13 +14888,16 @@
       <c r="I974">
         <v>0.007821565652057494</v>
       </c>
-    </row>
-    <row r="975" spans="1:9">
+      <c r="J974">
+        <v>0.07683588373411077</v>
+      </c>
+    </row>
+    <row r="975" spans="1:10">
       <c r="A975" s="2">
         <v>39844</v>
       </c>
       <c r="B975">
-        <v>-0.008823327143937743</v>
+        <v>0.004536258654703973</v>
       </c>
       <c r="C975">
         <v>-0.05385089740123383</v>
@@ -13891,13 +14920,16 @@
       <c r="I975">
         <v>-0.0856573484638804</v>
       </c>
-    </row>
-    <row r="976" spans="1:9">
+      <c r="J975">
+        <v>0.05993984962406018</v>
+      </c>
+    </row>
+    <row r="976" spans="1:10">
       <c r="A976" s="2">
         <v>39872</v>
       </c>
       <c r="B976">
-        <v>-0.003774448923518858</v>
+        <v>-0.01967676565509979</v>
       </c>
       <c r="C976">
         <v>-0.0445540627276203</v>
@@ -13920,13 +14952,16 @@
       <c r="I976">
         <v>-0.1099312248752845</v>
       </c>
-    </row>
-    <row r="977" spans="1:9">
+      <c r="J976">
+        <v>-0.03102743807280883</v>
+      </c>
+    </row>
+    <row r="977" spans="1:10">
       <c r="A977" s="2">
         <v>39903</v>
       </c>
       <c r="B977">
-        <v>0.0139013671534931</v>
+        <v>-0.004127907718613266</v>
       </c>
       <c r="C977">
         <v>0.03579839227082315</v>
@@ -13949,13 +14984,16 @@
       <c r="I977">
         <v>0.08540450829150159</v>
       </c>
-    </row>
-    <row r="978" spans="1:9">
+      <c r="J977">
+        <v>0.0318891931067804</v>
+      </c>
+    </row>
+    <row r="978" spans="1:10">
       <c r="A978" s="2">
         <v>39933</v>
       </c>
       <c r="B978">
-        <v>0.004780909334450634</v>
+        <v>0.03471692794587766</v>
       </c>
       <c r="C978">
         <v>0.007186957448475306</v>
@@ -13978,13 +15016,16 @@
       <c r="I978">
         <v>0.09392507551355478</v>
       </c>
-    </row>
-    <row r="979" spans="1:9">
+      <c r="J978">
+        <v>0.121046582573038</v>
+      </c>
+    </row>
+    <row r="979" spans="1:10">
       <c r="A979" s="2">
         <v>39964</v>
       </c>
       <c r="B979">
-        <v>0.007253460946846646</v>
+        <v>0.03903783047489329</v>
       </c>
       <c r="C979">
         <v>0.1298819222365317</v>
@@ -14007,13 +15048,16 @@
       <c r="I979">
         <v>0.05308142665643167</v>
       </c>
-    </row>
-    <row r="980" spans="1:9">
+      <c r="J979">
+        <v>0.06728432563791009</v>
+      </c>
+    </row>
+    <row r="980" spans="1:10">
       <c r="A980" s="2">
         <v>39994</v>
       </c>
       <c r="B980">
-        <v>0.005687679860998163</v>
+        <v>0.02731579417811281</v>
       </c>
       <c r="C980">
         <v>-0.01918077296201781</v>
@@ -14036,13 +15080,16 @@
       <c r="I980">
         <v>0.0001958352372870564</v>
       </c>
-    </row>
-    <row r="981" spans="1:9">
+      <c r="J980">
+        <v>0.02863953322897395</v>
+      </c>
+    </row>
+    <row r="981" spans="1:10">
       <c r="A981" s="2">
         <v>40025</v>
       </c>
       <c r="B981">
-        <v>0.01612968536990311</v>
+        <v>0.04317310425234488</v>
       </c>
       <c r="C981">
         <v>0.03214807717888846</v>
@@ -14065,13 +15112,16 @@
       <c r="I981">
         <v>0.07414175695078962</v>
       </c>
-    </row>
-    <row r="982" spans="1:9">
+      <c r="J981">
+        <v>0.06086074314898715</v>
+      </c>
+    </row>
+    <row r="982" spans="1:10">
       <c r="A982" s="2">
         <v>40056</v>
       </c>
       <c r="B982">
-        <v>0.01035440078637651</v>
+        <v>0.01833831919129003</v>
       </c>
       <c r="C982">
         <v>-0.005979819000374698</v>
@@ -14094,13 +15144,16 @@
       <c r="I982">
         <v>0.03356017337059991</v>
       </c>
-    </row>
-    <row r="983" spans="1:9">
+      <c r="J982">
+        <v>0.01864852528853067</v>
+      </c>
+    </row>
+    <row r="983" spans="1:10">
       <c r="A983" s="2">
         <v>40086</v>
       </c>
       <c r="B983">
-        <v>0.01050465741538109</v>
+        <v>0.01775144698045206</v>
       </c>
       <c r="C983">
         <v>0.01562371986436428</v>
@@ -14123,13 +15176,16 @@
       <c r="I983">
         <v>0.03572338382551776</v>
       </c>
-    </row>
-    <row r="984" spans="1:9">
+      <c r="J983">
+        <v>0.056948385857853</v>
+      </c>
+    </row>
+    <row r="984" spans="1:10">
       <c r="A984" s="2">
         <v>40117</v>
       </c>
       <c r="B984">
-        <v>0.004937516669810904</v>
+        <v>0.007028236341883431</v>
       </c>
       <c r="C984">
         <v>0.03272785086225061</v>
@@ -14152,13 +15208,16 @@
       <c r="I984">
         <v>-0.01976198584780708</v>
       </c>
-    </row>
-    <row r="985" spans="1:9">
+      <c r="J984">
+        <v>0.0179465439276485</v>
+      </c>
+    </row>
+    <row r="985" spans="1:10">
       <c r="A985" s="2">
         <v>40147</v>
       </c>
       <c r="B985">
-        <v>0.01294665976178155</v>
+        <v>0.01430466539869246</v>
       </c>
       <c r="C985">
         <v>0.03512229821912438</v>
@@ -14181,13 +15240,16 @@
       <c r="I985">
         <v>0.05736399695036631</v>
       </c>
-    </row>
-    <row r="986" spans="1:9">
+      <c r="J985">
+        <v>0.0100743678730788</v>
+      </c>
+    </row>
+    <row r="986" spans="1:10">
       <c r="A986" s="2">
         <v>40178</v>
       </c>
       <c r="B986">
-        <v>-0.01563139059304708</v>
+        <v>-0.007805195760192452</v>
       </c>
       <c r="C986">
         <v>0.01973648542713402</v>
@@ -14210,13 +15272,16 @@
       <c r="I986">
         <v>0.01777059773828737</v>
       </c>
-    </row>
-    <row r="987" spans="1:9">
+      <c r="J986">
+        <v>0.03280780633381108</v>
+      </c>
+    </row>
+    <row r="987" spans="1:10">
       <c r="A987" s="2">
         <v>40209</v>
       </c>
       <c r="B987">
-        <v>0.01527584818936067</v>
+        <v>0.01631551085230276</v>
       </c>
       <c r="C987">
         <v>-0.07282776517685152</v>
@@ -14239,13 +15304,16 @@
       <c r="I987">
         <v>-0.03697426239799118</v>
       </c>
-    </row>
-    <row r="988" spans="1:9">
+      <c r="J987">
+        <v>0.01265112919169664</v>
+      </c>
+    </row>
+    <row r="988" spans="1:10">
       <c r="A988" s="2">
         <v>40237</v>
       </c>
       <c r="B988">
-        <v>0.003734325743188549</v>
+        <v>0.003552416372368361</v>
       </c>
       <c r="C988">
         <v>0.03704903347989075</v>
@@ -14268,13 +15336,16 @@
       <c r="I988">
         <v>0.02851369346382726</v>
       </c>
-    </row>
-    <row r="989" spans="1:9">
+      <c r="J988">
+        <v>0.001745839551713368</v>
+      </c>
+    </row>
+    <row r="989" spans="1:10">
       <c r="A989" s="2">
         <v>40268</v>
       </c>
       <c r="B989">
-        <v>-0.001229526473042863</v>
+        <v>0.002989660756550272</v>
       </c>
       <c r="C989">
         <v>-0.01255381755307772</v>
@@ -14297,13 +15368,16 @@
       <c r="I989">
         <v>0.05879636755425577</v>
       </c>
-    </row>
-    <row r="990" spans="1:9">
+      <c r="J989">
+        <v>0.0313516045912392</v>
+      </c>
+    </row>
+    <row r="990" spans="1:10">
       <c r="A990" s="2">
         <v>40298</v>
       </c>
       <c r="B990">
-        <v>0.01040962379925747</v>
+        <v>0.01820016559718485</v>
       </c>
       <c r="C990">
         <v>0.01931114015181024</v>
@@ -14326,13 +15400,16 @@
       <c r="I990">
         <v>0.01475932719358997</v>
       </c>
-    </row>
-    <row r="991" spans="1:9">
+      <c r="J990">
+        <v>0.02343941637670222</v>
+      </c>
+    </row>
+    <row r="991" spans="1:10">
       <c r="A991" s="2">
         <v>40329</v>
       </c>
       <c r="B991">
-        <v>0.008414872798434558</v>
+        <v>-0.00550933384835095</v>
       </c>
       <c r="C991">
         <v>-0.06934553393856291</v>
@@ -14355,13 +15432,16 @@
       <c r="I991">
         <v>-0.08197591620389488</v>
       </c>
-    </row>
-    <row r="992" spans="1:9">
+      <c r="J991">
+        <v>-0.03593399082120885</v>
+      </c>
+    </row>
+    <row r="992" spans="1:10">
       <c r="A992" s="2">
         <v>40359</v>
       </c>
       <c r="B992">
-        <v>0.0156814383102859</v>
+        <v>0.0213110648888708</v>
       </c>
       <c r="C992">
         <v>0.003067102947769129</v>
@@ -14384,13 +15464,16 @@
       <c r="I992">
         <v>-0.05388237669931439</v>
       </c>
-    </row>
-    <row r="993" spans="1:9">
+      <c r="J992">
+        <v>0.0124490115374345</v>
+      </c>
+    </row>
+    <row r="993" spans="1:10">
       <c r="A993" s="2">
         <v>40390</v>
       </c>
       <c r="B993">
-        <v>0.01066885262067951</v>
+        <v>0.01959037844708078</v>
       </c>
       <c r="C993">
         <v>0.06760394474305964</v>
@@ -14413,13 +15496,16 @@
       <c r="I993">
         <v>0.06877783275606131</v>
       </c>
-    </row>
-    <row r="994" spans="1:9">
+      <c r="J993">
+        <v>0.03556000181892616</v>
+      </c>
+    </row>
+    <row r="994" spans="1:10">
       <c r="A994" s="2">
         <v>40421</v>
       </c>
       <c r="B994">
-        <v>0.01286750132638947</v>
+        <v>0.01983235014085327</v>
       </c>
       <c r="C994">
         <v>-0.0255839747452663</v>
@@ -14442,13 +15528,16 @@
       <c r="I994">
         <v>-0.0474491648511256</v>
       </c>
-    </row>
-    <row r="995" spans="1:9">
+      <c r="J994">
+        <v>0.0003600755280375179</v>
+      </c>
+    </row>
+    <row r="995" spans="1:10">
       <c r="A995" s="2">
         <v>40451</v>
       </c>
       <c r="B995">
-        <v>0.001065693694344505</v>
+        <v>0.006992333938084405</v>
       </c>
       <c r="C995">
         <v>0.07247264234960471</v>
@@ -14471,13 +15560,16 @@
       <c r="I995">
         <v>0.08755110403781474</v>
       </c>
-    </row>
-    <row r="996" spans="1:9">
+      <c r="J995">
+        <v>0.03013010728144283</v>
+      </c>
+    </row>
+    <row r="996" spans="1:10">
       <c r="A996" s="2">
         <v>40482</v>
       </c>
       <c r="B996">
-        <v>0.003560559585242817</v>
+        <v>0.00118039493051425</v>
       </c>
       <c r="C996">
         <v>0.04971491989316701</v>
@@ -14500,13 +15592,16 @@
       <c r="I996">
         <v>0.0368559411146161</v>
       </c>
-    </row>
-    <row r="997" spans="1:9">
+      <c r="J996">
+        <v>0.02582283659172635</v>
+      </c>
+    </row>
+    <row r="997" spans="1:10">
       <c r="A997" s="2">
         <v>40512</v>
       </c>
       <c r="B997">
-        <v>-0.005747401982523992</v>
+        <v>-0.008114597205714613</v>
       </c>
       <c r="C997">
         <v>-0.003657942018868932</v>
@@ -14529,13 +15624,16 @@
       <c r="I997">
         <v>-0.002290282778087738</v>
       </c>
-    </row>
-    <row r="998" spans="1:9">
+      <c r="J997">
+        <v>-0.01168084540741743</v>
+      </c>
+    </row>
+    <row r="998" spans="1:10">
       <c r="A998" s="2">
         <v>40543</v>
       </c>
       <c r="B998">
-        <v>-0.0107836695820952</v>
+        <v>-0.009172325179620633</v>
       </c>
       <c r="C998">
         <v>0.1067471592361204</v>
@@ -14558,13 +15656,16 @@
       <c r="I998">
         <v>0.06530007200033894</v>
       </c>
-    </row>
-    <row r="999" spans="1:9">
+      <c r="J998">
+        <v>0.01813184041963001</v>
+      </c>
+    </row>
+    <row r="999" spans="1:10">
       <c r="A999" s="2">
         <v>40574</v>
       </c>
       <c r="B999">
-        <v>0.001163853512887725</v>
+        <v>0.001991325591448101</v>
       </c>
       <c r="C999">
         <v>0.009895752831558413</v>
@@ -14587,13 +15688,16 @@
       <c r="I999">
         <v>0.02264559015298473</v>
       </c>
-    </row>
-    <row r="1000" spans="1:9">
+      <c r="J999">
+        <v>0.02206094832354966</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:10">
       <c r="A1000" s="2">
         <v>40602</v>
       </c>
       <c r="B1000">
-        <v>0.002501506381580088</v>
+        <v>0.007925236181732576</v>
       </c>
       <c r="C1000">
         <v>0.01307195919021908</v>
@@ -14616,13 +15720,16 @@
       <c r="I1000">
         <v>0.03195658258949408</v>
       </c>
-    </row>
-    <row r="1001" spans="1:9">
+      <c r="J1000">
+        <v>0.01310272960069803</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:10">
       <c r="A1001" s="2">
         <v>40633</v>
       </c>
       <c r="B1001">
-        <v>0.0005524794793336785</v>
+        <v>-0.001336936971597424</v>
       </c>
       <c r="C1001">
         <v>0.02054968078837782</v>
@@ -14645,13 +15752,16 @@
       <c r="I1001">
         <v>-0.001047301879115836</v>
       </c>
-    </row>
-    <row r="1002" spans="1:9">
+      <c r="J1001">
+        <v>0.003237303947756676</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:10">
       <c r="A1002" s="2">
         <v>40663</v>
       </c>
       <c r="B1002">
-        <v>0.01269394367820986</v>
+        <v>0.01719637869594526</v>
       </c>
       <c r="C1002">
         <v>0.03457933838529503</v>
@@ -14674,13 +15784,16 @@
       <c r="I1002">
         <v>0.02849535762503486</v>
       </c>
-    </row>
-    <row r="1003" spans="1:9">
+      <c r="J1002">
+        <v>0.01549845412854967</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:10">
       <c r="A1003" s="2">
         <v>40694</v>
       </c>
       <c r="B1003">
-        <v>0.01305012133377281</v>
+        <v>0.01444390264686546</v>
       </c>
       <c r="C1003">
         <v>-0.05061819815290181</v>
@@ -14703,13 +15816,16 @@
       <c r="I1003">
         <v>-0.01350092768460176</v>
       </c>
-    </row>
-    <row r="1004" spans="1:9">
+      <c r="J1003">
+        <v>0.004875987133029058</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:10">
       <c r="A1004" s="2">
         <v>40724</v>
       </c>
       <c r="B1004">
-        <v>-0.002927729442311899</v>
+        <v>-0.008764151911966556</v>
       </c>
       <c r="C1004">
         <v>-0.0504780787502942</v>
@@ -14732,13 +15848,16 @@
       <c r="I1004">
         <v>-0.01825750817722271</v>
       </c>
-    </row>
-    <row r="1005" spans="1:9">
+      <c r="J1004">
+        <v>-0.009735809084678193</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:10">
       <c r="A1005" s="2">
         <v>40755</v>
       </c>
       <c r="B1005">
-        <v>0.01586802548375243</v>
+        <v>0.02521609762528021</v>
       </c>
       <c r="C1005">
         <v>0.02959308792682713</v>
@@ -14761,13 +15880,16 @@
       <c r="I1005">
         <v>-0.02147443663678228</v>
       </c>
-    </row>
-    <row r="1006" spans="1:9">
+      <c r="J1005">
+        <v>0.01159333658429151</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:10">
       <c r="A1006" s="2">
         <v>40786</v>
       </c>
       <c r="B1006">
-        <v>0.0146099630371439</v>
+        <v>0.0006520940484937565</v>
       </c>
       <c r="C1006">
         <v>0.009938297916771477</v>
@@ -14790,13 +15912,16 @@
       <c r="I1006">
         <v>-0.05679109790447878</v>
       </c>
-    </row>
-    <row r="1007" spans="1:9">
+      <c r="J1006">
+        <v>-0.04002612427691732</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:10">
       <c r="A1007" s="2">
         <v>40816</v>
       </c>
       <c r="B1007">
-        <v>0.007274610802566972</v>
+        <v>0.002551605767730392</v>
       </c>
       <c r="C1007">
         <v>-0.1473618082048157</v>
@@ -14819,13 +15944,16 @@
       <c r="I1007">
         <v>-0.07176201297902196</v>
       </c>
-    </row>
-    <row r="1008" spans="1:9">
+      <c r="J1007">
+        <v>-0.03268863187222615</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:10">
       <c r="A1008" s="2">
         <v>40847</v>
       </c>
       <c r="B1008">
-        <v>0.001074169090212962</v>
+        <v>0.01787528952933748</v>
       </c>
       <c r="C1008">
         <v>0.06616400954054735</v>
@@ -14848,13 +15976,16 @@
       <c r="I1008">
         <v>0.1077230383058456</v>
       </c>
-    </row>
-    <row r="1009" spans="1:9">
+      <c r="J1008">
+        <v>0.05992531314890504</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:10">
       <c r="A1009" s="2">
         <v>40877</v>
       </c>
       <c r="B1009">
-        <v>-0.0008675452464799172</v>
+        <v>-0.01959858429684791</v>
       </c>
       <c r="C1009">
         <v>-0.02219926825303264</v>
@@ -14877,13 +16008,16 @@
       <c r="I1009">
         <v>-0.005058645176733378</v>
       </c>
-    </row>
-    <row r="1010" spans="1:9">
+      <c r="J1009">
+        <v>-0.0215579552725752</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:10">
       <c r="A1010" s="2">
         <v>40908</v>
       </c>
       <c r="B1010">
-        <v>0.01099083145297186</v>
+        <v>0.02137565652163942</v>
       </c>
       <c r="C1010">
         <v>-0.03748915569008127</v>
@@ -14906,13 +16040,16 @@
       <c r="I1010">
         <v>0.008532751652017501</v>
       </c>
-    </row>
-    <row r="1011" spans="1:9">
+      <c r="J1010">
+        <v>0.02656224769901505</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:10">
       <c r="A1011" s="2">
         <v>40939</v>
       </c>
       <c r="B1011">
-        <v>0.008780702795246897</v>
+        <v>0.02214088428805594</v>
       </c>
       <c r="C1011">
         <v>0.02470781247112241</v>
@@ -14935,13 +16072,16 @@
       <c r="I1011">
         <v>0.04358301526717567</v>
       </c>
-    </row>
-    <row r="1012" spans="1:9">
+      <c r="J1011">
+        <v>0.03035784506488381</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:10">
       <c r="A1012" s="2">
         <v>40968</v>
       </c>
       <c r="B1012">
-        <v>-0.0002296494205552557</v>
+        <v>0.008418462620005007</v>
       </c>
       <c r="C1012">
         <v>0.0269194297015527</v>
@@ -14964,13 +16104,16 @@
       <c r="I1012">
         <v>0.04058944994323421</v>
       </c>
-    </row>
-    <row r="1013" spans="1:9">
+      <c r="J1012">
+        <v>0.02375391191512111</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:10">
       <c r="A1013" s="2">
         <v>40999</v>
       </c>
       <c r="B1013">
-        <v>-0.005479237164690787</v>
+        <v>-0.009659667728344257</v>
       </c>
       <c r="C1013">
         <v>-0.04143972406842367</v>
@@ -14993,13 +16136,16 @@
       <c r="I1013">
         <v>0.03133237654501775</v>
       </c>
-    </row>
-    <row r="1014" spans="1:9">
+      <c r="J1013">
+        <v>-0.001394252993543232</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:10">
       <c r="A1014" s="2">
         <v>41029</v>
       </c>
       <c r="B1014">
-        <v>0.01108644951947446</v>
+        <v>0.01395989335398218</v>
       </c>
       <c r="C1014">
         <v>-0.004301557200351525</v>
@@ -15022,13 +16168,16 @@
       <c r="I1014">
         <v>-0.007497497284287169</v>
       </c>
-    </row>
-    <row r="1015" spans="1:9">
+      <c r="J1014">
+        <v>0.01046776421398432</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:10">
       <c r="A1015" s="2">
         <v>41060</v>
       </c>
       <c r="B1015">
-        <v>0.009048261106963329</v>
+        <v>0.007545548820438341</v>
       </c>
       <c r="C1015">
         <v>-0.09139107251169043</v>
@@ -15051,13 +16200,16 @@
       <c r="I1015">
         <v>-0.06265067135938662</v>
       </c>
-    </row>
-    <row r="1016" spans="1:9">
+      <c r="J1015">
+        <v>-0.01305629650428175</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:10">
       <c r="A1016" s="2">
         <v>41090</v>
       </c>
       <c r="B1016">
-        <v>0.0003920356034587957</v>
+        <v>0.003548573249614773</v>
       </c>
       <c r="C1016">
         <v>0.05485636658360526</v>
@@ -15080,13 +16232,16 @@
       <c r="I1016">
         <v>0.03955492127937243</v>
       </c>
-    </row>
-    <row r="1017" spans="1:9">
+      <c r="J1016">
+        <v>0.02111252526765006</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:10">
       <c r="A1017" s="2">
         <v>41121</v>
       </c>
       <c r="B1017">
-        <v>0.01379314151354749</v>
+        <v>0.02877311934085736</v>
       </c>
       <c r="C1017">
         <v>0.06459618981652082</v>
@@ -15109,13 +16264,16 @@
       <c r="I1017">
         <v>0.01259763904387134</v>
       </c>
-    </row>
-    <row r="1018" spans="1:9">
+      <c r="J1017">
+        <v>0.01902632157782813</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:10">
       <c r="A1018" s="2">
         <v>41152</v>
       </c>
       <c r="B1018">
-        <v>0.0006533243319759574</v>
+        <v>0.002223288214069585</v>
       </c>
       <c r="C1018">
         <v>0.01289112083735056</v>
@@ -15138,13 +16296,16 @@
       <c r="I1018">
         <v>0.0197633616564683</v>
       </c>
-    </row>
-    <row r="1019" spans="1:9">
+      <c r="J1018">
+        <v>0.01170629924092537</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:10">
       <c r="A1019" s="2">
         <v>41182</v>
       </c>
       <c r="B1019">
-        <v>0.001376526148556101</v>
+        <v>0.007021326185759458</v>
       </c>
       <c r="C1019">
         <v>0.0169735152625361</v>
@@ -15167,13 +16328,16 @@
       <c r="I1019">
         <v>0.02423609037523655</v>
       </c>
-    </row>
-    <row r="1020" spans="1:9">
+      <c r="J1019">
+        <v>0.01391773106136052</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:10">
       <c r="A1020" s="2">
         <v>41213</v>
       </c>
       <c r="B1020">
-        <v>0.001966867518975901</v>
+        <v>0.01287842780682347</v>
       </c>
       <c r="C1020">
         <v>-0.0388165873321028</v>
@@ -15196,13 +16360,16 @@
       <c r="I1020">
         <v>-0.01978940354140779</v>
       </c>
-    </row>
-    <row r="1021" spans="1:9">
+      <c r="J1020">
+        <v>0.008781712714545309</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:10">
       <c r="A1021" s="2">
         <v>41243</v>
       </c>
       <c r="B1021">
-        <v>0.001577996974150286</v>
+        <v>-0.001591375560551889</v>
       </c>
       <c r="C1021">
         <v>0.0004287467703878445</v>
@@ -15225,13 +16392,16 @@
       <c r="I1021">
         <v>0.002846702923181565</v>
       </c>
-    </row>
-    <row r="1022" spans="1:9">
+      <c r="J1021">
+        <v>0.008003003733807912</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:10">
       <c r="A1022" s="2">
         <v>41274</v>
       </c>
       <c r="B1022">
-        <v>-0.001423915279747834</v>
+        <v>-0.0006375648293083236</v>
       </c>
       <c r="C1022">
         <v>-0.02613464161767143</v>
@@ -15254,13 +16424,16 @@
       <c r="I1022">
         <v>0.007068310525498056</v>
       </c>
-    </row>
-    <row r="1023" spans="1:9">
+      <c r="J1022">
+        <v>0.01575476643765694</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:10">
       <c r="A1023" s="2">
         <v>41305</v>
       </c>
       <c r="B1023">
-        <v>-0.006994182358394996</v>
+        <v>-0.008894796033125485</v>
       </c>
       <c r="C1023">
         <v>0.02390798349328804</v>
@@ -15283,13 +16456,16 @@
       <c r="I1023">
         <v>0.05042806358199114</v>
       </c>
-    </row>
-    <row r="1024" spans="1:9">
+      <c r="J1023">
+        <v>0.01340522627261365</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:10">
       <c r="A1024" s="2">
         <v>41333</v>
       </c>
       <c r="B1024">
-        <v>0.005012312379538031</v>
+        <v>0.007699608004951397</v>
       </c>
       <c r="C1024">
         <v>-0.04093525361738715</v>
@@ -15312,13 +16488,16 @@
       <c r="I1024">
         <v>0.01106060302648015</v>
       </c>
-    </row>
-    <row r="1025" spans="1:9">
+      <c r="J1024">
+        <v>0.005079407625812715</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:10">
       <c r="A1025" s="2">
         <v>41364</v>
       </c>
       <c r="B1025">
-        <v>0.0007986222408145061</v>
+        <v>0.0001924525829595236</v>
       </c>
       <c r="C1025">
         <v>0.006660486531846033</v>
@@ -15341,13 +16520,16 @@
       <c r="I1025">
         <v>0.03598779940317431</v>
       </c>
-    </row>
-    <row r="1026" spans="1:9">
+      <c r="J1025">
+        <v>0.01018081446515717</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:10">
       <c r="A1026" s="2">
         <v>41394</v>
       </c>
       <c r="B1026">
-        <v>0.01011866633372049</v>
+        <v>0.01825900770890398</v>
       </c>
       <c r="C1026">
         <v>-0.02796556785829118</v>
@@ -15370,13 +16552,16 @@
       <c r="I1026">
         <v>0.01808576399288797</v>
       </c>
-    </row>
-    <row r="1027" spans="1:9">
+      <c r="J1026">
+        <v>0.01809061809061796</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:10">
       <c r="A1027" s="2">
         <v>41425</v>
       </c>
       <c r="B1027">
-        <v>-0.01784198024484362</v>
+        <v>-0.02343570960466057</v>
       </c>
       <c r="C1027">
         <v>-0.02246549468838199</v>
@@ -15399,13 +16584,16 @@
       <c r="I1027">
         <v>0.02076278347740645</v>
       </c>
-    </row>
-    <row r="1028" spans="1:9">
+      <c r="J1027">
+        <v>-0.005795560626491114</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:10">
       <c r="A1028" s="2">
         <v>41455</v>
       </c>
       <c r="B1028">
-        <v>-0.01546854310071244</v>
+        <v>-0.02760463412023362</v>
       </c>
       <c r="C1028">
         <v>-0.04718076697836249</v>
@@ -15428,13 +16616,16 @@
       <c r="I1028">
         <v>-0.01499932545960736</v>
       </c>
-    </row>
-    <row r="1029" spans="1:9">
+      <c r="J1028">
+        <v>-0.02622553174841213</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:10">
       <c r="A1029" s="2">
         <v>41486</v>
       </c>
       <c r="B1029">
-        <v>0.001367190756456749</v>
+        <v>0.008332310141454746</v>
       </c>
       <c r="C1029">
         <v>0.0135843999540437</v>
@@ -15457,13 +16648,16 @@
       <c r="I1029">
         <v>0.0494621112134872</v>
       </c>
-    </row>
-    <row r="1030" spans="1:9">
+      <c r="J1029">
+        <v>0.01895674300254457</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:10">
       <c r="A1030" s="2">
         <v>41517</v>
       </c>
       <c r="B1030">
-        <v>-0.005111640220449964</v>
+        <v>-0.007024777772645763</v>
       </c>
       <c r="C1030">
         <v>0.03398461125057572</v>
@@ -15486,13 +16680,16 @@
       <c r="I1030">
         <v>-0.0312980133236046</v>
       </c>
-    </row>
-    <row r="1031" spans="1:9">
+      <c r="J1030">
+        <v>-0.006078687792023474</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:10">
       <c r="A1031" s="2">
         <v>41547</v>
       </c>
       <c r="B1031">
-        <v>0.009466907662784019</v>
+        <v>0.006947615906361504</v>
       </c>
       <c r="C1031">
         <v>-0.02556029575796614</v>
@@ -15515,13 +16712,16 @@
       <c r="I1031">
         <v>0.02974947488318835</v>
       </c>
-    </row>
-    <row r="1032" spans="1:9">
+      <c r="J1031">
+        <v>0.009930841146212011</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:10">
       <c r="A1032" s="2">
         <v>41578</v>
       </c>
       <c r="B1032">
-        <v>0.008084972340884233</v>
+        <v>0.01478622751724923</v>
       </c>
       <c r="C1032">
         <v>-0.01480761197164981</v>
@@ -15544,13 +16744,16 @@
       <c r="I1032">
         <v>0.04459575986441089</v>
       </c>
-    </row>
-    <row r="1033" spans="1:9">
+      <c r="J1032">
+        <v>0.02505433786367095</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:10">
       <c r="A1033" s="2">
         <v>41608</v>
       </c>
       <c r="B1033">
-        <v>-0.003744189106218876</v>
+        <v>-0.001982222075084361</v>
       </c>
       <c r="C1033">
         <v>-0.008056498501534337</v>
@@ -15573,13 +16776,16 @@
       <c r="I1033">
         <v>0.02804946087194149</v>
       </c>
-    </row>
-    <row r="1034" spans="1:9">
+      <c r="J1033">
+        <v>0.00507743892703183</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:10">
       <c r="A1034" s="2">
         <v>41639</v>
       </c>
       <c r="B1034">
-        <v>-0.005651147562633074</v>
+        <v>-0.001633709141722228</v>
       </c>
       <c r="C1034">
         <v>0.01233545216842469</v>
@@ -15602,13 +16808,16 @@
       <c r="I1034">
         <v>0.02356283329918418</v>
       </c>
-    </row>
-    <row r="1035" spans="1:9">
+      <c r="J1034">
+        <v>0.005394929147868099</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:10">
       <c r="A1035" s="2">
         <v>41670</v>
       </c>
       <c r="B1035">
-        <v>0.01477538100561127</v>
+        <v>0.01812480531616645</v>
       </c>
       <c r="C1035">
         <v>0.00293515385502352</v>
@@ -15631,13 +16840,16 @@
       <c r="I1035">
         <v>-0.03558289510701373</v>
       </c>
-    </row>
-    <row r="1036" spans="1:9">
+      <c r="J1035">
+        <v>0.007015592311921948</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:10">
       <c r="A1036" s="2">
         <v>41698</v>
       </c>
       <c r="B1036">
-        <v>0.005316944420207692</v>
+        <v>0.01039818225578149</v>
       </c>
       <c r="C1036">
         <v>0.06230306547859743</v>
@@ -15660,13 +16872,16 @@
       <c r="I1036">
         <v>0.04311703756893071</v>
       </c>
-    </row>
-    <row r="1037" spans="1:9">
+      <c r="J1036">
+        <v>0.02022858362256708</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:10">
       <c r="A1037" s="2">
         <v>41729</v>
       </c>
       <c r="B1037">
-        <v>-0.001703272561580982</v>
+        <v>0.0006661606537257114</v>
       </c>
       <c r="C1037">
         <v>0.004068569313090409</v>
@@ -15689,13 +16904,16 @@
       <c r="I1037">
         <v>0.006932157358358504</v>
       </c>
-    </row>
-    <row r="1038" spans="1:9">
+      <c r="J1037">
+        <v>0.002362320980363153</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:10">
       <c r="A1038" s="2">
         <v>41759</v>
       </c>
       <c r="B1038">
-        <v>0.008438520514896464</v>
+        <v>0.01197887457484859</v>
       </c>
       <c r="C1038">
         <v>0.02433033955430797</v>
@@ -15718,13 +16936,16 @@
       <c r="I1038">
         <v>0.006200796863817581</v>
       </c>
-    </row>
-    <row r="1039" spans="1:9">
+      <c r="J1038">
+        <v>0.006333775224628191</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:10">
       <c r="A1039" s="2">
         <v>41790</v>
       </c>
       <c r="B1039">
-        <v>0.01138531170860491</v>
+        <v>0.0136710495889516</v>
       </c>
       <c r="C1039">
         <v>-0.02876707954634516</v>
@@ -15747,13 +16968,16 @@
       <c r="I1039">
         <v>0.02103028212001368</v>
       </c>
-    </row>
-    <row r="1040" spans="1:9">
+      <c r="J1039">
+        <v>0.009196916471506666</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:10">
       <c r="A1040" s="2">
         <v>41820</v>
       </c>
       <c r="B1040">
-        <v>0.0005167738395230881</v>
+        <v>0.0007787579989850801</v>
       </c>
       <c r="C1040">
         <v>0.00593578236660175</v>
@@ -15776,13 +17000,16 @@
       <c r="I1040">
         <v>0.0190583134484319</v>
       </c>
-    </row>
-    <row r="1041" spans="1:9">
+      <c r="J1040">
+        <v>0.008357707462109287</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:10">
       <c r="A1041" s="2">
         <v>41851</v>
       </c>
       <c r="B1041">
-        <v>-0.002507987220447316</v>
+        <v>-0.0005580686109984967</v>
       </c>
       <c r="C1041">
         <v>-0.04986005758140288</v>
@@ -15805,13 +17032,16 @@
       <c r="I1041">
         <v>-0.01507986307729192</v>
       </c>
-    </row>
-    <row r="1042" spans="1:9">
+      <c r="J1041">
+        <v>-0.01333461185791596</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:10">
       <c r="A1042" s="2">
         <v>41882</v>
       </c>
       <c r="B1042">
-        <v>0.0110394012672892</v>
+        <v>0.01442351173974754</v>
       </c>
       <c r="C1042">
         <v>-0.01047420030442259</v>
@@ -15834,13 +17064,16 @@
       <c r="I1042">
         <v>0.03765532172769026</v>
       </c>
-    </row>
-    <row r="1043" spans="1:9">
+      <c r="J1042">
+        <v>0.01584727334572444</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:10">
       <c r="A1043" s="2">
         <v>41912</v>
       </c>
       <c r="B1043">
-        <v>-0.006789970274080459</v>
+        <v>-0.01442775462738632</v>
       </c>
       <c r="C1043">
         <v>-0.06227399673709955</v>
@@ -15863,13 +17096,16 @@
       <c r="I1043">
         <v>-0.01551385914733672</v>
       </c>
-    </row>
-    <row r="1044" spans="1:9">
+      <c r="J1043">
+        <v>-0.02093361157118678</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:10">
       <c r="A1044" s="2">
         <v>41943</v>
       </c>
       <c r="B1044">
-        <v>0.009829302911578797</v>
+        <v>0.0102378339685274</v>
       </c>
       <c r="C1044">
         <v>-0.008051919165707577</v>
@@ -15892,13 +17128,16 @@
       <c r="I1044">
         <v>0.02320145617530889</v>
       </c>
-    </row>
-    <row r="1045" spans="1:9">
+      <c r="J1044">
+        <v>0.01189065725348426</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:10">
       <c r="A1045" s="2">
         <v>41973</v>
       </c>
       <c r="B1045">
-        <v>0.007096230785428537</v>
+        <v>0.006739184601488812</v>
       </c>
       <c r="C1045">
         <v>-0.04069596089572913</v>
@@ -15921,13 +17160,16 @@
       <c r="I1045">
         <v>0.02453358440078302</v>
       </c>
-    </row>
-    <row r="1046" spans="1:9">
+      <c r="J1045">
+        <v>-0.007284732239315916</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:10">
       <c r="A1046" s="2">
         <v>42004</v>
       </c>
       <c r="B1046">
-        <v>0.0009356639555062607</v>
+        <v>0.000607145757520744</v>
       </c>
       <c r="C1046">
         <v>-0.07629016221155227</v>
@@ -15950,13 +17192,16 @@
       <c r="I1046">
         <v>-0.004188512062527794</v>
       </c>
-    </row>
-    <row r="1047" spans="1:9">
+      <c r="J1046">
+        <v>-0.01448182779878648</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:10">
       <c r="A1047" s="2">
         <v>42035</v>
       </c>
       <c r="B1047">
-        <v>0.02096748082115241</v>
+        <v>0.03033886776118488</v>
       </c>
       <c r="C1047">
         <v>-0.03342519062384686</v>
@@ -15979,13 +17224,16 @@
       <c r="I1047">
         <v>-0.03104084705425236</v>
       </c>
-    </row>
-    <row r="1048" spans="1:9">
+      <c r="J1047">
+        <v>0.00660703269586671</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:10">
       <c r="A1048" s="2">
         <v>42063</v>
       </c>
       <c r="B1048">
-        <v>-0.009401438348456748</v>
+        <v>-0.01013526185885649</v>
       </c>
       <c r="C1048">
         <v>0.02574937054559978</v>
@@ -16008,13 +17256,16 @@
       <c r="I1048">
         <v>0.05489250572684568</v>
       </c>
-    </row>
-    <row r="1049" spans="1:9">
+      <c r="J1048">
+        <v>0.02410354781180479</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:10">
       <c r="A1049" s="2">
         <v>42094</v>
       </c>
       <c r="B1049">
-        <v>0.004642060475875676</v>
+        <v>0.003190699225440685</v>
       </c>
       <c r="C1049">
         <v>-0.05138252033345603</v>
@@ -16037,13 +17288,16 @@
       <c r="I1049">
         <v>-0.01739605607032557</v>
       </c>
-    </row>
-    <row r="1050" spans="1:9">
+      <c r="J1049">
+        <v>-0.005475631941784687</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:10">
       <c r="A1050" s="2">
         <v>42124</v>
       </c>
       <c r="B1050">
-        <v>-0.003587526919301198</v>
+        <v>-0.00700325609857444</v>
       </c>
       <c r="C1050">
         <v>0.05731683703107326</v>
@@ -16066,13 +17320,16 @@
       <c r="I1050">
         <v>0.008520762709815388</v>
       </c>
-    </row>
-    <row r="1051" spans="1:9">
+      <c r="J1050">
+        <v>0.01207059432333057</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:10">
       <c r="A1051" s="2">
         <v>42155</v>
       </c>
       <c r="B1051">
-        <v>-0.002408892786217254</v>
+        <v>-0.00652769324406588</v>
       </c>
       <c r="C1051">
         <v>-0.02699448948452543</v>
@@ -16095,13 +17352,16 @@
       <c r="I1051">
         <v>0.01049143854500811</v>
       </c>
-    </row>
-    <row r="1052" spans="1:9">
+      <c r="J1051">
+        <v>0.003032194773923136</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:10">
       <c r="A1052" s="2">
         <v>42185</v>
       </c>
       <c r="B1052">
-        <v>-0.01090497316414851</v>
+        <v>-0.01837925594645506</v>
       </c>
       <c r="C1052">
         <v>0.01726360002575622</v>
@@ -16124,13 +17384,16 @@
       <c r="I1052">
         <v>-0.0210117728564716</v>
       </c>
-    </row>
-    <row r="1053" spans="1:9">
+      <c r="J1052">
+        <v>-0.01488396905841549</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:10">
       <c r="A1053" s="2">
         <v>42216</v>
       </c>
       <c r="B1053">
-        <v>0.006952830533904164</v>
+        <v>0.006752118082101966</v>
       </c>
       <c r="C1053">
         <v>-0.1062088320875029</v>
@@ -16153,13 +17416,16 @@
       <c r="I1053">
         <v>0.01974203993000856</v>
       </c>
-    </row>
-    <row r="1054" spans="1:9">
+      <c r="J1053">
+        <v>-0.005824518333995221</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:10">
       <c r="A1054" s="2">
         <v>42247</v>
       </c>
       <c r="B1054">
-        <v>-0.001438072048967176</v>
+        <v>-0.005920300664483902</v>
       </c>
       <c r="C1054">
         <v>-0.009259914994873775</v>
@@ -16182,13 +17448,16 @@
       <c r="I1054">
         <v>-0.06258080462392579</v>
       </c>
-    </row>
-    <row r="1055" spans="1:9">
+      <c r="J1054">
+        <v>-0.01741856608524084</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:10">
       <c r="A1055" s="2">
         <v>42277</v>
       </c>
       <c r="B1055">
-        <v>0.006763993303594562</v>
+        <v>0.007456142060358495</v>
       </c>
       <c r="C1055">
         <v>-0.03421647634296976</v>
@@ -16211,13 +17480,16 @@
       <c r="I1055">
         <v>-0.02644281962092709</v>
       </c>
-    </row>
-    <row r="1056" spans="1:9">
+      <c r="J1055">
+        <v>-0.02602434276985244</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:10">
       <c r="A1056" s="2">
         <v>42308</v>
       </c>
       <c r="B1056">
-        <v>0.0001704166946390195</v>
+        <v>0.00417827298050133</v>
       </c>
       <c r="C1056">
         <v>-0.004469297915997705</v>
@@ -16240,13 +17512,16 @@
       <c r="I1056">
         <v>0.08298307838940033</v>
       </c>
-    </row>
-    <row r="1057" spans="1:9">
+      <c r="J1056">
+        <v>0.02749125680641029</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:10">
       <c r="A1057" s="2">
         <v>42338</v>
       </c>
       <c r="B1057">
-        <v>-0.002643590326111611</v>
+        <v>-0.002188318693173041</v>
       </c>
       <c r="C1057">
         <v>-0.07263959628909877</v>
@@ -16269,13 +17544,16 @@
       <c r="I1057">
         <v>0.0005049630655584725</v>
       </c>
-    </row>
-    <row r="1058" spans="1:9">
+      <c r="J1057">
+        <v>-0.02222564165692131</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:10">
       <c r="A1058" s="2">
         <v>42369</v>
       </c>
       <c r="B1058">
-        <v>-0.003230415605392278</v>
+        <v>-0.007795607586334685</v>
       </c>
       <c r="C1058">
         <v>-0.03107250909925119</v>
@@ -16298,13 +17576,16 @@
       <c r="I1058">
         <v>-0.01753019837435876</v>
       </c>
-    </row>
-    <row r="1059" spans="1:9">
+      <c r="J1058">
+        <v>-0.02518585664016515</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:10">
       <c r="A1059" s="2">
         <v>42400</v>
       </c>
       <c r="B1059">
-        <v>0.01375818011841701</v>
+        <v>0.003545119526175977</v>
       </c>
       <c r="C1059">
         <v>-0.01699873215985992</v>
@@ -16327,13 +17608,16 @@
       <c r="I1059">
         <v>-0.05073534448173622</v>
       </c>
-    </row>
-    <row r="1060" spans="1:9">
+      <c r="J1059">
+        <v>-0.01607278926500399</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:10">
       <c r="A1060" s="2">
         <v>42429</v>
       </c>
       <c r="B1060">
-        <v>0.007095686744642338</v>
+        <v>0.008077275053900212</v>
       </c>
       <c r="C1060">
         <v>-0.01653773338133269</v>
@@ -16356,13 +17640,16 @@
       <c r="I1060">
         <v>-0.004128355255019978</v>
       </c>
-    </row>
-    <row r="1061" spans="1:9">
+      <c r="J1060">
+        <v>0.00571638587901746</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:10">
       <c r="A1061" s="2">
         <v>42460</v>
       </c>
       <c r="B1061">
-        <v>0.009172118387986261</v>
+        <v>0.02773813599418395</v>
       </c>
       <c r="C1061">
         <v>0.03793338187640494</v>
@@ -16385,13 +17672,16 @@
       <c r="I1061">
         <v>0.06599110871894109</v>
       </c>
-    </row>
-    <row r="1062" spans="1:9">
+      <c r="J1061">
+        <v>0.04444661968154517</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:10">
       <c r="A1062" s="2">
         <v>42490</v>
       </c>
       <c r="B1062">
-        <v>0.003841171103504903</v>
+        <v>0.01369124703381264</v>
       </c>
       <c r="C1062">
         <v>0.08491104593338328</v>
@@ -16414,13 +17704,16 @@
       <c r="I1062">
         <v>0.00269936982337593</v>
       </c>
-    </row>
-    <row r="1063" spans="1:9">
+      <c r="J1062">
+        <v>0.03915002093082842</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:10">
       <c r="A1063" s="2">
         <v>42521</v>
       </c>
       <c r="B1063">
-        <v>0.0002561025213543289</v>
+        <v>-0.0007716847095660118</v>
       </c>
       <c r="C1063">
         <v>-0.002130483334405131</v>
@@ -16443,13 +17736,16 @@
       <c r="I1063">
         <v>0.01532949208347456</v>
       </c>
-    </row>
-    <row r="1064" spans="1:9">
+      <c r="J1063">
+        <v>0.006174955055706866</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:10">
       <c r="A1064" s="2">
         <v>42551</v>
       </c>
       <c r="B1064">
-        <v>0.01796776946633871</v>
+        <v>0.02251068814272039</v>
       </c>
       <c r="C1064">
         <v>0.04106011017327504</v>
@@ -16472,13 +17768,16 @@
       <c r="I1064">
         <v>0.0009060735540973308</v>
       </c>
-    </row>
-    <row r="1065" spans="1:9">
+      <c r="J1064">
+        <v>0.009202600631035285</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:10">
       <c r="A1065" s="2">
         <v>42582</v>
       </c>
       <c r="B1065">
-        <v>0.006322465465628424</v>
+        <v>0.01461048934117271</v>
       </c>
       <c r="C1065">
         <v>-0.05134265997165754</v>
@@ -16501,13 +17800,16 @@
       <c r="I1065">
         <v>0.0356098072286859</v>
       </c>
-    </row>
-    <row r="1066" spans="1:9">
+      <c r="J1065">
+        <v>0.02703630894578524</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:10">
       <c r="A1066" s="2">
         <v>42613</v>
       </c>
       <c r="B1066">
-        <v>-0.001141871394896299</v>
+        <v>0.001958954559377668</v>
       </c>
       <c r="C1066">
         <v>-0.01789492043867591</v>
@@ -16530,13 +17832,16 @@
       <c r="I1066">
         <v>-0.001219175561280816</v>
       </c>
-    </row>
-    <row r="1067" spans="1:9">
+      <c r="J1066">
+        <v>0.02092245603920428</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:10">
       <c r="A1067" s="2">
         <v>42643</v>
       </c>
       <c r="B1067">
-        <v>-0.0005887605608926316</v>
+        <v>-0.002477676032305642</v>
       </c>
       <c r="C1067">
         <v>0.03104042758059111</v>
@@ -16559,13 +17864,16 @@
       <c r="I1067">
         <v>-0.001234482599783426</v>
       </c>
-    </row>
-    <row r="1068" spans="1:9">
+      <c r="J1067">
+        <v>0.006663692476239325</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:10">
       <c r="A1068" s="2">
         <v>42674</v>
       </c>
       <c r="B1068">
-        <v>-0.007648577796541933</v>
+        <v>-0.008135701940380935</v>
       </c>
       <c r="C1068">
         <v>-0.005166272175482156</v>
@@ -16588,13 +17896,16 @@
       <c r="I1068">
         <v>-0.01942562503747225</v>
       </c>
-    </row>
-    <row r="1069" spans="1:9">
+      <c r="J1068">
+        <v>0.003859552673357358</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:10">
       <c r="A1069" s="2">
         <v>42704</v>
       </c>
       <c r="B1069">
-        <v>-0.02365192440882569</v>
+        <v>-0.02682767342598047</v>
       </c>
       <c r="C1069">
         <v>0.01296096281438053</v>
@@ -16617,13 +17928,16 @@
       <c r="I1069">
         <v>0.03417444676998316</v>
       </c>
-    </row>
-    <row r="1070" spans="1:9">
+      <c r="J1069">
+        <v>-0.004744421532632548</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:10">
       <c r="A1070" s="2">
         <v>42735</v>
       </c>
       <c r="B1070">
-        <v>0.001408600570533824</v>
+        <v>0.00669337123659397</v>
       </c>
       <c r="C1070">
         <v>0.01759155363569231</v>
@@ -16646,13 +17960,16 @@
       <c r="I1070">
         <v>0.01820075404423305</v>
       </c>
-    </row>
-    <row r="1071" spans="1:9">
+      <c r="J1070">
+        <v>0.01845613089422682</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:10">
       <c r="A1071" s="2">
         <v>42766</v>
       </c>
       <c r="B1071">
-        <v>0.001963195150705532</v>
+        <v>0.00308055655388384</v>
       </c>
       <c r="C1071">
         <v>0.0008889965537102196</v>
@@ -16675,13 +17992,16 @@
       <c r="I1071">
         <v>0.01788434137473582</v>
       </c>
-    </row>
-    <row r="1072" spans="1:9">
+      <c r="J1071">
+        <v>0.01452159770653583</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:10">
       <c r="A1072" s="2">
         <v>42794</v>
       </c>
       <c r="B1072">
-        <v>0.006721373563943978</v>
+        <v>0.01146908064551533</v>
       </c>
       <c r="C1072">
         <v>0.001673665006701519</v>
@@ -16704,13 +18024,16 @@
       <c r="I1072">
         <v>0.03719826054140873</v>
       </c>
-    </row>
-    <row r="1073" spans="1:9">
+      <c r="J1072">
+        <v>0.01455284508664856</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:10">
       <c r="A1073" s="2">
         <v>42825</v>
       </c>
       <c r="B1073">
-        <v>-0.003295611870222093</v>
+        <v>-0.002324194393739654</v>
       </c>
       <c r="C1073">
         <v>-0.03208044787482844</v>
@@ -16732,6 +18055,20 @@
       </c>
       <c r="I1073">
         <v>-0.001061921443197722</v>
+      </c>
+      <c r="J1073">
+        <v>-0.002228209344553034</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:10">
+      <c r="A1074" s="2">
+        <v>42855</v>
+      </c>
+      <c r="B1074">
+        <v>0.01068431807312731</v>
+      </c>
+      <c r="J1074">
+        <v>0.01154707135993482</v>
       </c>
     </row>
   </sheetData>
